--- a/TrueTestRun/obj/Release/Package/PackageTmp/App_Data/Data.xlsx
+++ b/TrueTestRun/obj/Release/Package/PackageTmp/App_Data/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhpc\Downloads\TrueTestRun\TrueTestRun\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhpc\source\repos\TrueTestRun2\TrueTestRun2\TrueTestRun1\TrueTestRun\TrueTestRun\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E12125-6449-4EF0-8BEF-9F9D1A48655A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE7D46-811E-4620-BDBC-E93D2AD5025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,11 +164,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="huongnu - Personal View" guid="{9CF3897A-3362-4DE8-96F7-93848509A9BE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="803" activeSheetId="2"/>
+    <customWorkbookView name="kiennv - Personal View" guid="{94B59B2A-9585-4D9A-BED4-BCF0F1FE3EA6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="803" activeSheetId="2"/>
+    <customWorkbookView name="nguyenht - Personal View" guid="{A79C6ED5-FF33-4A92-AAA4-17CEBF295D79}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="538" tabRatio="803" activeSheetId="2" showComments="commIndAndComment"/>
+    <customWorkbookView name="oanhle - Personal View" guid="{94965486-E9DF-406B-B6E1-3DE13BB22C66}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" tabRatio="803" activeSheetId="5"/>
     <customWorkbookView name="habt - Personal View" guid="{B47E26A6-91B7-4739-9DD5-2795DCC67202}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" tabRatio="803" activeSheetId="2"/>
-    <customWorkbookView name="oanhle - Personal View" guid="{94965486-E9DF-406B-B6E1-3DE13BB22C66}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1276" windowHeight="794" tabRatio="803" activeSheetId="5"/>
-    <customWorkbookView name="nguyenht - Personal View" guid="{A79C6ED5-FF33-4A92-AAA4-17CEBF295D79}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1020" windowHeight="538" tabRatio="803" activeSheetId="2" showComments="commIndAndComment"/>
-    <customWorkbookView name="kiennv - Personal View" guid="{94B59B2A-9585-4D9A-BED4-BCF0F1FE3EA6}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="803" activeSheetId="2"/>
-    <customWorkbookView name="huongnu - Personal View" guid="{9CF3897A-3362-4DE8-96F7-93848509A9BE}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" tabRatio="803" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>Mã linh kiện
 部品コード</t>
@@ -611,30 +611,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>NG数　r=　　　　　n=　　　　　</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
     <t>　Nội dung NG/ NG内容:</t>
   </si>
   <si>
@@ -760,6 +736,15 @@
   <si>
     <t>NG</t>
   </si>
+  <si>
+    <t>NG数</t>
+  </si>
+  <si>
+    <t>r=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
 </sst>
 </file>
 
@@ -775,7 +760,7 @@
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -972,13 +957,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2081,7 +2059,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2143,7 +2121,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2221,58 +2199,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2323,48 +2301,483 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="49" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="46" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="47" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="31" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="40" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="58" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="68" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="47" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="73" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="73" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2377,12 +2790,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2395,12 +2802,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="78" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2421,429 +2822,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="76" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="31" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="40" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="58" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="66" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="68" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="69" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="68" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="39" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="47" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="62" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="31" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="46" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="54" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="49" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="37" xfId="15" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="47" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -15259,8 +15237,8 @@
   </sheetPr>
   <dimension ref="A1:BD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.796875" defaultRowHeight="12.75"/>
@@ -15654,62 +15632,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="8.25" customHeight="1">
-      <c r="AF1" s="223" t="s">
-        <v>59</v>
+      <c r="AF1" s="80" t="s">
+        <v>58</v>
       </c>
-      <c r="AG1" s="223"/>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="223"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="8.25" customHeight="1">
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="223"/>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="223"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="80"/>
     </row>
     <row r="3" spans="1:42" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="AB3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="224" t="s">
-        <v>55</v>
+      <c r="A4" s="81" t="s">
+        <v>54</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
-      <c r="P4" s="225"/>
-      <c r="Q4" s="225"/>
-      <c r="R4" s="225"/>
-      <c r="S4" s="225"/>
-      <c r="T4" s="225"/>
-      <c r="U4" s="225"/>
-      <c r="V4" s="225"/>
-      <c r="W4" s="225"/>
-      <c r="X4" s="225"/>
-      <c r="Y4" s="225"/>
-      <c r="Z4" s="225"/>
-      <c r="AA4" s="225"/>
-      <c r="AB4" s="225"/>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="225"/>
-      <c r="AE4" s="225"/>
-      <c r="AF4" s="225"/>
-      <c r="AG4" s="225"/>
-      <c r="AH4" s="225"/>
-      <c r="AI4" s="225"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -15719,41 +15697,41 @@
       <c r="AP4" s="2"/>
     </row>
     <row r="5" spans="1:42" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="225"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
-      <c r="K5" s="225"/>
-      <c r="L5" s="225"/>
-      <c r="M5" s="225"/>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
-      <c r="P5" s="225"/>
-      <c r="Q5" s="225"/>
-      <c r="R5" s="225"/>
-      <c r="S5" s="225"/>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="225"/>
-      <c r="X5" s="225"/>
-      <c r="Y5" s="225"/>
-      <c r="Z5" s="225"/>
-      <c r="AA5" s="225"/>
-      <c r="AB5" s="225"/>
-      <c r="AC5" s="225"/>
-      <c r="AD5" s="225"/>
-      <c r="AE5" s="225"/>
-      <c r="AF5" s="225"/>
-      <c r="AG5" s="225"/>
-      <c r="AH5" s="225"/>
-      <c r="AI5" s="225"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:42" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -15765,7 +15743,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AE6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -15781,451 +15759,451 @@
       <c r="AJ7" s="4"/>
     </row>
     <row r="8" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A8" s="226" t="s">
+      <c r="A8" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="227"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="227" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="230"/>
-      <c r="P8" s="230"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="232" t="s">
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="232"/>
-      <c r="V8" s="232"/>
-      <c r="W8" s="232"/>
-      <c r="X8" s="234"/>
-      <c r="Y8" s="234"/>
-      <c r="Z8" s="234"/>
-      <c r="AA8" s="234"/>
-      <c r="AB8" s="234"/>
-      <c r="AC8" s="234"/>
-      <c r="AD8" s="234"/>
-      <c r="AE8" s="236" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="AF8" s="236"/>
-      <c r="AG8" s="238"/>
-      <c r="AH8" s="238"/>
-      <c r="AI8" s="239"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="96"/>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="97"/>
       <c r="AM8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="175"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
-      <c r="M9" s="228"/>
-      <c r="N9" s="228"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="231"/>
-      <c r="Q9" s="231"/>
-      <c r="R9" s="231"/>
-      <c r="S9" s="231"/>
-      <c r="T9" s="233"/>
-      <c r="U9" s="233"/>
-      <c r="V9" s="233"/>
-      <c r="W9" s="233"/>
-      <c r="X9" s="235"/>
-      <c r="Y9" s="235"/>
-      <c r="Z9" s="235"/>
-      <c r="AA9" s="235"/>
-      <c r="AB9" s="235"/>
-      <c r="AC9" s="235"/>
-      <c r="AD9" s="235"/>
-      <c r="AE9" s="237"/>
-      <c r="AF9" s="237"/>
-      <c r="AG9" s="240"/>
-      <c r="AH9" s="240"/>
-      <c r="AI9" s="241"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="99"/>
       <c r="AM9" s="5"/>
     </row>
     <row r="10" spans="1:42" s="1" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A10" s="242" t="s">
+      <c r="A10" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="248" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="248"/>
-      <c r="N10" s="248"/>
-      <c r="O10" s="248"/>
-      <c r="P10" s="248"/>
-      <c r="Q10" s="249"/>
-      <c r="R10" s="249"/>
-      <c r="S10" s="249"/>
-      <c r="T10" s="249"/>
-      <c r="U10" s="249"/>
-      <c r="V10" s="249"/>
-      <c r="W10" s="249"/>
-      <c r="X10" s="249"/>
-      <c r="Y10" s="249"/>
-      <c r="Z10" s="249"/>
-      <c r="AA10" s="250" t="s">
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="110"/>
+      <c r="V10" s="110"/>
+      <c r="W10" s="110"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" s="251"/>
-      <c r="AC10" s="251"/>
-      <c r="AD10" s="251"/>
-      <c r="AE10" s="221"/>
-      <c r="AF10" s="221"/>
-      <c r="AG10" s="221"/>
-      <c r="AH10" s="221"/>
-      <c r="AI10" s="222"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="79"/>
       <c r="AM10" s="5"/>
     </row>
     <row r="11" spans="1:42" s="1" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A11" s="244"/>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="194"/>
-      <c r="K11" s="247"/>
-      <c r="L11" s="248"/>
-      <c r="M11" s="248"/>
-      <c r="N11" s="248"/>
-      <c r="O11" s="248"/>
-      <c r="P11" s="248"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="249"/>
-      <c r="T11" s="249"/>
-      <c r="U11" s="249"/>
-      <c r="V11" s="249"/>
-      <c r="W11" s="249"/>
-      <c r="X11" s="249"/>
-      <c r="Y11" s="249"/>
-      <c r="Z11" s="249"/>
-      <c r="AA11" s="251"/>
-      <c r="AB11" s="251"/>
-      <c r="AC11" s="251"/>
-      <c r="AD11" s="251"/>
-      <c r="AE11" s="221"/>
-      <c r="AF11" s="221"/>
-      <c r="AG11" s="221"/>
-      <c r="AH11" s="221"/>
-      <c r="AI11" s="222"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="79"/>
       <c r="AM11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="181" t="s">
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="184" t="s">
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="191"/>
-      <c r="AF12" s="191"/>
-      <c r="AG12" s="191"/>
-      <c r="AH12" s="191"/>
-      <c r="AI12" s="192"/>
+      <c r="Y12" s="133"/>
+      <c r="Z12" s="133"/>
+      <c r="AA12" s="133"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="139"/>
       <c r="AM12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="177"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="183"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="189"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="194"/>
-      <c r="AE13" s="194"/>
-      <c r="AF13" s="194"/>
-      <c r="AG13" s="194"/>
-      <c r="AH13" s="194"/>
-      <c r="AI13" s="195"/>
+      <c r="A13" s="120"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="126"/>
+      <c r="R13" s="126"/>
+      <c r="S13" s="126"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="136"/>
+      <c r="Z13" s="136"/>
+      <c r="AA13" s="136"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="107"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="140"/>
       <c r="AM13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="202" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="203"/>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="203"/>
-      <c r="S14" s="203"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="208" t="s">
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="208"/>
-      <c r="X14" s="208"/>
-      <c r="Y14" s="208"/>
-      <c r="Z14" s="208"/>
-      <c r="AA14" s="208"/>
-      <c r="AB14" s="208"/>
-      <c r="AC14" s="208"/>
-      <c r="AD14" s="208"/>
-      <c r="AE14" s="208"/>
-      <c r="AF14" s="208"/>
-      <c r="AG14" s="208"/>
-      <c r="AH14" s="208"/>
-      <c r="AI14" s="209"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="154"/>
     </row>
     <row r="15" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="198"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="206"/>
-      <c r="Q15" s="206"/>
-      <c r="R15" s="206"/>
-      <c r="S15" s="206"/>
-      <c r="T15" s="206"/>
-      <c r="U15" s="207"/>
-      <c r="V15" s="210"/>
-      <c r="W15" s="210"/>
-      <c r="X15" s="210"/>
-      <c r="Y15" s="210"/>
-      <c r="Z15" s="210"/>
-      <c r="AA15" s="210"/>
-      <c r="AB15" s="210"/>
-      <c r="AC15" s="210"/>
-      <c r="AD15" s="210"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="210"/>
-      <c r="AG15" s="210"/>
-      <c r="AH15" s="210"/>
-      <c r="AI15" s="211"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="155"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="155"/>
+      <c r="AI15" s="156"/>
     </row>
     <row r="16" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="198"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="212"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
-      <c r="M16" s="213"/>
-      <c r="N16" s="213"/>
-      <c r="O16" s="213"/>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="213"/>
-      <c r="S16" s="213"/>
-      <c r="T16" s="213"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="185"/>
-      <c r="AF16" s="185"/>
-      <c r="AG16" s="185"/>
-      <c r="AH16" s="185"/>
-      <c r="AI16" s="218"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="158"/>
+      <c r="T16" s="158"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="133"/>
+      <c r="AF16" s="133"/>
+      <c r="AG16" s="133"/>
+      <c r="AH16" s="133"/>
+      <c r="AI16" s="163"/>
     </row>
     <row r="17" spans="1:44" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="200"/>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
-      <c r="Q17" s="216"/>
-      <c r="R17" s="216"/>
-      <c r="S17" s="216"/>
-      <c r="T17" s="216"/>
-      <c r="U17" s="217"/>
-      <c r="V17" s="219"/>
-      <c r="W17" s="219"/>
-      <c r="X17" s="219"/>
-      <c r="Y17" s="219"/>
-      <c r="Z17" s="219"/>
-      <c r="AA17" s="219"/>
-      <c r="AB17" s="219"/>
-      <c r="AC17" s="219"/>
-      <c r="AD17" s="219"/>
-      <c r="AE17" s="219"/>
-      <c r="AF17" s="219"/>
-      <c r="AG17" s="219"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="220"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="161"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="164"/>
+      <c r="W17" s="164"/>
+      <c r="X17" s="164"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="164"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="164"/>
+      <c r="AD17" s="164"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="164"/>
+      <c r="AG17" s="164"/>
+      <c r="AH17" s="164"/>
+      <c r="AI17" s="165"/>
     </row>
     <row r="18" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="170"/>
-      <c r="W18" s="170"/>
-      <c r="X18" s="170"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="170"/>
-      <c r="AA18" s="170"/>
-      <c r="AB18" s="170"/>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="170"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="170"/>
-      <c r="AH18" s="170"/>
-      <c r="AI18" s="171"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="114"/>
+      <c r="Z18" s="114"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="114"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="114"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="114"/>
+      <c r="AH18" s="114"/>
+      <c r="AI18" s="115"/>
       <c r="AM18" s="6" t="s">
         <v>15</v>
       </c>
@@ -16236,41 +16214,41 @@
       <c r="AR18" s="6"/>
     </row>
     <row r="19" spans="1:44" s="1" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
-      <c r="AI19" s="174"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="117"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="117"/>
+      <c r="AI19" s="118"/>
       <c r="AM19" s="6" t="s">
         <v>16</v>
       </c>
@@ -16281,47 +16259,47 @@
       <c r="AR19" s="6"/>
     </row>
     <row r="20" spans="1:44" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="147" t="s">
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="140"/>
-      <c r="N20" s="140"/>
-      <c r="O20" s="140"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="149"/>
-      <c r="W20" s="151" t="s">
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="180"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="143"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
-      <c r="AA20" s="153"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="153"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="154"/>
+      <c r="X20" s="180"/>
+      <c r="Y20" s="180"/>
+      <c r="Z20" s="180"/>
+      <c r="AA20" s="190"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="190"/>
+      <c r="AD20" s="190"/>
+      <c r="AE20" s="190"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="190"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="191"/>
       <c r="AM20" s="6" t="s">
         <v>20</v>
       </c>
@@ -16332,41 +16310,41 @@
       <c r="AR20" s="6"/>
     </row>
     <row r="21" spans="1:44" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="145"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="150"/>
-      <c r="W21" s="152"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="155"/>
-      <c r="AG21" s="155"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="156"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="185"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="179"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="182"/>
+      <c r="T21" s="182"/>
+      <c r="U21" s="182"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="182"/>
+      <c r="Y21" s="182"/>
+      <c r="Z21" s="182"/>
+      <c r="AA21" s="192"/>
+      <c r="AB21" s="192"/>
+      <c r="AC21" s="192"/>
+      <c r="AD21" s="192"/>
+      <c r="AE21" s="192"/>
+      <c r="AF21" s="192"/>
+      <c r="AG21" s="192"/>
+      <c r="AH21" s="192"/>
+      <c r="AI21" s="193"/>
       <c r="AM21" s="6" t="s">
         <v>21</v>
       </c>
@@ -16377,53 +16355,53 @@
       <c r="AR21" s="6"/>
     </row>
     <row r="22" spans="1:44" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="158"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="195"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="165" t="s">
+      <c r="F22" s="202" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="165" t="s">
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="165" t="s">
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="129"/>
-      <c r="R22" s="129"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="165" t="s">
+      <c r="P22" s="166"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="195"/>
+      <c r="U22" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="129"/>
-      <c r="W22" s="129"/>
-      <c r="X22" s="129"/>
-      <c r="Y22" s="129"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="129" t="s">
+      <c r="V22" s="166"/>
+      <c r="W22" s="166"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="195"/>
+      <c r="AA22" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="129"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="AB22" s="166"/>
+      <c r="AC22" s="166"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="166"/>
+      <c r="AG22" s="166"/>
+      <c r="AH22" s="166"/>
+      <c r="AI22" s="167"/>
       <c r="AM22" s="6" t="s">
         <v>27</v>
       </c>
@@ -16434,47 +16412,47 @@
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="1:44" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="159"/>
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
+      <c r="A23" s="196"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="198"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="167"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="168"/>
-      <c r="U23" s="166"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="131"/>
-      <c r="AB23" s="131"/>
-      <c r="AC23" s="131"/>
-      <c r="AD23" s="131"/>
-      <c r="AE23" s="131"/>
-      <c r="AF23" s="131"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="132"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="197"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="197"/>
+      <c r="M23" s="197"/>
+      <c r="N23" s="197"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="168"/>
+      <c r="Q23" s="168"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="205"/>
+      <c r="U23" s="203"/>
+      <c r="V23" s="197"/>
+      <c r="W23" s="197"/>
+      <c r="X23" s="197"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
+      <c r="AC23" s="168"/>
+      <c r="AD23" s="168"/>
+      <c r="AE23" s="168"/>
+      <c r="AF23" s="168"/>
+      <c r="AG23" s="168"/>
+      <c r="AH23" s="168"/>
+      <c r="AI23" s="169"/>
     </row>
     <row r="24" spans="1:44" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="159"/>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="198"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -16497,23 +16475,23 @@
       <c r="X24" s="10"/>
       <c r="Y24" s="74"/>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="133"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="133"/>
-      <c r="AF24" s="133"/>
-      <c r="AG24" s="133"/>
-      <c r="AH24" s="133"/>
-      <c r="AI24" s="134"/>
+      <c r="AA24" s="170"/>
+      <c r="AB24" s="170"/>
+      <c r="AC24" s="170"/>
+      <c r="AD24" s="170"/>
+      <c r="AE24" s="170"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="170"/>
+      <c r="AH24" s="170"/>
+      <c r="AI24" s="171"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
     </row>
     <row r="25" spans="1:44" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="159"/>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="197"/>
+      <c r="D25" s="198"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17"/>
       <c r="G25" s="75"/>
@@ -16536,23 +16514,23 @@
       <c r="X25" s="75"/>
       <c r="Y25" s="75"/>
       <c r="Z25" s="18"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="135"/>
-      <c r="AF25" s="135"/>
-      <c r="AG25" s="135"/>
-      <c r="AH25" s="135"/>
-      <c r="AI25" s="136"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="172"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="172"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="173"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
     </row>
     <row r="26" spans="1:44" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A26" s="162"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
+      <c r="A26" s="199"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="201"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
       <c r="G26" s="76"/>
@@ -16575,22 +16553,22 @@
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="21"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="137"/>
-      <c r="AH26" s="137"/>
-      <c r="AI26" s="138"/>
+      <c r="AA26" s="174"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="174"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="174"/>
+      <c r="AH26" s="174"/>
+      <c r="AI26" s="175"/>
       <c r="AM26" s="16"/>
       <c r="AN26" s="16"/>
     </row>
     <row r="27" spans="1:44" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -16611,7 +16589,7 @@
         <v>28</v>
       </c>
       <c r="S27" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -16635,53 +16613,53 @@
     <row r="28" spans="1:44" s="1" customFormat="1" ht="26.45" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="118" t="s">
+      <c r="N28" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="120"/>
+      <c r="O28" s="208"/>
+      <c r="P28" s="208"/>
+      <c r="Q28" s="209"/>
       <c r="R28" s="26"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="115" t="s">
-        <v>63</v>
+      <c r="T28" s="206" t="s">
+        <v>62</v>
       </c>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="115"/>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="115"/>
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="206"/>
+      <c r="X28" s="206"/>
+      <c r="Y28" s="206"/>
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
       <c r="AB28" s="29"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="122" t="s">
+      <c r="AE28" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="AF28" s="123"/>
-      <c r="AG28" s="123"/>
-      <c r="AH28" s="124"/>
+      <c r="AF28" s="211"/>
+      <c r="AG28" s="211"/>
+      <c r="AH28" s="212"/>
       <c r="AI28" s="27"/>
     </row>
     <row r="29" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
       <c r="E29" s="62"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -16691,10 +16669,10 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="90"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="214"/>
       <c r="R29" s="26"/>
       <c r="S29" s="31"/>
       <c r="T29" s="26"/>
@@ -16708,10 +16686,10 @@
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
-      <c r="AE29" s="83"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="90"/>
+      <c r="AE29" s="121"/>
+      <c r="AF29" s="122"/>
+      <c r="AG29" s="122"/>
+      <c r="AH29" s="214"/>
       <c r="AI29" s="27"/>
     </row>
     <row r="30" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16728,10 +16706,10 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="103"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="215"/>
       <c r="R30" s="26"/>
       <c r="S30" s="31"/>
       <c r="T30" s="26"/>
@@ -16745,10 +16723,10 @@
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="26"/>
-      <c r="AE30" s="125"/>
-      <c r="AF30" s="102"/>
-      <c r="AG30" s="102"/>
-      <c r="AH30" s="103"/>
+      <c r="AE30" s="130"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="215"/>
       <c r="AI30" s="27"/>
     </row>
     <row r="31" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16765,10 +16743,10 @@
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="215"/>
       <c r="R31" s="26"/>
       <c r="S31" s="31"/>
       <c r="T31" s="26"/>
@@ -16782,10 +16760,10 @@
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="26"/>
-      <c r="AE31" s="125"/>
-      <c r="AF31" s="102"/>
-      <c r="AG31" s="102"/>
-      <c r="AH31" s="103"/>
+      <c r="AE31" s="130"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="215"/>
       <c r="AI31" s="27"/>
     </row>
     <row r="32" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -16802,10 +16780,10 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="217"/>
+      <c r="Q32" s="218"/>
       <c r="R32" s="26"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -16819,10 +16797,10 @@
       <c r="AB32" s="34"/>
       <c r="AC32" s="34"/>
       <c r="AD32" s="34"/>
-      <c r="AE32" s="126"/>
-      <c r="AF32" s="96"/>
-      <c r="AG32" s="96"/>
-      <c r="AH32" s="97"/>
+      <c r="AE32" s="216"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="217"/>
+      <c r="AH32" s="218"/>
       <c r="AI32" s="27"/>
     </row>
     <row r="33" spans="1:50" s="1" customFormat="1" ht="1.5" customHeight="1">
@@ -16865,7 +16843,7 @@
     <row r="34" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="25"/>
       <c r="B34" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -16886,7 +16864,7 @@
         <v>32</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
@@ -16908,46 +16886,46 @@
     <row r="35" spans="1:50" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="118" t="s">
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="223"/>
+      <c r="K35" s="223"/>
+      <c r="L35" s="223"/>
+      <c r="M35" s="224"/>
+      <c r="N35" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="O35" s="119"/>
-      <c r="P35" s="119"/>
-      <c r="Q35" s="120"/>
+      <c r="O35" s="208"/>
+      <c r="P35" s="208"/>
+      <c r="Q35" s="209"/>
       <c r="R35" s="26"/>
       <c r="S35" s="28"/>
-      <c r="T35" s="121" t="s">
+      <c r="T35" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
+      <c r="U35" s="225"/>
+      <c r="V35" s="225"/>
+      <c r="W35" s="225"/>
+      <c r="X35" s="225"/>
+      <c r="Y35" s="225"/>
       <c r="Z35" s="29"/>
       <c r="AA35" s="29"/>
       <c r="AB35" s="29"/>
       <c r="AC35" s="29"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="122" t="s">
+      <c r="AE35" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="AF35" s="123"/>
-      <c r="AG35" s="123"/>
-      <c r="AH35" s="124"/>
+      <c r="AF35" s="211"/>
+      <c r="AG35" s="211"/>
+      <c r="AH35" s="212"/>
       <c r="AI35" s="27"/>
     </row>
     <row r="36" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16964,10 +16942,10 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="90"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="214"/>
       <c r="R36" s="26"/>
       <c r="S36" s="31"/>
       <c r="T36" s="26"/>
@@ -16981,10 +16959,10 @@
       <c r="AB36" s="26"/>
       <c r="AC36" s="26"/>
       <c r="AD36" s="26"/>
-      <c r="AE36" s="83"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="84"/>
-      <c r="AH36" s="90"/>
+      <c r="AE36" s="121"/>
+      <c r="AF36" s="122"/>
+      <c r="AG36" s="122"/>
+      <c r="AH36" s="214"/>
       <c r="AI36" s="27"/>
     </row>
     <row r="37" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -17001,10 +16979,10 @@
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="125"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="103"/>
+      <c r="N37" s="130"/>
+      <c r="O37" s="126"/>
+      <c r="P37" s="126"/>
+      <c r="Q37" s="215"/>
       <c r="R37" s="26"/>
       <c r="S37" s="31"/>
       <c r="T37" s="26"/>
@@ -17018,10 +16996,10 @@
       <c r="AB37" s="26"/>
       <c r="AC37" s="26"/>
       <c r="AD37" s="26"/>
-      <c r="AE37" s="125"/>
-      <c r="AF37" s="102"/>
-      <c r="AG37" s="102"/>
-      <c r="AH37" s="103"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="126"/>
+      <c r="AG37" s="126"/>
+      <c r="AH37" s="215"/>
       <c r="AI37" s="27"/>
     </row>
     <row r="38" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -17038,10 +17016,10 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="103"/>
+      <c r="N38" s="130"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="126"/>
+      <c r="Q38" s="215"/>
       <c r="R38" s="26"/>
       <c r="S38" s="31"/>
       <c r="T38" s="26"/>
@@ -17055,10 +17033,10 @@
       <c r="AB38" s="26"/>
       <c r="AC38" s="26"/>
       <c r="AD38" s="26"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="102"/>
-      <c r="AG38" s="102"/>
-      <c r="AH38" s="103"/>
+      <c r="AE38" s="130"/>
+      <c r="AF38" s="126"/>
+      <c r="AG38" s="126"/>
+      <c r="AH38" s="215"/>
       <c r="AI38" s="27"/>
     </row>
     <row r="39" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -17075,10 +17053,10 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="97"/>
+      <c r="N39" s="216"/>
+      <c r="O39" s="217"/>
+      <c r="P39" s="217"/>
+      <c r="Q39" s="218"/>
       <c r="R39" s="26"/>
       <c r="S39" s="33"/>
       <c r="T39" s="34"/>
@@ -17092,10 +17070,10 @@
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
       <c r="AD39" s="34"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="96"/>
-      <c r="AG39" s="96"/>
-      <c r="AH39" s="97"/>
+      <c r="AE39" s="216"/>
+      <c r="AF39" s="217"/>
+      <c r="AG39" s="217"/>
+      <c r="AH39" s="218"/>
       <c r="AI39" s="27"/>
     </row>
     <row r="40" spans="1:50" s="1" customFormat="1" ht="3.75" customHeight="1">
@@ -17137,7 +17115,7 @@
     </row>
     <row r="41" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -17157,7 +17135,7 @@
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="34"/>
@@ -17241,17 +17219,17 @@
       <c r="Q43" s="77"/>
       <c r="R43" s="26"/>
       <c r="S43" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U43" s="26"/>
       <c r="V43" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W43" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X43" s="26"/>
       <c r="Y43" s="26"/>
@@ -17282,33 +17260,37 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
-      <c r="N44" s="111" t="s">
+      <c r="N44" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="113"/>
+      <c r="O44" s="220"/>
+      <c r="P44" s="220"/>
+      <c r="Q44" s="221"/>
       <c r="R44" s="26"/>
-      <c r="S44" s="41" t="s">
-        <v>40</v>
+      <c r="S44" s="41"/>
+      <c r="T44" s="26" t="s">
+        <v>73</v>
       </c>
-      <c r="T44" s="26"/>
       <c r="U44" s="26"/>
       <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
+      <c r="W44" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="X44" s="26"/>
       <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
+      <c r="Z44" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="AA44" s="26"/>
       <c r="AB44" s="26"/>
       <c r="AC44" s="26"/>
       <c r="AD44" s="26"/>
-      <c r="AE44" s="111" t="s">
+      <c r="AE44" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="AF44" s="112"/>
-      <c r="AG44" s="112"/>
-      <c r="AH44" s="114"/>
+      <c r="AF44" s="220"/>
+      <c r="AG44" s="220"/>
+      <c r="AH44" s="222"/>
       <c r="AI44" s="27"/>
       <c r="AX44" s="42"/>
     </row>
@@ -17326,13 +17308,13 @@
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="82"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="227"/>
+      <c r="P45" s="227"/>
+      <c r="Q45" s="228"/>
       <c r="R45" s="26"/>
       <c r="S45" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
@@ -17345,10 +17327,10 @@
       <c r="AB45" s="26"/>
       <c r="AC45" s="26"/>
       <c r="AD45" s="26"/>
-      <c r="AE45" s="80"/>
-      <c r="AF45" s="81"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="89"/>
+      <c r="AE45" s="226"/>
+      <c r="AF45" s="227"/>
+      <c r="AG45" s="227"/>
+      <c r="AH45" s="232"/>
       <c r="AI45" s="27"/>
       <c r="AX45" s="43"/>
     </row>
@@ -17366,10 +17348,10 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="82"/>
+      <c r="N46" s="226"/>
+      <c r="O46" s="227"/>
+      <c r="P46" s="227"/>
+      <c r="Q46" s="228"/>
       <c r="R46" s="26"/>
       <c r="S46" s="44"/>
       <c r="T46" s="26"/>
@@ -17383,10 +17365,10 @@
       <c r="AB46" s="26"/>
       <c r="AC46" s="26"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="80"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="89"/>
+      <c r="AE46" s="226"/>
+      <c r="AF46" s="227"/>
+      <c r="AG46" s="227"/>
+      <c r="AH46" s="232"/>
       <c r="AI46" s="27"/>
       <c r="AX46" s="43"/>
     </row>
@@ -17404,14 +17386,13 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="82"/>
+      <c r="N47" s="226"/>
+      <c r="O47" s="227"/>
+      <c r="P47" s="227"/>
+      <c r="Q47" s="228"/>
       <c r="R47" s="26"/>
       <c r="S47" s="44"/>
       <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
       <c r="V47" s="26"/>
       <c r="W47" s="26"/>
       <c r="X47" s="26"/>
@@ -17421,10 +17402,10 @@
       <c r="AB47" s="26"/>
       <c r="AC47" s="26"/>
       <c r="AD47" s="26"/>
-      <c r="AE47" s="80"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="89"/>
+      <c r="AE47" s="226"/>
+      <c r="AF47" s="227"/>
+      <c r="AG47" s="227"/>
+      <c r="AH47" s="232"/>
       <c r="AI47" s="27"/>
       <c r="AX47" s="45"/>
     </row>
@@ -17442,10 +17423,10 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
-      <c r="N48" s="86"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="88"/>
+      <c r="N48" s="229"/>
+      <c r="O48" s="230"/>
+      <c r="P48" s="230"/>
+      <c r="Q48" s="231"/>
       <c r="R48" s="34"/>
       <c r="S48" s="46"/>
       <c r="T48" s="34"/>
@@ -17459,10 +17440,10 @@
       <c r="AB48" s="34"/>
       <c r="AC48" s="34"/>
       <c r="AD48" s="34"/>
-      <c r="AE48" s="86"/>
-      <c r="AF48" s="87"/>
-      <c r="AG48" s="87"/>
-      <c r="AH48" s="91"/>
+      <c r="AE48" s="229"/>
+      <c r="AF48" s="230"/>
+      <c r="AG48" s="230"/>
+      <c r="AH48" s="233"/>
       <c r="AI48" s="27"/>
     </row>
     <row r="49" spans="1:56" s="1" customFormat="1" ht="2.25" customHeight="1">
@@ -17504,7 +17485,7 @@
     </row>
     <row r="50" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="66"/>
@@ -17523,23 +17504,23 @@
       <c r="P50" s="66"/>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
-      <c r="S50" s="127" t="s">
-        <v>62</v>
+      <c r="S50" s="234" t="s">
+        <v>61</v>
       </c>
-      <c r="T50" s="127"/>
-      <c r="U50" s="127"/>
-      <c r="V50" s="127"/>
-      <c r="W50" s="127"/>
-      <c r="X50" s="127"/>
-      <c r="Y50" s="127"/>
-      <c r="Z50" s="127"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="127"/>
-      <c r="AC50" s="127"/>
-      <c r="AD50" s="127"/>
-      <c r="AE50" s="127"/>
-      <c r="AF50" s="127"/>
-      <c r="AG50" s="127"/>
+      <c r="T50" s="234"/>
+      <c r="U50" s="234"/>
+      <c r="V50" s="234"/>
+      <c r="W50" s="234"/>
+      <c r="X50" s="234"/>
+      <c r="Y50" s="234"/>
+      <c r="Z50" s="234"/>
+      <c r="AA50" s="234"/>
+      <c r="AB50" s="234"/>
+      <c r="AC50" s="234"/>
+      <c r="AD50" s="234"/>
+      <c r="AE50" s="234"/>
+      <c r="AF50" s="234"/>
+      <c r="AG50" s="234"/>
       <c r="AH50" s="26"/>
       <c r="AI50" s="27"/>
       <c r="AN50" s="26"/>
@@ -17590,7 +17571,7 @@
       <c r="A52" s="25"/>
       <c r="B52" s="38"/>
       <c r="C52" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -17598,7 +17579,7 @@
       <c r="G52" s="26"/>
       <c r="H52" s="40"/>
       <c r="I52" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
@@ -17610,13 +17591,13 @@
       <c r="Q52" s="77"/>
       <c r="R52" s="26"/>
       <c r="S52" s="48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
       <c r="V52" s="49"/>
       <c r="W52" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X52" s="42"/>
       <c r="Y52" s="42"/>
@@ -17644,7 +17625,7 @@
     <row r="53" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -17657,21 +17638,21 @@
       <c r="K53" s="26"/>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
-      <c r="N53" s="111" t="s">
+      <c r="N53" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="112"/>
-      <c r="P53" s="112"/>
-      <c r="Q53" s="113"/>
+      <c r="O53" s="220"/>
+      <c r="P53" s="220"/>
+      <c r="Q53" s="221"/>
       <c r="R53" s="26"/>
       <c r="S53" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" s="42"/>
       <c r="U53" s="42"/>
       <c r="V53" s="49"/>
       <c r="W53" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X53" s="42"/>
       <c r="Y53" s="52"/>
@@ -17680,12 +17661,12 @@
       <c r="AB53" s="42"/>
       <c r="AC53" s="42"/>
       <c r="AD53" s="42"/>
-      <c r="AE53" s="111" t="s">
+      <c r="AE53" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="AF53" s="112"/>
-      <c r="AG53" s="112"/>
-      <c r="AH53" s="114"/>
+      <c r="AF53" s="220"/>
+      <c r="AG53" s="220"/>
+      <c r="AH53" s="222"/>
       <c r="AI53" s="27"/>
       <c r="AU53" s="42"/>
       <c r="AV53" s="26"/>
@@ -17701,7 +17682,7 @@
     <row r="54" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -17714,19 +17695,19 @@
       <c r="K54" s="26"/>
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
-      <c r="Q54" s="82"/>
+      <c r="N54" s="226"/>
+      <c r="O54" s="227"/>
+      <c r="P54" s="227"/>
+      <c r="Q54" s="228"/>
       <c r="R54" s="26"/>
       <c r="S54" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T54" s="54"/>
       <c r="U54" s="54"/>
       <c r="V54" s="55"/>
       <c r="W54" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X54" s="54"/>
       <c r="Y54" s="56"/>
@@ -17735,10 +17716,10 @@
       <c r="AB54" s="54"/>
       <c r="AC54" s="54"/>
       <c r="AD54" s="54"/>
-      <c r="AE54" s="80"/>
-      <c r="AF54" s="81"/>
-      <c r="AG54" s="81"/>
-      <c r="AH54" s="89"/>
+      <c r="AE54" s="226"/>
+      <c r="AF54" s="227"/>
+      <c r="AG54" s="227"/>
+      <c r="AH54" s="232"/>
       <c r="AI54" s="27"/>
       <c r="AO54" s="26"/>
       <c r="AU54" s="43"/>
@@ -17755,7 +17736,7 @@
     <row r="55" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -17768,19 +17749,19 @@
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="82"/>
+      <c r="N55" s="226"/>
+      <c r="O55" s="227"/>
+      <c r="P55" s="227"/>
+      <c r="Q55" s="228"/>
       <c r="R55" s="26"/>
       <c r="S55" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T55" s="54"/>
       <c r="U55" s="54"/>
       <c r="V55" s="55"/>
       <c r="W55" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X55" s="54"/>
       <c r="Y55" s="57"/>
@@ -17789,10 +17770,10 @@
       <c r="AB55" s="54"/>
       <c r="AC55" s="54"/>
       <c r="AD55" s="54"/>
-      <c r="AE55" s="80"/>
-      <c r="AF55" s="81"/>
-      <c r="AG55" s="81"/>
-      <c r="AH55" s="89"/>
+      <c r="AE55" s="226"/>
+      <c r="AF55" s="227"/>
+      <c r="AG55" s="227"/>
+      <c r="AH55" s="232"/>
       <c r="AI55" s="27"/>
       <c r="AU55" s="43"/>
       <c r="AV55" s="26"/>
@@ -17808,7 +17789,7 @@
     <row r="56" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -17821,19 +17802,19 @@
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="82"/>
+      <c r="N56" s="226"/>
+      <c r="O56" s="227"/>
+      <c r="P56" s="227"/>
+      <c r="Q56" s="228"/>
       <c r="R56" s="26"/>
       <c r="S56" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T56" s="54"/>
       <c r="U56" s="54"/>
       <c r="V56" s="55"/>
       <c r="W56" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X56" s="54"/>
       <c r="Y56" s="54"/>
@@ -17842,10 +17823,10 @@
       <c r="AB56" s="54"/>
       <c r="AC56" s="54"/>
       <c r="AD56" s="54"/>
-      <c r="AE56" s="80"/>
-      <c r="AF56" s="81"/>
-      <c r="AG56" s="81"/>
-      <c r="AH56" s="89"/>
+      <c r="AE56" s="226"/>
+      <c r="AF56" s="227"/>
+      <c r="AG56" s="227"/>
+      <c r="AH56" s="232"/>
       <c r="AI56" s="27"/>
       <c r="AU56" s="45"/>
       <c r="AV56" s="26"/>
@@ -17872,10 +17853,10 @@
       <c r="K57" s="26"/>
       <c r="L57" s="26"/>
       <c r="M57" s="26"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="85"/>
+      <c r="N57" s="121"/>
+      <c r="O57" s="122"/>
+      <c r="P57" s="122"/>
+      <c r="Q57" s="123"/>
       <c r="R57" s="26"/>
       <c r="S57" s="59"/>
       <c r="T57" s="26"/>
@@ -17889,10 +17870,10 @@
       <c r="AB57" s="26"/>
       <c r="AC57" s="26"/>
       <c r="AD57" s="26"/>
-      <c r="AE57" s="83"/>
-      <c r="AF57" s="84"/>
-      <c r="AG57" s="84"/>
-      <c r="AH57" s="90"/>
+      <c r="AE57" s="121"/>
+      <c r="AF57" s="122"/>
+      <c r="AG57" s="122"/>
+      <c r="AH57" s="214"/>
       <c r="AI57" s="27"/>
       <c r="AU57" s="45"/>
       <c r="AV57" s="26"/>
@@ -17919,10 +17900,10 @@
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
       <c r="M58" s="34"/>
-      <c r="N58" s="86"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="88"/>
+      <c r="N58" s="229"/>
+      <c r="O58" s="230"/>
+      <c r="P58" s="230"/>
+      <c r="Q58" s="231"/>
       <c r="R58" s="34"/>
       <c r="S58" s="46"/>
       <c r="T58" s="34"/>
@@ -17936,10 +17917,10 @@
       <c r="AB58" s="34"/>
       <c r="AC58" s="34"/>
       <c r="AD58" s="34"/>
-      <c r="AE58" s="86"/>
-      <c r="AF58" s="87"/>
-      <c r="AG58" s="87"/>
-      <c r="AH58" s="91"/>
+      <c r="AE58" s="229"/>
+      <c r="AF58" s="230"/>
+      <c r="AG58" s="230"/>
+      <c r="AH58" s="233"/>
       <c r="AI58" s="27"/>
       <c r="AU58" s="26"/>
       <c r="AV58" s="26"/>
@@ -18000,45 +17981,45 @@
       <c r="BD59" s="26"/>
     </row>
     <row r="60" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="92" t="s">
-        <v>51</v>
+      <c r="A60" s="237" t="s">
+        <v>50</v>
       </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="93"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="93"/>
-      <c r="I60" s="93"/>
-      <c r="J60" s="93"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="93"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
-      <c r="O60" s="93"/>
-      <c r="P60" s="93"/>
-      <c r="Q60" s="93"/>
-      <c r="R60" s="93"/>
-      <c r="S60" s="93"/>
-      <c r="T60" s="93"/>
-      <c r="U60" s="93"/>
-      <c r="V60" s="93"/>
-      <c r="W60" s="93"/>
-      <c r="X60" s="93"/>
-      <c r="Y60" s="93"/>
-      <c r="Z60" s="93"/>
-      <c r="AA60" s="93"/>
-      <c r="AB60" s="93"/>
-      <c r="AC60" s="93"/>
-      <c r="AD60" s="94"/>
-      <c r="AE60" s="98" t="s">
-        <v>58</v>
+      <c r="B60" s="238"/>
+      <c r="C60" s="238"/>
+      <c r="D60" s="238"/>
+      <c r="E60" s="238"/>
+      <c r="F60" s="238"/>
+      <c r="G60" s="238"/>
+      <c r="H60" s="238"/>
+      <c r="I60" s="238"/>
+      <c r="J60" s="238"/>
+      <c r="K60" s="238"/>
+      <c r="L60" s="238"/>
+      <c r="M60" s="238"/>
+      <c r="N60" s="238"/>
+      <c r="O60" s="238"/>
+      <c r="P60" s="238"/>
+      <c r="Q60" s="238"/>
+      <c r="R60" s="238"/>
+      <c r="S60" s="238"/>
+      <c r="T60" s="238"/>
+      <c r="U60" s="238"/>
+      <c r="V60" s="238"/>
+      <c r="W60" s="238"/>
+      <c r="X60" s="238"/>
+      <c r="Y60" s="238"/>
+      <c r="Z60" s="238"/>
+      <c r="AA60" s="238"/>
+      <c r="AB60" s="238"/>
+      <c r="AC60" s="238"/>
+      <c r="AD60" s="239"/>
+      <c r="AE60" s="241" t="s">
+        <v>57</v>
       </c>
-      <c r="AF60" s="99"/>
-      <c r="AG60" s="99"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="100"/>
+      <c r="AF60" s="242"/>
+      <c r="AG60" s="242"/>
+      <c r="AH60" s="242"/>
+      <c r="AI60" s="243"/>
       <c r="AU60" s="26"/>
       <c r="AV60" s="26"/>
       <c r="AW60" s="26"/>
@@ -18051,41 +18032,41 @@
       <c r="BD60" s="26"/>
     </row>
     <row r="61" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="96"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="96"/>
-      <c r="X61" s="96"/>
-      <c r="Y61" s="96"/>
-      <c r="Z61" s="96"/>
-      <c r="AA61" s="96"/>
-      <c r="AB61" s="96"/>
-      <c r="AC61" s="96"/>
-      <c r="AD61" s="97"/>
-      <c r="AE61" s="99"/>
-      <c r="AF61" s="99"/>
-      <c r="AG61" s="99"/>
-      <c r="AH61" s="99"/>
-      <c r="AI61" s="100"/>
+      <c r="A61" s="240"/>
+      <c r="B61" s="217"/>
+      <c r="C61" s="217"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="217"/>
+      <c r="F61" s="217"/>
+      <c r="G61" s="217"/>
+      <c r="H61" s="217"/>
+      <c r="I61" s="217"/>
+      <c r="J61" s="217"/>
+      <c r="K61" s="217"/>
+      <c r="L61" s="217"/>
+      <c r="M61" s="217"/>
+      <c r="N61" s="217"/>
+      <c r="O61" s="217"/>
+      <c r="P61" s="217"/>
+      <c r="Q61" s="217"/>
+      <c r="R61" s="217"/>
+      <c r="S61" s="217"/>
+      <c r="T61" s="217"/>
+      <c r="U61" s="217"/>
+      <c r="V61" s="217"/>
+      <c r="W61" s="217"/>
+      <c r="X61" s="217"/>
+      <c r="Y61" s="217"/>
+      <c r="Z61" s="217"/>
+      <c r="AA61" s="217"/>
+      <c r="AB61" s="217"/>
+      <c r="AC61" s="217"/>
+      <c r="AD61" s="218"/>
+      <c r="AE61" s="242"/>
+      <c r="AF61" s="242"/>
+      <c r="AG61" s="242"/>
+      <c r="AH61" s="242"/>
+      <c r="AI61" s="243"/>
       <c r="AU61" s="26"/>
       <c r="AV61" s="26"/>
       <c r="AW61" s="26"/>
@@ -18098,41 +18079,41 @@
       <c r="BD61" s="26"/>
     </row>
     <row r="62" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="92"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="93"/>
-      <c r="R62" s="93"/>
-      <c r="S62" s="93"/>
-      <c r="T62" s="93"/>
-      <c r="U62" s="93"/>
-      <c r="V62" s="93"/>
-      <c r="W62" s="93"/>
-      <c r="X62" s="93"/>
-      <c r="Y62" s="93"/>
-      <c r="Z62" s="93"/>
-      <c r="AA62" s="93"/>
-      <c r="AB62" s="93"/>
-      <c r="AC62" s="93"/>
-      <c r="AD62" s="94"/>
-      <c r="AE62" s="107"/>
-      <c r="AF62" s="107"/>
-      <c r="AG62" s="107"/>
-      <c r="AH62" s="107"/>
-      <c r="AI62" s="108"/>
+      <c r="A62" s="237"/>
+      <c r="B62" s="238"/>
+      <c r="C62" s="238"/>
+      <c r="D62" s="238"/>
+      <c r="E62" s="238"/>
+      <c r="F62" s="238"/>
+      <c r="G62" s="238"/>
+      <c r="H62" s="238"/>
+      <c r="I62" s="238"/>
+      <c r="J62" s="238"/>
+      <c r="K62" s="238"/>
+      <c r="L62" s="238"/>
+      <c r="M62" s="238"/>
+      <c r="N62" s="238"/>
+      <c r="O62" s="238"/>
+      <c r="P62" s="238"/>
+      <c r="Q62" s="238"/>
+      <c r="R62" s="238"/>
+      <c r="S62" s="238"/>
+      <c r="T62" s="238"/>
+      <c r="U62" s="238"/>
+      <c r="V62" s="238"/>
+      <c r="W62" s="238"/>
+      <c r="X62" s="238"/>
+      <c r="Y62" s="238"/>
+      <c r="Z62" s="238"/>
+      <c r="AA62" s="238"/>
+      <c r="AB62" s="238"/>
+      <c r="AC62" s="238"/>
+      <c r="AD62" s="239"/>
+      <c r="AE62" s="248"/>
+      <c r="AF62" s="248"/>
+      <c r="AG62" s="248"/>
+      <c r="AH62" s="248"/>
+      <c r="AI62" s="249"/>
       <c r="AU62" s="26"/>
       <c r="AV62" s="26"/>
       <c r="AW62" s="26"/>
@@ -18145,41 +18126,41 @@
       <c r="BD62" s="26"/>
     </row>
     <row r="63" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="101"/>
-      <c r="B63" s="102"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="102"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
-      <c r="J63" s="102"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="102"/>
-      <c r="O63" s="102"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="102"/>
-      <c r="T63" s="102"/>
-      <c r="U63" s="102"/>
-      <c r="V63" s="102"/>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
-      <c r="Y63" s="102"/>
-      <c r="Z63" s="102"/>
-      <c r="AA63" s="102"/>
-      <c r="AB63" s="102"/>
-      <c r="AC63" s="102"/>
-      <c r="AD63" s="103"/>
-      <c r="AE63" s="107"/>
-      <c r="AF63" s="107"/>
-      <c r="AG63" s="107"/>
-      <c r="AH63" s="107"/>
-      <c r="AI63" s="108"/>
+      <c r="A63" s="244"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
+      <c r="M63" s="126"/>
+      <c r="N63" s="126"/>
+      <c r="O63" s="126"/>
+      <c r="P63" s="126"/>
+      <c r="Q63" s="126"/>
+      <c r="R63" s="126"/>
+      <c r="S63" s="126"/>
+      <c r="T63" s="126"/>
+      <c r="U63" s="126"/>
+      <c r="V63" s="126"/>
+      <c r="W63" s="126"/>
+      <c r="X63" s="126"/>
+      <c r="Y63" s="126"/>
+      <c r="Z63" s="126"/>
+      <c r="AA63" s="126"/>
+      <c r="AB63" s="126"/>
+      <c r="AC63" s="126"/>
+      <c r="AD63" s="215"/>
+      <c r="AE63" s="248"/>
+      <c r="AF63" s="248"/>
+      <c r="AG63" s="248"/>
+      <c r="AH63" s="248"/>
+      <c r="AI63" s="249"/>
       <c r="AU63" s="26"/>
       <c r="AV63" s="26"/>
       <c r="AW63" s="26"/>
@@ -18192,41 +18173,41 @@
       <c r="BD63" s="26"/>
     </row>
     <row r="64" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="101"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="102"/>
-      <c r="K64" s="102"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="102"/>
-      <c r="O64" s="102"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="102"/>
-      <c r="S64" s="102"/>
-      <c r="T64" s="102"/>
-      <c r="U64" s="102"/>
-      <c r="V64" s="102"/>
-      <c r="W64" s="102"/>
-      <c r="X64" s="102"/>
-      <c r="Y64" s="102"/>
-      <c r="Z64" s="102"/>
-      <c r="AA64" s="102"/>
-      <c r="AB64" s="102"/>
-      <c r="AC64" s="102"/>
-      <c r="AD64" s="103"/>
-      <c r="AE64" s="107"/>
-      <c r="AF64" s="107"/>
-      <c r="AG64" s="107"/>
-      <c r="AH64" s="107"/>
-      <c r="AI64" s="108"/>
+      <c r="A64" s="244"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
+      <c r="M64" s="126"/>
+      <c r="N64" s="126"/>
+      <c r="O64" s="126"/>
+      <c r="P64" s="126"/>
+      <c r="Q64" s="126"/>
+      <c r="R64" s="126"/>
+      <c r="S64" s="126"/>
+      <c r="T64" s="126"/>
+      <c r="U64" s="126"/>
+      <c r="V64" s="126"/>
+      <c r="W64" s="126"/>
+      <c r="X64" s="126"/>
+      <c r="Y64" s="126"/>
+      <c r="Z64" s="126"/>
+      <c r="AA64" s="126"/>
+      <c r="AB64" s="126"/>
+      <c r="AC64" s="126"/>
+      <c r="AD64" s="215"/>
+      <c r="AE64" s="248"/>
+      <c r="AF64" s="248"/>
+      <c r="AG64" s="248"/>
+      <c r="AH64" s="248"/>
+      <c r="AI64" s="249"/>
       <c r="AU64" s="26"/>
       <c r="AV64" s="26"/>
       <c r="AW64" s="26"/>
@@ -18239,41 +18220,41 @@
       <c r="BD64" s="26"/>
     </row>
     <row r="65" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="104"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="105"/>
-      <c r="N65" s="105"/>
-      <c r="O65" s="105"/>
-      <c r="P65" s="105"/>
-      <c r="Q65" s="105"/>
-      <c r="R65" s="105"/>
-      <c r="S65" s="105"/>
-      <c r="T65" s="105"/>
-      <c r="U65" s="105"/>
-      <c r="V65" s="105"/>
-      <c r="W65" s="105"/>
-      <c r="X65" s="105"/>
-      <c r="Y65" s="105"/>
-      <c r="Z65" s="105"/>
-      <c r="AA65" s="105"/>
-      <c r="AB65" s="105"/>
-      <c r="AC65" s="105"/>
-      <c r="AD65" s="106"/>
-      <c r="AE65" s="109"/>
-      <c r="AF65" s="109"/>
-      <c r="AG65" s="109"/>
-      <c r="AH65" s="109"/>
-      <c r="AI65" s="110"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="246"/>
+      <c r="C65" s="246"/>
+      <c r="D65" s="246"/>
+      <c r="E65" s="246"/>
+      <c r="F65" s="246"/>
+      <c r="G65" s="246"/>
+      <c r="H65" s="246"/>
+      <c r="I65" s="246"/>
+      <c r="J65" s="246"/>
+      <c r="K65" s="246"/>
+      <c r="L65" s="246"/>
+      <c r="M65" s="246"/>
+      <c r="N65" s="246"/>
+      <c r="O65" s="246"/>
+      <c r="P65" s="246"/>
+      <c r="Q65" s="246"/>
+      <c r="R65" s="246"/>
+      <c r="S65" s="246"/>
+      <c r="T65" s="246"/>
+      <c r="U65" s="246"/>
+      <c r="V65" s="246"/>
+      <c r="W65" s="246"/>
+      <c r="X65" s="246"/>
+      <c r="Y65" s="246"/>
+      <c r="Z65" s="246"/>
+      <c r="AA65" s="246"/>
+      <c r="AB65" s="246"/>
+      <c r="AC65" s="246"/>
+      <c r="AD65" s="247"/>
+      <c r="AE65" s="250"/>
+      <c r="AF65" s="250"/>
+      <c r="AG65" s="250"/>
+      <c r="AH65" s="250"/>
+      <c r="AI65" s="251"/>
       <c r="AU65" s="26"/>
       <c r="AV65" s="26"/>
       <c r="AW65" s="26"/>
@@ -18286,43 +18267,43 @@
       <c r="BD65" s="26"/>
     </row>
     <row r="66" spans="1:56" s="1" customFormat="1" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A66" s="78" t="s">
-        <v>64</v>
+      <c r="A66" s="235" t="s">
+        <v>63</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="78"/>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-      <c r="Y66" s="78"/>
-      <c r="Z66" s="78"/>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="78"/>
-      <c r="AC66" s="78"/>
-      <c r="AD66" s="78"/>
-      <c r="AE66" s="78"/>
-      <c r="AF66" s="78"/>
-      <c r="AG66" s="78"/>
-      <c r="AH66" s="78"/>
-      <c r="AI66" s="78"/>
+      <c r="B66" s="235"/>
+      <c r="C66" s="235"/>
+      <c r="D66" s="235"/>
+      <c r="E66" s="235"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="235"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
+      <c r="J66" s="235"/>
+      <c r="K66" s="235"/>
+      <c r="L66" s="235"/>
+      <c r="M66" s="235"/>
+      <c r="N66" s="235"/>
+      <c r="O66" s="235"/>
+      <c r="P66" s="235"/>
+      <c r="Q66" s="235"/>
+      <c r="R66" s="235"/>
+      <c r="S66" s="235"/>
+      <c r="T66" s="235"/>
+      <c r="U66" s="235"/>
+      <c r="V66" s="235"/>
+      <c r="W66" s="235"/>
+      <c r="X66" s="235"/>
+      <c r="Y66" s="235"/>
+      <c r="Z66" s="235"/>
+      <c r="AA66" s="235"/>
+      <c r="AB66" s="235"/>
+      <c r="AC66" s="235"/>
+      <c r="AD66" s="235"/>
+      <c r="AE66" s="235"/>
+      <c r="AF66" s="235"/>
+      <c r="AG66" s="235"/>
+      <c r="AH66" s="235"/>
+      <c r="AI66" s="235"/>
       <c r="AU66" s="26"/>
       <c r="AV66" s="26"/>
       <c r="AW66" s="26"/>
@@ -18335,41 +18316,41 @@
       <c r="BD66" s="26"/>
     </row>
     <row r="67" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A67" s="79"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="79"/>
-      <c r="M67" s="79"/>
-      <c r="N67" s="79"/>
-      <c r="O67" s="79"/>
-      <c r="P67" s="79"/>
-      <c r="Q67" s="79"/>
-      <c r="R67" s="79"/>
-      <c r="S67" s="79"/>
-      <c r="T67" s="79"/>
-      <c r="U67" s="79"/>
-      <c r="V67" s="79"/>
-      <c r="W67" s="79"/>
-      <c r="X67" s="79"/>
-      <c r="Y67" s="79"/>
-      <c r="Z67" s="79"/>
-      <c r="AA67" s="79"/>
-      <c r="AB67" s="79"/>
-      <c r="AC67" s="79"/>
-      <c r="AD67" s="79"/>
-      <c r="AE67" s="79"/>
-      <c r="AF67" s="79"/>
-      <c r="AG67" s="79"/>
-      <c r="AH67" s="79"/>
-      <c r="AI67" s="79"/>
+      <c r="A67" s="236"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="236"/>
+      <c r="D67" s="236"/>
+      <c r="E67" s="236"/>
+      <c r="F67" s="236"/>
+      <c r="G67" s="236"/>
+      <c r="H67" s="236"/>
+      <c r="I67" s="236"/>
+      <c r="J67" s="236"/>
+      <c r="K67" s="236"/>
+      <c r="L67" s="236"/>
+      <c r="M67" s="236"/>
+      <c r="N67" s="236"/>
+      <c r="O67" s="236"/>
+      <c r="P67" s="236"/>
+      <c r="Q67" s="236"/>
+      <c r="R67" s="236"/>
+      <c r="S67" s="236"/>
+      <c r="T67" s="236"/>
+      <c r="U67" s="236"/>
+      <c r="V67" s="236"/>
+      <c r="W67" s="236"/>
+      <c r="X67" s="236"/>
+      <c r="Y67" s="236"/>
+      <c r="Z67" s="236"/>
+      <c r="AA67" s="236"/>
+      <c r="AB67" s="236"/>
+      <c r="AC67" s="236"/>
+      <c r="AD67" s="236"/>
+      <c r="AE67" s="236"/>
+      <c r="AF67" s="236"/>
+      <c r="AG67" s="236"/>
+      <c r="AH67" s="236"/>
+      <c r="AI67" s="236"/>
       <c r="AU67" s="26"/>
       <c r="AV67" s="26"/>
       <c r="AW67" s="26"/>
@@ -18431,11 +18412,63 @@
     </row>
     <row r="72" spans="1:56" ht="409.5">
       <c r="S72" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A66:AI67"/>
+    <mergeCell ref="N54:Q58"/>
+    <mergeCell ref="AE54:AH58"/>
+    <mergeCell ref="A60:AD61"/>
+    <mergeCell ref="AE60:AI61"/>
+    <mergeCell ref="A62:AD65"/>
+    <mergeCell ref="AE62:AI65"/>
+    <mergeCell ref="N53:Q53"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="N36:Q39"/>
+    <mergeCell ref="AE36:AH39"/>
+    <mergeCell ref="N44:Q44"/>
+    <mergeCell ref="AE44:AH44"/>
+    <mergeCell ref="N45:Q48"/>
+    <mergeCell ref="AE45:AH48"/>
+    <mergeCell ref="S50:AG50"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="N29:Q32"/>
+    <mergeCell ref="AE29:AH32"/>
+    <mergeCell ref="AA22:AI23"/>
+    <mergeCell ref="AA24:AI26"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="F20:K21"/>
+    <mergeCell ref="L20:P21"/>
+    <mergeCell ref="Q20:V21"/>
+    <mergeCell ref="W20:Z21"/>
+    <mergeCell ref="AA20:AI21"/>
+    <mergeCell ref="A22:D26"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="K22:N23"/>
+    <mergeCell ref="O22:T23"/>
+    <mergeCell ref="U22:Z23"/>
+    <mergeCell ref="A18:AI19"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F12:K13"/>
+    <mergeCell ref="L12:O13"/>
+    <mergeCell ref="P12:W13"/>
+    <mergeCell ref="X12:AB13"/>
+    <mergeCell ref="AC12:AI13"/>
+    <mergeCell ref="A14:H17"/>
+    <mergeCell ref="I14:U15"/>
+    <mergeCell ref="V14:AI15"/>
+    <mergeCell ref="I16:U17"/>
+    <mergeCell ref="V16:AI17"/>
     <mergeCell ref="AE10:AI11"/>
     <mergeCell ref="AF1:AI2"/>
     <mergeCell ref="A4:AI5"/>
@@ -18452,58 +18485,6 @@
     <mergeCell ref="L10:P11"/>
     <mergeCell ref="Q10:Z11"/>
     <mergeCell ref="AA10:AD11"/>
-    <mergeCell ref="A18:AI19"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="F12:K13"/>
-    <mergeCell ref="L12:O13"/>
-    <mergeCell ref="P12:W13"/>
-    <mergeCell ref="X12:AB13"/>
-    <mergeCell ref="AC12:AI13"/>
-    <mergeCell ref="A14:H17"/>
-    <mergeCell ref="I14:U15"/>
-    <mergeCell ref="V14:AI15"/>
-    <mergeCell ref="I16:U17"/>
-    <mergeCell ref="V16:AI17"/>
-    <mergeCell ref="AA22:AI23"/>
-    <mergeCell ref="AA24:AI26"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="F20:K21"/>
-    <mergeCell ref="L20:P21"/>
-    <mergeCell ref="Q20:V21"/>
-    <mergeCell ref="W20:Z21"/>
-    <mergeCell ref="AA20:AI21"/>
-    <mergeCell ref="A22:D26"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="K22:N23"/>
-    <mergeCell ref="O22:T23"/>
-    <mergeCell ref="U22:Z23"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="AE28:AH28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="N29:Q32"/>
-    <mergeCell ref="AE29:AH32"/>
-    <mergeCell ref="N53:Q53"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="N36:Q39"/>
-    <mergeCell ref="AE36:AH39"/>
-    <mergeCell ref="N44:Q44"/>
-    <mergeCell ref="AE44:AH44"/>
-    <mergeCell ref="N45:Q48"/>
-    <mergeCell ref="AE45:AH48"/>
-    <mergeCell ref="S50:AG50"/>
-    <mergeCell ref="A66:AI67"/>
-    <mergeCell ref="N54:Q58"/>
-    <mergeCell ref="AE54:AH58"/>
-    <mergeCell ref="A60:AD61"/>
-    <mergeCell ref="AE60:AI61"/>
-    <mergeCell ref="A62:AD65"/>
-    <mergeCell ref="AE62:AI65"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18 WVI983058 WLM983058 WBQ983058 VRU983058 VHY983058 UYC983058 UOG983058 UEK983058 TUO983058 TKS983058 TAW983058 SRA983058 SHE983058 RXI983058 RNM983058 RDQ983058 QTU983058 QJY983058 QAC983058 PQG983058 PGK983058 OWO983058 OMS983058 OCW983058 NTA983058 NJE983058 MZI983058 MPM983058 MFQ983058 LVU983058 LLY983058 LCC983058 KSG983058 KIK983058 JYO983058 JOS983058 JEW983058 IVA983058 ILE983058 IBI983058 HRM983058 HHQ983058 GXU983058 GNY983058 GEC983058 FUG983058 FKK983058 FAO983058 EQS983058 EGW983058 DXA983058 DNE983058 DDI983058 CTM983058 CJQ983058 BZU983058 BPY983058 BGC983058 AWG983058 AMK983058 ACO983058 SS983058 IW983058 A983058 WVI917522 WLM917522 WBQ917522 VRU917522 VHY917522 UYC917522 UOG917522 UEK917522 TUO917522 TKS917522 TAW917522 SRA917522 SHE917522 RXI917522 RNM917522 RDQ917522 QTU917522 QJY917522 QAC917522 PQG917522 PGK917522 OWO917522 OMS917522 OCW917522 NTA917522 NJE917522 MZI917522 MPM917522 MFQ917522 LVU917522 LLY917522 LCC917522 KSG917522 KIK917522 JYO917522 JOS917522 JEW917522 IVA917522 ILE917522 IBI917522 HRM917522 HHQ917522 GXU917522 GNY917522 GEC917522 FUG917522 FKK917522 FAO917522 EQS917522 EGW917522 DXA917522 DNE917522 DDI917522 CTM917522 CJQ917522 BZU917522 BPY917522 BGC917522 AWG917522 AMK917522 ACO917522 SS917522 IW917522 A917522 WVI851986 WLM851986 WBQ851986 VRU851986 VHY851986 UYC851986 UOG851986 UEK851986 TUO851986 TKS851986 TAW851986 SRA851986 SHE851986 RXI851986 RNM851986 RDQ851986 QTU851986 QJY851986 QAC851986 PQG851986 PGK851986 OWO851986 OMS851986 OCW851986 NTA851986 NJE851986 MZI851986 MPM851986 MFQ851986 LVU851986 LLY851986 LCC851986 KSG851986 KIK851986 JYO851986 JOS851986 JEW851986 IVA851986 ILE851986 IBI851986 HRM851986 HHQ851986 GXU851986 GNY851986 GEC851986 FUG851986 FKK851986 FAO851986 EQS851986 EGW851986 DXA851986 DNE851986 DDI851986 CTM851986 CJQ851986 BZU851986 BPY851986 BGC851986 AWG851986 AMK851986 ACO851986 SS851986 IW851986 A851986 WVI786450 WLM786450 WBQ786450 VRU786450 VHY786450 UYC786450 UOG786450 UEK786450 TUO786450 TKS786450 TAW786450 SRA786450 SHE786450 RXI786450 RNM786450 RDQ786450 QTU786450 QJY786450 QAC786450 PQG786450 PGK786450 OWO786450 OMS786450 OCW786450 NTA786450 NJE786450 MZI786450 MPM786450 MFQ786450 LVU786450 LLY786450 LCC786450 KSG786450 KIK786450 JYO786450 JOS786450 JEW786450 IVA786450 ILE786450 IBI786450 HRM786450 HHQ786450 GXU786450 GNY786450 GEC786450 FUG786450 FKK786450 FAO786450 EQS786450 EGW786450 DXA786450 DNE786450 DDI786450 CTM786450 CJQ786450 BZU786450 BPY786450 BGC786450 AWG786450 AMK786450 ACO786450 SS786450 IW786450 A786450 WVI720914 WLM720914 WBQ720914 VRU720914 VHY720914 UYC720914 UOG720914 UEK720914 TUO720914 TKS720914 TAW720914 SRA720914 SHE720914 RXI720914 RNM720914 RDQ720914 QTU720914 QJY720914 QAC720914 PQG720914 PGK720914 OWO720914 OMS720914 OCW720914 NTA720914 NJE720914 MZI720914 MPM720914 MFQ720914 LVU720914 LLY720914 LCC720914 KSG720914 KIK720914 JYO720914 JOS720914 JEW720914 IVA720914 ILE720914 IBI720914 HRM720914 HHQ720914 GXU720914 GNY720914 GEC720914 FUG720914 FKK720914 FAO720914 EQS720914 EGW720914 DXA720914 DNE720914 DDI720914 CTM720914 CJQ720914 BZU720914 BPY720914 BGC720914 AWG720914 AMK720914 ACO720914 SS720914 IW720914 A720914 WVI655378 WLM655378 WBQ655378 VRU655378 VHY655378 UYC655378 UOG655378 UEK655378 TUO655378 TKS655378 TAW655378 SRA655378 SHE655378 RXI655378 RNM655378 RDQ655378 QTU655378 QJY655378 QAC655378 PQG655378 PGK655378 OWO655378 OMS655378 OCW655378 NTA655378 NJE655378 MZI655378 MPM655378 MFQ655378 LVU655378 LLY655378 LCC655378 KSG655378 KIK655378 JYO655378 JOS655378 JEW655378 IVA655378 ILE655378 IBI655378 HRM655378 HHQ655378 GXU655378 GNY655378 GEC655378 FUG655378 FKK655378 FAO655378 EQS655378 EGW655378 DXA655378 DNE655378 DDI655378 CTM655378 CJQ655378 BZU655378 BPY655378 BGC655378 AWG655378 AMK655378 ACO655378 SS655378 IW655378 A655378 WVI589842 WLM589842 WBQ589842 VRU589842 VHY589842 UYC589842 UOG589842 UEK589842 TUO589842 TKS589842 TAW589842 SRA589842 SHE589842 RXI589842 RNM589842 RDQ589842 QTU589842 QJY589842 QAC589842 PQG589842 PGK589842 OWO589842 OMS589842 OCW589842 NTA589842 NJE589842 MZI589842 MPM589842 MFQ589842 LVU589842 LLY589842 LCC589842 KSG589842 KIK589842 JYO589842 JOS589842 JEW589842 IVA589842 ILE589842 IBI589842 HRM589842 HHQ589842 GXU589842 GNY589842 GEC589842 FUG589842 FKK589842 FAO589842 EQS589842 EGW589842 DXA589842 DNE589842 DDI589842 CTM589842 CJQ589842 BZU589842 BPY589842 BGC589842 AWG589842 AMK589842 ACO589842 SS589842 IW589842 A589842 WVI524306 WLM524306 WBQ524306 VRU524306 VHY524306 UYC524306 UOG524306 UEK524306 TUO524306 TKS524306 TAW524306 SRA524306 SHE524306 RXI524306 RNM524306 RDQ524306 QTU524306 QJY524306 QAC524306 PQG524306 PGK524306 OWO524306 OMS524306 OCW524306 NTA524306 NJE524306 MZI524306 MPM524306 MFQ524306 LVU524306 LLY524306 LCC524306 KSG524306 KIK524306 JYO524306 JOS524306 JEW524306 IVA524306 ILE524306 IBI524306 HRM524306 HHQ524306 GXU524306 GNY524306 GEC524306 FUG524306 FKK524306 FAO524306 EQS524306 EGW524306 DXA524306 DNE524306 DDI524306 CTM524306 CJQ524306 BZU524306 BPY524306 BGC524306 AWG524306 AMK524306 ACO524306 SS524306 IW524306 A524306 WVI458770 WLM458770 WBQ458770 VRU458770 VHY458770 UYC458770 UOG458770 UEK458770 TUO458770 TKS458770 TAW458770 SRA458770 SHE458770 RXI458770 RNM458770 RDQ458770 QTU458770 QJY458770 QAC458770 PQG458770 PGK458770 OWO458770 OMS458770 OCW458770 NTA458770 NJE458770 MZI458770 MPM458770 MFQ458770 LVU458770 LLY458770 LCC458770 KSG458770 KIK458770 JYO458770 JOS458770 JEW458770 IVA458770 ILE458770 IBI458770 HRM458770 HHQ458770 GXU458770 GNY458770 GEC458770 FUG458770 FKK458770 FAO458770 EQS458770 EGW458770 DXA458770 DNE458770 DDI458770 CTM458770 CJQ458770 BZU458770 BPY458770 BGC458770 AWG458770 AMK458770 ACO458770 SS458770 IW458770 A458770 WVI393234 WLM393234 WBQ393234 VRU393234 VHY393234 UYC393234 UOG393234 UEK393234 TUO393234 TKS393234 TAW393234 SRA393234 SHE393234 RXI393234 RNM393234 RDQ393234 QTU393234 QJY393234 QAC393234 PQG393234 PGK393234 OWO393234 OMS393234 OCW393234 NTA393234 NJE393234 MZI393234 MPM393234 MFQ393234 LVU393234 LLY393234 LCC393234 KSG393234 KIK393234 JYO393234 JOS393234 JEW393234 IVA393234 ILE393234 IBI393234 HRM393234 HHQ393234 GXU393234 GNY393234 GEC393234 FUG393234 FKK393234 FAO393234 EQS393234 EGW393234 DXA393234 DNE393234 DDI393234 CTM393234 CJQ393234 BZU393234 BPY393234 BGC393234 AWG393234 AMK393234 ACO393234 SS393234 IW393234 A393234 WVI327698 WLM327698 WBQ327698 VRU327698 VHY327698 UYC327698 UOG327698 UEK327698 TUO327698 TKS327698 TAW327698 SRA327698 SHE327698 RXI327698 RNM327698 RDQ327698 QTU327698 QJY327698 QAC327698 PQG327698 PGK327698 OWO327698 OMS327698 OCW327698 NTA327698 NJE327698 MZI327698 MPM327698 MFQ327698 LVU327698 LLY327698 LCC327698 KSG327698 KIK327698 JYO327698 JOS327698 JEW327698 IVA327698 ILE327698 IBI327698 HRM327698 HHQ327698 GXU327698 GNY327698 GEC327698 FUG327698 FKK327698 FAO327698 EQS327698 EGW327698 DXA327698 DNE327698 DDI327698 CTM327698 CJQ327698 BZU327698 BPY327698 BGC327698 AWG327698 AMK327698 ACO327698 SS327698 IW327698 A327698 WVI262162 WLM262162 WBQ262162 VRU262162 VHY262162 UYC262162 UOG262162 UEK262162 TUO262162 TKS262162 TAW262162 SRA262162 SHE262162 RXI262162 RNM262162 RDQ262162 QTU262162 QJY262162 QAC262162 PQG262162 PGK262162 OWO262162 OMS262162 OCW262162 NTA262162 NJE262162 MZI262162 MPM262162 MFQ262162 LVU262162 LLY262162 LCC262162 KSG262162 KIK262162 JYO262162 JOS262162 JEW262162 IVA262162 ILE262162 IBI262162 HRM262162 HHQ262162 GXU262162 GNY262162 GEC262162 FUG262162 FKK262162 FAO262162 EQS262162 EGW262162 DXA262162 DNE262162 DDI262162 CTM262162 CJQ262162 BZU262162 BPY262162 BGC262162 AWG262162 AMK262162 ACO262162 SS262162 IW262162 A262162 WVI196626 WLM196626 WBQ196626 VRU196626 VHY196626 UYC196626 UOG196626 UEK196626 TUO196626 TKS196626 TAW196626 SRA196626 SHE196626 RXI196626 RNM196626 RDQ196626 QTU196626 QJY196626 QAC196626 PQG196626 PGK196626 OWO196626 OMS196626 OCW196626 NTA196626 NJE196626 MZI196626 MPM196626 MFQ196626 LVU196626 LLY196626 LCC196626 KSG196626 KIK196626 JYO196626 JOS196626 JEW196626 IVA196626 ILE196626 IBI196626 HRM196626 HHQ196626 GXU196626 GNY196626 GEC196626 FUG196626 FKK196626 FAO196626 EQS196626 EGW196626 DXA196626 DNE196626 DDI196626 CTM196626 CJQ196626 BZU196626 BPY196626 BGC196626 AWG196626 AMK196626 ACO196626 SS196626 IW196626 A196626 WVI131090 WLM131090 WBQ131090 VRU131090 VHY131090 UYC131090 UOG131090 UEK131090 TUO131090 TKS131090 TAW131090 SRA131090 SHE131090 RXI131090 RNM131090 RDQ131090 QTU131090 QJY131090 QAC131090 PQG131090 PGK131090 OWO131090 OMS131090 OCW131090 NTA131090 NJE131090 MZI131090 MPM131090 MFQ131090 LVU131090 LLY131090 LCC131090 KSG131090 KIK131090 JYO131090 JOS131090 JEW131090 IVA131090 ILE131090 IBI131090 HRM131090 HHQ131090 GXU131090 GNY131090 GEC131090 FUG131090 FKK131090 FAO131090 EQS131090 EGW131090 DXA131090 DNE131090 DDI131090 CTM131090 CJQ131090 BZU131090 BPY131090 BGC131090 AWG131090 AMK131090 ACO131090 SS131090 IW131090 A131090 WVI65554 WLM65554 WBQ65554 VRU65554 VHY65554 UYC65554 UOG65554 UEK65554 TUO65554 TKS65554 TAW65554 SRA65554 SHE65554 RXI65554 RNM65554 RDQ65554 QTU65554 QJY65554 QAC65554 PQG65554 PGK65554 OWO65554 OMS65554 OCW65554 NTA65554 NJE65554 MZI65554 MPM65554 MFQ65554 LVU65554 LLY65554 LCC65554 KSG65554 KIK65554 JYO65554 JOS65554 JEW65554 IVA65554 ILE65554 IBI65554 HRM65554 HHQ65554 GXU65554 GNY65554 GEC65554 FUG65554 FKK65554 FAO65554 EQS65554 EGW65554 DXA65554 DNE65554 DDI65554 CTM65554 CJQ65554 BZU65554 BPY65554 BGC65554 AWG65554 AMK65554 ACO65554 SS65554 IW65554 A65554 WVI18 WLM18 WBQ18 VRU18 VHY18 UYC18 UOG18 UEK18 TUO18 TKS18 TAW18 SRA18 SHE18 RXI18 RNM18 RDQ18 QTU18 QJY18 QAC18 PQG18 PGK18 OWO18 OMS18 OCW18 NTA18 NJE18 MZI18 MPM18 MFQ18 LVU18 LLY18 LCC18 KSG18 KIK18 JYO18 JOS18 JEW18 IVA18 ILE18 IBI18 HRM18 HHQ18 GXU18 GNY18 GEC18 FUG18 FKK18 FAO18 EQS18 EGW18 DXA18 DNE18 DDI18 CTM18 CJQ18 BZU18 BPY18 BGC18 AWG18 AMK18 ACO18 SS18 IW18" xr:uid="{D3DC4FE0-1FFE-4D3A-A0E7-BD46554B1496}">

--- a/TrueTestRun/obj/Release/Package/PackageTmp/App_Data/Data.xlsx
+++ b/TrueTestRun/obj/Release/Package/PackageTmp/App_Data/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhpc\source\repos\TrueTestRun2\TrueTestRun2\TrueTestRun1\TrueTestRun\TrueTestRun\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE7D46-811E-4620-BDBC-E93D2AD5025E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE914EA-60FC-4DEE-9E18-A0BC701B9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <definedName name="Pmax">[2]Process!$R$11</definedName>
     <definedName name="PO" localSheetId="0">'D001'!PO</definedName>
     <definedName name="PO">[0]!PO</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'D001'!$A$1:$AI$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'D001'!$A$1:$AI$66</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI" localSheetId="0">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
@@ -611,9 +611,6 @@
     </r>
   </si>
   <si>
-    <t>　Nội dung NG/ NG内容:</t>
-  </si>
-  <si>
     <r>
       <t>Tính năng/</t>
     </r>
@@ -745,6 +742,9 @@
   <si>
     <t>n=</t>
   </si>
+  <si>
+    <t>Nội dung NG/ NG内容:</t>
+  </si>
 </sst>
 </file>
 
@@ -760,7 +760,7 @@
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1015,6 +1015,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1036,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -2031,6 +2037,17 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2076,7 +2093,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2223,24 +2240,15 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2248,15 +2256,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="15" applyFont="1"/>
@@ -2301,6 +2300,48 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="46" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2821,6 +2862,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="76" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15235,459 +15279,459 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD72"/>
+  <dimension ref="A1:BD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.796875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="32" width="3" style="67" customWidth="1"/>
-    <col min="33" max="33" width="6.19921875" style="67" customWidth="1"/>
-    <col min="34" max="34" width="3" style="67" customWidth="1"/>
-    <col min="35" max="35" width="5.1328125" style="67" customWidth="1"/>
-    <col min="36" max="39" width="2.796875" style="67"/>
-    <col min="40" max="40" width="3" style="67" customWidth="1"/>
-    <col min="41" max="41" width="2.796875" style="67" customWidth="1"/>
-    <col min="42" max="256" width="2.796875" style="67"/>
-    <col min="257" max="288" width="3" style="67" customWidth="1"/>
-    <col min="289" max="289" width="6.19921875" style="67" customWidth="1"/>
-    <col min="290" max="291" width="3" style="67" customWidth="1"/>
-    <col min="292" max="295" width="2.796875" style="67"/>
-    <col min="296" max="296" width="3" style="67" customWidth="1"/>
-    <col min="297" max="512" width="2.796875" style="67"/>
-    <col min="513" max="544" width="3" style="67" customWidth="1"/>
-    <col min="545" max="545" width="6.19921875" style="67" customWidth="1"/>
-    <col min="546" max="547" width="3" style="67" customWidth="1"/>
-    <col min="548" max="551" width="2.796875" style="67"/>
-    <col min="552" max="552" width="3" style="67" customWidth="1"/>
-    <col min="553" max="768" width="2.796875" style="67"/>
-    <col min="769" max="800" width="3" style="67" customWidth="1"/>
-    <col min="801" max="801" width="6.19921875" style="67" customWidth="1"/>
-    <col min="802" max="803" width="3" style="67" customWidth="1"/>
-    <col min="804" max="807" width="2.796875" style="67"/>
-    <col min="808" max="808" width="3" style="67" customWidth="1"/>
-    <col min="809" max="1024" width="2.796875" style="67"/>
-    <col min="1025" max="1056" width="3" style="67" customWidth="1"/>
-    <col min="1057" max="1057" width="6.19921875" style="67" customWidth="1"/>
-    <col min="1058" max="1059" width="3" style="67" customWidth="1"/>
-    <col min="1060" max="1063" width="2.796875" style="67"/>
-    <col min="1064" max="1064" width="3" style="67" customWidth="1"/>
-    <col min="1065" max="1280" width="2.796875" style="67"/>
-    <col min="1281" max="1312" width="3" style="67" customWidth="1"/>
-    <col min="1313" max="1313" width="6.19921875" style="67" customWidth="1"/>
-    <col min="1314" max="1315" width="3" style="67" customWidth="1"/>
-    <col min="1316" max="1319" width="2.796875" style="67"/>
-    <col min="1320" max="1320" width="3" style="67" customWidth="1"/>
-    <col min="1321" max="1536" width="2.796875" style="67"/>
-    <col min="1537" max="1568" width="3" style="67" customWidth="1"/>
-    <col min="1569" max="1569" width="6.19921875" style="67" customWidth="1"/>
-    <col min="1570" max="1571" width="3" style="67" customWidth="1"/>
-    <col min="1572" max="1575" width="2.796875" style="67"/>
-    <col min="1576" max="1576" width="3" style="67" customWidth="1"/>
-    <col min="1577" max="1792" width="2.796875" style="67"/>
-    <col min="1793" max="1824" width="3" style="67" customWidth="1"/>
-    <col min="1825" max="1825" width="6.19921875" style="67" customWidth="1"/>
-    <col min="1826" max="1827" width="3" style="67" customWidth="1"/>
-    <col min="1828" max="1831" width="2.796875" style="67"/>
-    <col min="1832" max="1832" width="3" style="67" customWidth="1"/>
-    <col min="1833" max="2048" width="2.796875" style="67"/>
-    <col min="2049" max="2080" width="3" style="67" customWidth="1"/>
-    <col min="2081" max="2081" width="6.19921875" style="67" customWidth="1"/>
-    <col min="2082" max="2083" width="3" style="67" customWidth="1"/>
-    <col min="2084" max="2087" width="2.796875" style="67"/>
-    <col min="2088" max="2088" width="3" style="67" customWidth="1"/>
-    <col min="2089" max="2304" width="2.796875" style="67"/>
-    <col min="2305" max="2336" width="3" style="67" customWidth="1"/>
-    <col min="2337" max="2337" width="6.19921875" style="67" customWidth="1"/>
-    <col min="2338" max="2339" width="3" style="67" customWidth="1"/>
-    <col min="2340" max="2343" width="2.796875" style="67"/>
-    <col min="2344" max="2344" width="3" style="67" customWidth="1"/>
-    <col min="2345" max="2560" width="2.796875" style="67"/>
-    <col min="2561" max="2592" width="3" style="67" customWidth="1"/>
-    <col min="2593" max="2593" width="6.19921875" style="67" customWidth="1"/>
-    <col min="2594" max="2595" width="3" style="67" customWidth="1"/>
-    <col min="2596" max="2599" width="2.796875" style="67"/>
-    <col min="2600" max="2600" width="3" style="67" customWidth="1"/>
-    <col min="2601" max="2816" width="2.796875" style="67"/>
-    <col min="2817" max="2848" width="3" style="67" customWidth="1"/>
-    <col min="2849" max="2849" width="6.19921875" style="67" customWidth="1"/>
-    <col min="2850" max="2851" width="3" style="67" customWidth="1"/>
-    <col min="2852" max="2855" width="2.796875" style="67"/>
-    <col min="2856" max="2856" width="3" style="67" customWidth="1"/>
-    <col min="2857" max="3072" width="2.796875" style="67"/>
-    <col min="3073" max="3104" width="3" style="67" customWidth="1"/>
-    <col min="3105" max="3105" width="6.19921875" style="67" customWidth="1"/>
-    <col min="3106" max="3107" width="3" style="67" customWidth="1"/>
-    <col min="3108" max="3111" width="2.796875" style="67"/>
-    <col min="3112" max="3112" width="3" style="67" customWidth="1"/>
-    <col min="3113" max="3328" width="2.796875" style="67"/>
-    <col min="3329" max="3360" width="3" style="67" customWidth="1"/>
-    <col min="3361" max="3361" width="6.19921875" style="67" customWidth="1"/>
-    <col min="3362" max="3363" width="3" style="67" customWidth="1"/>
-    <col min="3364" max="3367" width="2.796875" style="67"/>
-    <col min="3368" max="3368" width="3" style="67" customWidth="1"/>
-    <col min="3369" max="3584" width="2.796875" style="67"/>
-    <col min="3585" max="3616" width="3" style="67" customWidth="1"/>
-    <col min="3617" max="3617" width="6.19921875" style="67" customWidth="1"/>
-    <col min="3618" max="3619" width="3" style="67" customWidth="1"/>
-    <col min="3620" max="3623" width="2.796875" style="67"/>
-    <col min="3624" max="3624" width="3" style="67" customWidth="1"/>
-    <col min="3625" max="3840" width="2.796875" style="67"/>
-    <col min="3841" max="3872" width="3" style="67" customWidth="1"/>
-    <col min="3873" max="3873" width="6.19921875" style="67" customWidth="1"/>
-    <col min="3874" max="3875" width="3" style="67" customWidth="1"/>
-    <col min="3876" max="3879" width="2.796875" style="67"/>
-    <col min="3880" max="3880" width="3" style="67" customWidth="1"/>
-    <col min="3881" max="4096" width="2.796875" style="67"/>
-    <col min="4097" max="4128" width="3" style="67" customWidth="1"/>
-    <col min="4129" max="4129" width="6.19921875" style="67" customWidth="1"/>
-    <col min="4130" max="4131" width="3" style="67" customWidth="1"/>
-    <col min="4132" max="4135" width="2.796875" style="67"/>
-    <col min="4136" max="4136" width="3" style="67" customWidth="1"/>
-    <col min="4137" max="4352" width="2.796875" style="67"/>
-    <col min="4353" max="4384" width="3" style="67" customWidth="1"/>
-    <col min="4385" max="4385" width="6.19921875" style="67" customWidth="1"/>
-    <col min="4386" max="4387" width="3" style="67" customWidth="1"/>
-    <col min="4388" max="4391" width="2.796875" style="67"/>
-    <col min="4392" max="4392" width="3" style="67" customWidth="1"/>
-    <col min="4393" max="4608" width="2.796875" style="67"/>
-    <col min="4609" max="4640" width="3" style="67" customWidth="1"/>
-    <col min="4641" max="4641" width="6.19921875" style="67" customWidth="1"/>
-    <col min="4642" max="4643" width="3" style="67" customWidth="1"/>
-    <col min="4644" max="4647" width="2.796875" style="67"/>
-    <col min="4648" max="4648" width="3" style="67" customWidth="1"/>
-    <col min="4649" max="4864" width="2.796875" style="67"/>
-    <col min="4865" max="4896" width="3" style="67" customWidth="1"/>
-    <col min="4897" max="4897" width="6.19921875" style="67" customWidth="1"/>
-    <col min="4898" max="4899" width="3" style="67" customWidth="1"/>
-    <col min="4900" max="4903" width="2.796875" style="67"/>
-    <col min="4904" max="4904" width="3" style="67" customWidth="1"/>
-    <col min="4905" max="5120" width="2.796875" style="67"/>
-    <col min="5121" max="5152" width="3" style="67" customWidth="1"/>
-    <col min="5153" max="5153" width="6.19921875" style="67" customWidth="1"/>
-    <col min="5154" max="5155" width="3" style="67" customWidth="1"/>
-    <col min="5156" max="5159" width="2.796875" style="67"/>
-    <col min="5160" max="5160" width="3" style="67" customWidth="1"/>
-    <col min="5161" max="5376" width="2.796875" style="67"/>
-    <col min="5377" max="5408" width="3" style="67" customWidth="1"/>
-    <col min="5409" max="5409" width="6.19921875" style="67" customWidth="1"/>
-    <col min="5410" max="5411" width="3" style="67" customWidth="1"/>
-    <col min="5412" max="5415" width="2.796875" style="67"/>
-    <col min="5416" max="5416" width="3" style="67" customWidth="1"/>
-    <col min="5417" max="5632" width="2.796875" style="67"/>
-    <col min="5633" max="5664" width="3" style="67" customWidth="1"/>
-    <col min="5665" max="5665" width="6.19921875" style="67" customWidth="1"/>
-    <col min="5666" max="5667" width="3" style="67" customWidth="1"/>
-    <col min="5668" max="5671" width="2.796875" style="67"/>
-    <col min="5672" max="5672" width="3" style="67" customWidth="1"/>
-    <col min="5673" max="5888" width="2.796875" style="67"/>
-    <col min="5889" max="5920" width="3" style="67" customWidth="1"/>
-    <col min="5921" max="5921" width="6.19921875" style="67" customWidth="1"/>
-    <col min="5922" max="5923" width="3" style="67" customWidth="1"/>
-    <col min="5924" max="5927" width="2.796875" style="67"/>
-    <col min="5928" max="5928" width="3" style="67" customWidth="1"/>
-    <col min="5929" max="6144" width="2.796875" style="67"/>
-    <col min="6145" max="6176" width="3" style="67" customWidth="1"/>
-    <col min="6177" max="6177" width="6.19921875" style="67" customWidth="1"/>
-    <col min="6178" max="6179" width="3" style="67" customWidth="1"/>
-    <col min="6180" max="6183" width="2.796875" style="67"/>
-    <col min="6184" max="6184" width="3" style="67" customWidth="1"/>
-    <col min="6185" max="6400" width="2.796875" style="67"/>
-    <col min="6401" max="6432" width="3" style="67" customWidth="1"/>
-    <col min="6433" max="6433" width="6.19921875" style="67" customWidth="1"/>
-    <col min="6434" max="6435" width="3" style="67" customWidth="1"/>
-    <col min="6436" max="6439" width="2.796875" style="67"/>
-    <col min="6440" max="6440" width="3" style="67" customWidth="1"/>
-    <col min="6441" max="6656" width="2.796875" style="67"/>
-    <col min="6657" max="6688" width="3" style="67" customWidth="1"/>
-    <col min="6689" max="6689" width="6.19921875" style="67" customWidth="1"/>
-    <col min="6690" max="6691" width="3" style="67" customWidth="1"/>
-    <col min="6692" max="6695" width="2.796875" style="67"/>
-    <col min="6696" max="6696" width="3" style="67" customWidth="1"/>
-    <col min="6697" max="6912" width="2.796875" style="67"/>
-    <col min="6913" max="6944" width="3" style="67" customWidth="1"/>
-    <col min="6945" max="6945" width="6.19921875" style="67" customWidth="1"/>
-    <col min="6946" max="6947" width="3" style="67" customWidth="1"/>
-    <col min="6948" max="6951" width="2.796875" style="67"/>
-    <col min="6952" max="6952" width="3" style="67" customWidth="1"/>
-    <col min="6953" max="7168" width="2.796875" style="67"/>
-    <col min="7169" max="7200" width="3" style="67" customWidth="1"/>
-    <col min="7201" max="7201" width="6.19921875" style="67" customWidth="1"/>
-    <col min="7202" max="7203" width="3" style="67" customWidth="1"/>
-    <col min="7204" max="7207" width="2.796875" style="67"/>
-    <col min="7208" max="7208" width="3" style="67" customWidth="1"/>
-    <col min="7209" max="7424" width="2.796875" style="67"/>
-    <col min="7425" max="7456" width="3" style="67" customWidth="1"/>
-    <col min="7457" max="7457" width="6.19921875" style="67" customWidth="1"/>
-    <col min="7458" max="7459" width="3" style="67" customWidth="1"/>
-    <col min="7460" max="7463" width="2.796875" style="67"/>
-    <col min="7464" max="7464" width="3" style="67" customWidth="1"/>
-    <col min="7465" max="7680" width="2.796875" style="67"/>
-    <col min="7681" max="7712" width="3" style="67" customWidth="1"/>
-    <col min="7713" max="7713" width="6.19921875" style="67" customWidth="1"/>
-    <col min="7714" max="7715" width="3" style="67" customWidth="1"/>
-    <col min="7716" max="7719" width="2.796875" style="67"/>
-    <col min="7720" max="7720" width="3" style="67" customWidth="1"/>
-    <col min="7721" max="7936" width="2.796875" style="67"/>
-    <col min="7937" max="7968" width="3" style="67" customWidth="1"/>
-    <col min="7969" max="7969" width="6.19921875" style="67" customWidth="1"/>
-    <col min="7970" max="7971" width="3" style="67" customWidth="1"/>
-    <col min="7972" max="7975" width="2.796875" style="67"/>
-    <col min="7976" max="7976" width="3" style="67" customWidth="1"/>
-    <col min="7977" max="8192" width="2.796875" style="67"/>
-    <col min="8193" max="8224" width="3" style="67" customWidth="1"/>
-    <col min="8225" max="8225" width="6.19921875" style="67" customWidth="1"/>
-    <col min="8226" max="8227" width="3" style="67" customWidth="1"/>
-    <col min="8228" max="8231" width="2.796875" style="67"/>
-    <col min="8232" max="8232" width="3" style="67" customWidth="1"/>
-    <col min="8233" max="8448" width="2.796875" style="67"/>
-    <col min="8449" max="8480" width="3" style="67" customWidth="1"/>
-    <col min="8481" max="8481" width="6.19921875" style="67" customWidth="1"/>
-    <col min="8482" max="8483" width="3" style="67" customWidth="1"/>
-    <col min="8484" max="8487" width="2.796875" style="67"/>
-    <col min="8488" max="8488" width="3" style="67" customWidth="1"/>
-    <col min="8489" max="8704" width="2.796875" style="67"/>
-    <col min="8705" max="8736" width="3" style="67" customWidth="1"/>
-    <col min="8737" max="8737" width="6.19921875" style="67" customWidth="1"/>
-    <col min="8738" max="8739" width="3" style="67" customWidth="1"/>
-    <col min="8740" max="8743" width="2.796875" style="67"/>
-    <col min="8744" max="8744" width="3" style="67" customWidth="1"/>
-    <col min="8745" max="8960" width="2.796875" style="67"/>
-    <col min="8961" max="8992" width="3" style="67" customWidth="1"/>
-    <col min="8993" max="8993" width="6.19921875" style="67" customWidth="1"/>
-    <col min="8994" max="8995" width="3" style="67" customWidth="1"/>
-    <col min="8996" max="8999" width="2.796875" style="67"/>
-    <col min="9000" max="9000" width="3" style="67" customWidth="1"/>
-    <col min="9001" max="9216" width="2.796875" style="67"/>
-    <col min="9217" max="9248" width="3" style="67" customWidth="1"/>
-    <col min="9249" max="9249" width="6.19921875" style="67" customWidth="1"/>
-    <col min="9250" max="9251" width="3" style="67" customWidth="1"/>
-    <col min="9252" max="9255" width="2.796875" style="67"/>
-    <col min="9256" max="9256" width="3" style="67" customWidth="1"/>
-    <col min="9257" max="9472" width="2.796875" style="67"/>
-    <col min="9473" max="9504" width="3" style="67" customWidth="1"/>
-    <col min="9505" max="9505" width="6.19921875" style="67" customWidth="1"/>
-    <col min="9506" max="9507" width="3" style="67" customWidth="1"/>
-    <col min="9508" max="9511" width="2.796875" style="67"/>
-    <col min="9512" max="9512" width="3" style="67" customWidth="1"/>
-    <col min="9513" max="9728" width="2.796875" style="67"/>
-    <col min="9729" max="9760" width="3" style="67" customWidth="1"/>
-    <col min="9761" max="9761" width="6.19921875" style="67" customWidth="1"/>
-    <col min="9762" max="9763" width="3" style="67" customWidth="1"/>
-    <col min="9764" max="9767" width="2.796875" style="67"/>
-    <col min="9768" max="9768" width="3" style="67" customWidth="1"/>
-    <col min="9769" max="9984" width="2.796875" style="67"/>
-    <col min="9985" max="10016" width="3" style="67" customWidth="1"/>
-    <col min="10017" max="10017" width="6.19921875" style="67" customWidth="1"/>
-    <col min="10018" max="10019" width="3" style="67" customWidth="1"/>
-    <col min="10020" max="10023" width="2.796875" style="67"/>
-    <col min="10024" max="10024" width="3" style="67" customWidth="1"/>
-    <col min="10025" max="10240" width="2.796875" style="67"/>
-    <col min="10241" max="10272" width="3" style="67" customWidth="1"/>
-    <col min="10273" max="10273" width="6.19921875" style="67" customWidth="1"/>
-    <col min="10274" max="10275" width="3" style="67" customWidth="1"/>
-    <col min="10276" max="10279" width="2.796875" style="67"/>
-    <col min="10280" max="10280" width="3" style="67" customWidth="1"/>
-    <col min="10281" max="10496" width="2.796875" style="67"/>
-    <col min="10497" max="10528" width="3" style="67" customWidth="1"/>
-    <col min="10529" max="10529" width="6.19921875" style="67" customWidth="1"/>
-    <col min="10530" max="10531" width="3" style="67" customWidth="1"/>
-    <col min="10532" max="10535" width="2.796875" style="67"/>
-    <col min="10536" max="10536" width="3" style="67" customWidth="1"/>
-    <col min="10537" max="10752" width="2.796875" style="67"/>
-    <col min="10753" max="10784" width="3" style="67" customWidth="1"/>
-    <col min="10785" max="10785" width="6.19921875" style="67" customWidth="1"/>
-    <col min="10786" max="10787" width="3" style="67" customWidth="1"/>
-    <col min="10788" max="10791" width="2.796875" style="67"/>
-    <col min="10792" max="10792" width="3" style="67" customWidth="1"/>
-    <col min="10793" max="11008" width="2.796875" style="67"/>
-    <col min="11009" max="11040" width="3" style="67" customWidth="1"/>
-    <col min="11041" max="11041" width="6.19921875" style="67" customWidth="1"/>
-    <col min="11042" max="11043" width="3" style="67" customWidth="1"/>
-    <col min="11044" max="11047" width="2.796875" style="67"/>
-    <col min="11048" max="11048" width="3" style="67" customWidth="1"/>
-    <col min="11049" max="11264" width="2.796875" style="67"/>
-    <col min="11265" max="11296" width="3" style="67" customWidth="1"/>
-    <col min="11297" max="11297" width="6.19921875" style="67" customWidth="1"/>
-    <col min="11298" max="11299" width="3" style="67" customWidth="1"/>
-    <col min="11300" max="11303" width="2.796875" style="67"/>
-    <col min="11304" max="11304" width="3" style="67" customWidth="1"/>
-    <col min="11305" max="11520" width="2.796875" style="67"/>
-    <col min="11521" max="11552" width="3" style="67" customWidth="1"/>
-    <col min="11553" max="11553" width="6.19921875" style="67" customWidth="1"/>
-    <col min="11554" max="11555" width="3" style="67" customWidth="1"/>
-    <col min="11556" max="11559" width="2.796875" style="67"/>
-    <col min="11560" max="11560" width="3" style="67" customWidth="1"/>
-    <col min="11561" max="11776" width="2.796875" style="67"/>
-    <col min="11777" max="11808" width="3" style="67" customWidth="1"/>
-    <col min="11809" max="11809" width="6.19921875" style="67" customWidth="1"/>
-    <col min="11810" max="11811" width="3" style="67" customWidth="1"/>
-    <col min="11812" max="11815" width="2.796875" style="67"/>
-    <col min="11816" max="11816" width="3" style="67" customWidth="1"/>
-    <col min="11817" max="12032" width="2.796875" style="67"/>
-    <col min="12033" max="12064" width="3" style="67" customWidth="1"/>
-    <col min="12065" max="12065" width="6.19921875" style="67" customWidth="1"/>
-    <col min="12066" max="12067" width="3" style="67" customWidth="1"/>
-    <col min="12068" max="12071" width="2.796875" style="67"/>
-    <col min="12072" max="12072" width="3" style="67" customWidth="1"/>
-    <col min="12073" max="12288" width="2.796875" style="67"/>
-    <col min="12289" max="12320" width="3" style="67" customWidth="1"/>
-    <col min="12321" max="12321" width="6.19921875" style="67" customWidth="1"/>
-    <col min="12322" max="12323" width="3" style="67" customWidth="1"/>
-    <col min="12324" max="12327" width="2.796875" style="67"/>
-    <col min="12328" max="12328" width="3" style="67" customWidth="1"/>
-    <col min="12329" max="12544" width="2.796875" style="67"/>
-    <col min="12545" max="12576" width="3" style="67" customWidth="1"/>
-    <col min="12577" max="12577" width="6.19921875" style="67" customWidth="1"/>
-    <col min="12578" max="12579" width="3" style="67" customWidth="1"/>
-    <col min="12580" max="12583" width="2.796875" style="67"/>
-    <col min="12584" max="12584" width="3" style="67" customWidth="1"/>
-    <col min="12585" max="12800" width="2.796875" style="67"/>
-    <col min="12801" max="12832" width="3" style="67" customWidth="1"/>
-    <col min="12833" max="12833" width="6.19921875" style="67" customWidth="1"/>
-    <col min="12834" max="12835" width="3" style="67" customWidth="1"/>
-    <col min="12836" max="12839" width="2.796875" style="67"/>
-    <col min="12840" max="12840" width="3" style="67" customWidth="1"/>
-    <col min="12841" max="13056" width="2.796875" style="67"/>
-    <col min="13057" max="13088" width="3" style="67" customWidth="1"/>
-    <col min="13089" max="13089" width="6.19921875" style="67" customWidth="1"/>
-    <col min="13090" max="13091" width="3" style="67" customWidth="1"/>
-    <col min="13092" max="13095" width="2.796875" style="67"/>
-    <col min="13096" max="13096" width="3" style="67" customWidth="1"/>
-    <col min="13097" max="13312" width="2.796875" style="67"/>
-    <col min="13313" max="13344" width="3" style="67" customWidth="1"/>
-    <col min="13345" max="13345" width="6.19921875" style="67" customWidth="1"/>
-    <col min="13346" max="13347" width="3" style="67" customWidth="1"/>
-    <col min="13348" max="13351" width="2.796875" style="67"/>
-    <col min="13352" max="13352" width="3" style="67" customWidth="1"/>
-    <col min="13353" max="13568" width="2.796875" style="67"/>
-    <col min="13569" max="13600" width="3" style="67" customWidth="1"/>
-    <col min="13601" max="13601" width="6.19921875" style="67" customWidth="1"/>
-    <col min="13602" max="13603" width="3" style="67" customWidth="1"/>
-    <col min="13604" max="13607" width="2.796875" style="67"/>
-    <col min="13608" max="13608" width="3" style="67" customWidth="1"/>
-    <col min="13609" max="13824" width="2.796875" style="67"/>
-    <col min="13825" max="13856" width="3" style="67" customWidth="1"/>
-    <col min="13857" max="13857" width="6.19921875" style="67" customWidth="1"/>
-    <col min="13858" max="13859" width="3" style="67" customWidth="1"/>
-    <col min="13860" max="13863" width="2.796875" style="67"/>
-    <col min="13864" max="13864" width="3" style="67" customWidth="1"/>
-    <col min="13865" max="14080" width="2.796875" style="67"/>
-    <col min="14081" max="14112" width="3" style="67" customWidth="1"/>
-    <col min="14113" max="14113" width="6.19921875" style="67" customWidth="1"/>
-    <col min="14114" max="14115" width="3" style="67" customWidth="1"/>
-    <col min="14116" max="14119" width="2.796875" style="67"/>
-    <col min="14120" max="14120" width="3" style="67" customWidth="1"/>
-    <col min="14121" max="14336" width="2.796875" style="67"/>
-    <col min="14337" max="14368" width="3" style="67" customWidth="1"/>
-    <col min="14369" max="14369" width="6.19921875" style="67" customWidth="1"/>
-    <col min="14370" max="14371" width="3" style="67" customWidth="1"/>
-    <col min="14372" max="14375" width="2.796875" style="67"/>
-    <col min="14376" max="14376" width="3" style="67" customWidth="1"/>
-    <col min="14377" max="14592" width="2.796875" style="67"/>
-    <col min="14593" max="14624" width="3" style="67" customWidth="1"/>
-    <col min="14625" max="14625" width="6.19921875" style="67" customWidth="1"/>
-    <col min="14626" max="14627" width="3" style="67" customWidth="1"/>
-    <col min="14628" max="14631" width="2.796875" style="67"/>
-    <col min="14632" max="14632" width="3" style="67" customWidth="1"/>
-    <col min="14633" max="14848" width="2.796875" style="67"/>
-    <col min="14849" max="14880" width="3" style="67" customWidth="1"/>
-    <col min="14881" max="14881" width="6.19921875" style="67" customWidth="1"/>
-    <col min="14882" max="14883" width="3" style="67" customWidth="1"/>
-    <col min="14884" max="14887" width="2.796875" style="67"/>
-    <col min="14888" max="14888" width="3" style="67" customWidth="1"/>
-    <col min="14889" max="15104" width="2.796875" style="67"/>
-    <col min="15105" max="15136" width="3" style="67" customWidth="1"/>
-    <col min="15137" max="15137" width="6.19921875" style="67" customWidth="1"/>
-    <col min="15138" max="15139" width="3" style="67" customWidth="1"/>
-    <col min="15140" max="15143" width="2.796875" style="67"/>
-    <col min="15144" max="15144" width="3" style="67" customWidth="1"/>
-    <col min="15145" max="15360" width="2.796875" style="67"/>
-    <col min="15361" max="15392" width="3" style="67" customWidth="1"/>
-    <col min="15393" max="15393" width="6.19921875" style="67" customWidth="1"/>
-    <col min="15394" max="15395" width="3" style="67" customWidth="1"/>
-    <col min="15396" max="15399" width="2.796875" style="67"/>
-    <col min="15400" max="15400" width="3" style="67" customWidth="1"/>
-    <col min="15401" max="15616" width="2.796875" style="67"/>
-    <col min="15617" max="15648" width="3" style="67" customWidth="1"/>
-    <col min="15649" max="15649" width="6.19921875" style="67" customWidth="1"/>
-    <col min="15650" max="15651" width="3" style="67" customWidth="1"/>
-    <col min="15652" max="15655" width="2.796875" style="67"/>
-    <col min="15656" max="15656" width="3" style="67" customWidth="1"/>
-    <col min="15657" max="15872" width="2.796875" style="67"/>
-    <col min="15873" max="15904" width="3" style="67" customWidth="1"/>
-    <col min="15905" max="15905" width="6.19921875" style="67" customWidth="1"/>
-    <col min="15906" max="15907" width="3" style="67" customWidth="1"/>
-    <col min="15908" max="15911" width="2.796875" style="67"/>
-    <col min="15912" max="15912" width="3" style="67" customWidth="1"/>
-    <col min="15913" max="16128" width="2.796875" style="67"/>
-    <col min="16129" max="16160" width="3" style="67" customWidth="1"/>
-    <col min="16161" max="16161" width="6.19921875" style="67" customWidth="1"/>
-    <col min="16162" max="16163" width="3" style="67" customWidth="1"/>
-    <col min="16164" max="16167" width="2.796875" style="67"/>
-    <col min="16168" max="16168" width="3" style="67" customWidth="1"/>
-    <col min="16169" max="16384" width="2.796875" style="67"/>
+    <col min="1" max="32" width="3" style="61" customWidth="1"/>
+    <col min="33" max="33" width="6.19921875" style="61" customWidth="1"/>
+    <col min="34" max="34" width="3" style="61" customWidth="1"/>
+    <col min="35" max="35" width="5.1328125" style="61" customWidth="1"/>
+    <col min="36" max="39" width="2.796875" style="61"/>
+    <col min="40" max="40" width="3" style="61" customWidth="1"/>
+    <col min="41" max="41" width="2.796875" style="61" customWidth="1"/>
+    <col min="42" max="256" width="2.796875" style="61"/>
+    <col min="257" max="288" width="3" style="61" customWidth="1"/>
+    <col min="289" max="289" width="6.19921875" style="61" customWidth="1"/>
+    <col min="290" max="291" width="3" style="61" customWidth="1"/>
+    <col min="292" max="295" width="2.796875" style="61"/>
+    <col min="296" max="296" width="3" style="61" customWidth="1"/>
+    <col min="297" max="512" width="2.796875" style="61"/>
+    <col min="513" max="544" width="3" style="61" customWidth="1"/>
+    <col min="545" max="545" width="6.19921875" style="61" customWidth="1"/>
+    <col min="546" max="547" width="3" style="61" customWidth="1"/>
+    <col min="548" max="551" width="2.796875" style="61"/>
+    <col min="552" max="552" width="3" style="61" customWidth="1"/>
+    <col min="553" max="768" width="2.796875" style="61"/>
+    <col min="769" max="800" width="3" style="61" customWidth="1"/>
+    <col min="801" max="801" width="6.19921875" style="61" customWidth="1"/>
+    <col min="802" max="803" width="3" style="61" customWidth="1"/>
+    <col min="804" max="807" width="2.796875" style="61"/>
+    <col min="808" max="808" width="3" style="61" customWidth="1"/>
+    <col min="809" max="1024" width="2.796875" style="61"/>
+    <col min="1025" max="1056" width="3" style="61" customWidth="1"/>
+    <col min="1057" max="1057" width="6.19921875" style="61" customWidth="1"/>
+    <col min="1058" max="1059" width="3" style="61" customWidth="1"/>
+    <col min="1060" max="1063" width="2.796875" style="61"/>
+    <col min="1064" max="1064" width="3" style="61" customWidth="1"/>
+    <col min="1065" max="1280" width="2.796875" style="61"/>
+    <col min="1281" max="1312" width="3" style="61" customWidth="1"/>
+    <col min="1313" max="1313" width="6.19921875" style="61" customWidth="1"/>
+    <col min="1314" max="1315" width="3" style="61" customWidth="1"/>
+    <col min="1316" max="1319" width="2.796875" style="61"/>
+    <col min="1320" max="1320" width="3" style="61" customWidth="1"/>
+    <col min="1321" max="1536" width="2.796875" style="61"/>
+    <col min="1537" max="1568" width="3" style="61" customWidth="1"/>
+    <col min="1569" max="1569" width="6.19921875" style="61" customWidth="1"/>
+    <col min="1570" max="1571" width="3" style="61" customWidth="1"/>
+    <col min="1572" max="1575" width="2.796875" style="61"/>
+    <col min="1576" max="1576" width="3" style="61" customWidth="1"/>
+    <col min="1577" max="1792" width="2.796875" style="61"/>
+    <col min="1793" max="1824" width="3" style="61" customWidth="1"/>
+    <col min="1825" max="1825" width="6.19921875" style="61" customWidth="1"/>
+    <col min="1826" max="1827" width="3" style="61" customWidth="1"/>
+    <col min="1828" max="1831" width="2.796875" style="61"/>
+    <col min="1832" max="1832" width="3" style="61" customWidth="1"/>
+    <col min="1833" max="2048" width="2.796875" style="61"/>
+    <col min="2049" max="2080" width="3" style="61" customWidth="1"/>
+    <col min="2081" max="2081" width="6.19921875" style="61" customWidth="1"/>
+    <col min="2082" max="2083" width="3" style="61" customWidth="1"/>
+    <col min="2084" max="2087" width="2.796875" style="61"/>
+    <col min="2088" max="2088" width="3" style="61" customWidth="1"/>
+    <col min="2089" max="2304" width="2.796875" style="61"/>
+    <col min="2305" max="2336" width="3" style="61" customWidth="1"/>
+    <col min="2337" max="2337" width="6.19921875" style="61" customWidth="1"/>
+    <col min="2338" max="2339" width="3" style="61" customWidth="1"/>
+    <col min="2340" max="2343" width="2.796875" style="61"/>
+    <col min="2344" max="2344" width="3" style="61" customWidth="1"/>
+    <col min="2345" max="2560" width="2.796875" style="61"/>
+    <col min="2561" max="2592" width="3" style="61" customWidth="1"/>
+    <col min="2593" max="2593" width="6.19921875" style="61" customWidth="1"/>
+    <col min="2594" max="2595" width="3" style="61" customWidth="1"/>
+    <col min="2596" max="2599" width="2.796875" style="61"/>
+    <col min="2600" max="2600" width="3" style="61" customWidth="1"/>
+    <col min="2601" max="2816" width="2.796875" style="61"/>
+    <col min="2817" max="2848" width="3" style="61" customWidth="1"/>
+    <col min="2849" max="2849" width="6.19921875" style="61" customWidth="1"/>
+    <col min="2850" max="2851" width="3" style="61" customWidth="1"/>
+    <col min="2852" max="2855" width="2.796875" style="61"/>
+    <col min="2856" max="2856" width="3" style="61" customWidth="1"/>
+    <col min="2857" max="3072" width="2.796875" style="61"/>
+    <col min="3073" max="3104" width="3" style="61" customWidth="1"/>
+    <col min="3105" max="3105" width="6.19921875" style="61" customWidth="1"/>
+    <col min="3106" max="3107" width="3" style="61" customWidth="1"/>
+    <col min="3108" max="3111" width="2.796875" style="61"/>
+    <col min="3112" max="3112" width="3" style="61" customWidth="1"/>
+    <col min="3113" max="3328" width="2.796875" style="61"/>
+    <col min="3329" max="3360" width="3" style="61" customWidth="1"/>
+    <col min="3361" max="3361" width="6.19921875" style="61" customWidth="1"/>
+    <col min="3362" max="3363" width="3" style="61" customWidth="1"/>
+    <col min="3364" max="3367" width="2.796875" style="61"/>
+    <col min="3368" max="3368" width="3" style="61" customWidth="1"/>
+    <col min="3369" max="3584" width="2.796875" style="61"/>
+    <col min="3585" max="3616" width="3" style="61" customWidth="1"/>
+    <col min="3617" max="3617" width="6.19921875" style="61" customWidth="1"/>
+    <col min="3618" max="3619" width="3" style="61" customWidth="1"/>
+    <col min="3620" max="3623" width="2.796875" style="61"/>
+    <col min="3624" max="3624" width="3" style="61" customWidth="1"/>
+    <col min="3625" max="3840" width="2.796875" style="61"/>
+    <col min="3841" max="3872" width="3" style="61" customWidth="1"/>
+    <col min="3873" max="3873" width="6.19921875" style="61" customWidth="1"/>
+    <col min="3874" max="3875" width="3" style="61" customWidth="1"/>
+    <col min="3876" max="3879" width="2.796875" style="61"/>
+    <col min="3880" max="3880" width="3" style="61" customWidth="1"/>
+    <col min="3881" max="4096" width="2.796875" style="61"/>
+    <col min="4097" max="4128" width="3" style="61" customWidth="1"/>
+    <col min="4129" max="4129" width="6.19921875" style="61" customWidth="1"/>
+    <col min="4130" max="4131" width="3" style="61" customWidth="1"/>
+    <col min="4132" max="4135" width="2.796875" style="61"/>
+    <col min="4136" max="4136" width="3" style="61" customWidth="1"/>
+    <col min="4137" max="4352" width="2.796875" style="61"/>
+    <col min="4353" max="4384" width="3" style="61" customWidth="1"/>
+    <col min="4385" max="4385" width="6.19921875" style="61" customWidth="1"/>
+    <col min="4386" max="4387" width="3" style="61" customWidth="1"/>
+    <col min="4388" max="4391" width="2.796875" style="61"/>
+    <col min="4392" max="4392" width="3" style="61" customWidth="1"/>
+    <col min="4393" max="4608" width="2.796875" style="61"/>
+    <col min="4609" max="4640" width="3" style="61" customWidth="1"/>
+    <col min="4641" max="4641" width="6.19921875" style="61" customWidth="1"/>
+    <col min="4642" max="4643" width="3" style="61" customWidth="1"/>
+    <col min="4644" max="4647" width="2.796875" style="61"/>
+    <col min="4648" max="4648" width="3" style="61" customWidth="1"/>
+    <col min="4649" max="4864" width="2.796875" style="61"/>
+    <col min="4865" max="4896" width="3" style="61" customWidth="1"/>
+    <col min="4897" max="4897" width="6.19921875" style="61" customWidth="1"/>
+    <col min="4898" max="4899" width="3" style="61" customWidth="1"/>
+    <col min="4900" max="4903" width="2.796875" style="61"/>
+    <col min="4904" max="4904" width="3" style="61" customWidth="1"/>
+    <col min="4905" max="5120" width="2.796875" style="61"/>
+    <col min="5121" max="5152" width="3" style="61" customWidth="1"/>
+    <col min="5153" max="5153" width="6.19921875" style="61" customWidth="1"/>
+    <col min="5154" max="5155" width="3" style="61" customWidth="1"/>
+    <col min="5156" max="5159" width="2.796875" style="61"/>
+    <col min="5160" max="5160" width="3" style="61" customWidth="1"/>
+    <col min="5161" max="5376" width="2.796875" style="61"/>
+    <col min="5377" max="5408" width="3" style="61" customWidth="1"/>
+    <col min="5409" max="5409" width="6.19921875" style="61" customWidth="1"/>
+    <col min="5410" max="5411" width="3" style="61" customWidth="1"/>
+    <col min="5412" max="5415" width="2.796875" style="61"/>
+    <col min="5416" max="5416" width="3" style="61" customWidth="1"/>
+    <col min="5417" max="5632" width="2.796875" style="61"/>
+    <col min="5633" max="5664" width="3" style="61" customWidth="1"/>
+    <col min="5665" max="5665" width="6.19921875" style="61" customWidth="1"/>
+    <col min="5666" max="5667" width="3" style="61" customWidth="1"/>
+    <col min="5668" max="5671" width="2.796875" style="61"/>
+    <col min="5672" max="5672" width="3" style="61" customWidth="1"/>
+    <col min="5673" max="5888" width="2.796875" style="61"/>
+    <col min="5889" max="5920" width="3" style="61" customWidth="1"/>
+    <col min="5921" max="5921" width="6.19921875" style="61" customWidth="1"/>
+    <col min="5922" max="5923" width="3" style="61" customWidth="1"/>
+    <col min="5924" max="5927" width="2.796875" style="61"/>
+    <col min="5928" max="5928" width="3" style="61" customWidth="1"/>
+    <col min="5929" max="6144" width="2.796875" style="61"/>
+    <col min="6145" max="6176" width="3" style="61" customWidth="1"/>
+    <col min="6177" max="6177" width="6.19921875" style="61" customWidth="1"/>
+    <col min="6178" max="6179" width="3" style="61" customWidth="1"/>
+    <col min="6180" max="6183" width="2.796875" style="61"/>
+    <col min="6184" max="6184" width="3" style="61" customWidth="1"/>
+    <col min="6185" max="6400" width="2.796875" style="61"/>
+    <col min="6401" max="6432" width="3" style="61" customWidth="1"/>
+    <col min="6433" max="6433" width="6.19921875" style="61" customWidth="1"/>
+    <col min="6434" max="6435" width="3" style="61" customWidth="1"/>
+    <col min="6436" max="6439" width="2.796875" style="61"/>
+    <col min="6440" max="6440" width="3" style="61" customWidth="1"/>
+    <col min="6441" max="6656" width="2.796875" style="61"/>
+    <col min="6657" max="6688" width="3" style="61" customWidth="1"/>
+    <col min="6689" max="6689" width="6.19921875" style="61" customWidth="1"/>
+    <col min="6690" max="6691" width="3" style="61" customWidth="1"/>
+    <col min="6692" max="6695" width="2.796875" style="61"/>
+    <col min="6696" max="6696" width="3" style="61" customWidth="1"/>
+    <col min="6697" max="6912" width="2.796875" style="61"/>
+    <col min="6913" max="6944" width="3" style="61" customWidth="1"/>
+    <col min="6945" max="6945" width="6.19921875" style="61" customWidth="1"/>
+    <col min="6946" max="6947" width="3" style="61" customWidth="1"/>
+    <col min="6948" max="6951" width="2.796875" style="61"/>
+    <col min="6952" max="6952" width="3" style="61" customWidth="1"/>
+    <col min="6953" max="7168" width="2.796875" style="61"/>
+    <col min="7169" max="7200" width="3" style="61" customWidth="1"/>
+    <col min="7201" max="7201" width="6.19921875" style="61" customWidth="1"/>
+    <col min="7202" max="7203" width="3" style="61" customWidth="1"/>
+    <col min="7204" max="7207" width="2.796875" style="61"/>
+    <col min="7208" max="7208" width="3" style="61" customWidth="1"/>
+    <col min="7209" max="7424" width="2.796875" style="61"/>
+    <col min="7425" max="7456" width="3" style="61" customWidth="1"/>
+    <col min="7457" max="7457" width="6.19921875" style="61" customWidth="1"/>
+    <col min="7458" max="7459" width="3" style="61" customWidth="1"/>
+    <col min="7460" max="7463" width="2.796875" style="61"/>
+    <col min="7464" max="7464" width="3" style="61" customWidth="1"/>
+    <col min="7465" max="7680" width="2.796875" style="61"/>
+    <col min="7681" max="7712" width="3" style="61" customWidth="1"/>
+    <col min="7713" max="7713" width="6.19921875" style="61" customWidth="1"/>
+    <col min="7714" max="7715" width="3" style="61" customWidth="1"/>
+    <col min="7716" max="7719" width="2.796875" style="61"/>
+    <col min="7720" max="7720" width="3" style="61" customWidth="1"/>
+    <col min="7721" max="7936" width="2.796875" style="61"/>
+    <col min="7937" max="7968" width="3" style="61" customWidth="1"/>
+    <col min="7969" max="7969" width="6.19921875" style="61" customWidth="1"/>
+    <col min="7970" max="7971" width="3" style="61" customWidth="1"/>
+    <col min="7972" max="7975" width="2.796875" style="61"/>
+    <col min="7976" max="7976" width="3" style="61" customWidth="1"/>
+    <col min="7977" max="8192" width="2.796875" style="61"/>
+    <col min="8193" max="8224" width="3" style="61" customWidth="1"/>
+    <col min="8225" max="8225" width="6.19921875" style="61" customWidth="1"/>
+    <col min="8226" max="8227" width="3" style="61" customWidth="1"/>
+    <col min="8228" max="8231" width="2.796875" style="61"/>
+    <col min="8232" max="8232" width="3" style="61" customWidth="1"/>
+    <col min="8233" max="8448" width="2.796875" style="61"/>
+    <col min="8449" max="8480" width="3" style="61" customWidth="1"/>
+    <col min="8481" max="8481" width="6.19921875" style="61" customWidth="1"/>
+    <col min="8482" max="8483" width="3" style="61" customWidth="1"/>
+    <col min="8484" max="8487" width="2.796875" style="61"/>
+    <col min="8488" max="8488" width="3" style="61" customWidth="1"/>
+    <col min="8489" max="8704" width="2.796875" style="61"/>
+    <col min="8705" max="8736" width="3" style="61" customWidth="1"/>
+    <col min="8737" max="8737" width="6.19921875" style="61" customWidth="1"/>
+    <col min="8738" max="8739" width="3" style="61" customWidth="1"/>
+    <col min="8740" max="8743" width="2.796875" style="61"/>
+    <col min="8744" max="8744" width="3" style="61" customWidth="1"/>
+    <col min="8745" max="8960" width="2.796875" style="61"/>
+    <col min="8961" max="8992" width="3" style="61" customWidth="1"/>
+    <col min="8993" max="8993" width="6.19921875" style="61" customWidth="1"/>
+    <col min="8994" max="8995" width="3" style="61" customWidth="1"/>
+    <col min="8996" max="8999" width="2.796875" style="61"/>
+    <col min="9000" max="9000" width="3" style="61" customWidth="1"/>
+    <col min="9001" max="9216" width="2.796875" style="61"/>
+    <col min="9217" max="9248" width="3" style="61" customWidth="1"/>
+    <col min="9249" max="9249" width="6.19921875" style="61" customWidth="1"/>
+    <col min="9250" max="9251" width="3" style="61" customWidth="1"/>
+    <col min="9252" max="9255" width="2.796875" style="61"/>
+    <col min="9256" max="9256" width="3" style="61" customWidth="1"/>
+    <col min="9257" max="9472" width="2.796875" style="61"/>
+    <col min="9473" max="9504" width="3" style="61" customWidth="1"/>
+    <col min="9505" max="9505" width="6.19921875" style="61" customWidth="1"/>
+    <col min="9506" max="9507" width="3" style="61" customWidth="1"/>
+    <col min="9508" max="9511" width="2.796875" style="61"/>
+    <col min="9512" max="9512" width="3" style="61" customWidth="1"/>
+    <col min="9513" max="9728" width="2.796875" style="61"/>
+    <col min="9729" max="9760" width="3" style="61" customWidth="1"/>
+    <col min="9761" max="9761" width="6.19921875" style="61" customWidth="1"/>
+    <col min="9762" max="9763" width="3" style="61" customWidth="1"/>
+    <col min="9764" max="9767" width="2.796875" style="61"/>
+    <col min="9768" max="9768" width="3" style="61" customWidth="1"/>
+    <col min="9769" max="9984" width="2.796875" style="61"/>
+    <col min="9985" max="10016" width="3" style="61" customWidth="1"/>
+    <col min="10017" max="10017" width="6.19921875" style="61" customWidth="1"/>
+    <col min="10018" max="10019" width="3" style="61" customWidth="1"/>
+    <col min="10020" max="10023" width="2.796875" style="61"/>
+    <col min="10024" max="10024" width="3" style="61" customWidth="1"/>
+    <col min="10025" max="10240" width="2.796875" style="61"/>
+    <col min="10241" max="10272" width="3" style="61" customWidth="1"/>
+    <col min="10273" max="10273" width="6.19921875" style="61" customWidth="1"/>
+    <col min="10274" max="10275" width="3" style="61" customWidth="1"/>
+    <col min="10276" max="10279" width="2.796875" style="61"/>
+    <col min="10280" max="10280" width="3" style="61" customWidth="1"/>
+    <col min="10281" max="10496" width="2.796875" style="61"/>
+    <col min="10497" max="10528" width="3" style="61" customWidth="1"/>
+    <col min="10529" max="10529" width="6.19921875" style="61" customWidth="1"/>
+    <col min="10530" max="10531" width="3" style="61" customWidth="1"/>
+    <col min="10532" max="10535" width="2.796875" style="61"/>
+    <col min="10536" max="10536" width="3" style="61" customWidth="1"/>
+    <col min="10537" max="10752" width="2.796875" style="61"/>
+    <col min="10753" max="10784" width="3" style="61" customWidth="1"/>
+    <col min="10785" max="10785" width="6.19921875" style="61" customWidth="1"/>
+    <col min="10786" max="10787" width="3" style="61" customWidth="1"/>
+    <col min="10788" max="10791" width="2.796875" style="61"/>
+    <col min="10792" max="10792" width="3" style="61" customWidth="1"/>
+    <col min="10793" max="11008" width="2.796875" style="61"/>
+    <col min="11009" max="11040" width="3" style="61" customWidth="1"/>
+    <col min="11041" max="11041" width="6.19921875" style="61" customWidth="1"/>
+    <col min="11042" max="11043" width="3" style="61" customWidth="1"/>
+    <col min="11044" max="11047" width="2.796875" style="61"/>
+    <col min="11048" max="11048" width="3" style="61" customWidth="1"/>
+    <col min="11049" max="11264" width="2.796875" style="61"/>
+    <col min="11265" max="11296" width="3" style="61" customWidth="1"/>
+    <col min="11297" max="11297" width="6.19921875" style="61" customWidth="1"/>
+    <col min="11298" max="11299" width="3" style="61" customWidth="1"/>
+    <col min="11300" max="11303" width="2.796875" style="61"/>
+    <col min="11304" max="11304" width="3" style="61" customWidth="1"/>
+    <col min="11305" max="11520" width="2.796875" style="61"/>
+    <col min="11521" max="11552" width="3" style="61" customWidth="1"/>
+    <col min="11553" max="11553" width="6.19921875" style="61" customWidth="1"/>
+    <col min="11554" max="11555" width="3" style="61" customWidth="1"/>
+    <col min="11556" max="11559" width="2.796875" style="61"/>
+    <col min="11560" max="11560" width="3" style="61" customWidth="1"/>
+    <col min="11561" max="11776" width="2.796875" style="61"/>
+    <col min="11777" max="11808" width="3" style="61" customWidth="1"/>
+    <col min="11809" max="11809" width="6.19921875" style="61" customWidth="1"/>
+    <col min="11810" max="11811" width="3" style="61" customWidth="1"/>
+    <col min="11812" max="11815" width="2.796875" style="61"/>
+    <col min="11816" max="11816" width="3" style="61" customWidth="1"/>
+    <col min="11817" max="12032" width="2.796875" style="61"/>
+    <col min="12033" max="12064" width="3" style="61" customWidth="1"/>
+    <col min="12065" max="12065" width="6.19921875" style="61" customWidth="1"/>
+    <col min="12066" max="12067" width="3" style="61" customWidth="1"/>
+    <col min="12068" max="12071" width="2.796875" style="61"/>
+    <col min="12072" max="12072" width="3" style="61" customWidth="1"/>
+    <col min="12073" max="12288" width="2.796875" style="61"/>
+    <col min="12289" max="12320" width="3" style="61" customWidth="1"/>
+    <col min="12321" max="12321" width="6.19921875" style="61" customWidth="1"/>
+    <col min="12322" max="12323" width="3" style="61" customWidth="1"/>
+    <col min="12324" max="12327" width="2.796875" style="61"/>
+    <col min="12328" max="12328" width="3" style="61" customWidth="1"/>
+    <col min="12329" max="12544" width="2.796875" style="61"/>
+    <col min="12545" max="12576" width="3" style="61" customWidth="1"/>
+    <col min="12577" max="12577" width="6.19921875" style="61" customWidth="1"/>
+    <col min="12578" max="12579" width="3" style="61" customWidth="1"/>
+    <col min="12580" max="12583" width="2.796875" style="61"/>
+    <col min="12584" max="12584" width="3" style="61" customWidth="1"/>
+    <col min="12585" max="12800" width="2.796875" style="61"/>
+    <col min="12801" max="12832" width="3" style="61" customWidth="1"/>
+    <col min="12833" max="12833" width="6.19921875" style="61" customWidth="1"/>
+    <col min="12834" max="12835" width="3" style="61" customWidth="1"/>
+    <col min="12836" max="12839" width="2.796875" style="61"/>
+    <col min="12840" max="12840" width="3" style="61" customWidth="1"/>
+    <col min="12841" max="13056" width="2.796875" style="61"/>
+    <col min="13057" max="13088" width="3" style="61" customWidth="1"/>
+    <col min="13089" max="13089" width="6.19921875" style="61" customWidth="1"/>
+    <col min="13090" max="13091" width="3" style="61" customWidth="1"/>
+    <col min="13092" max="13095" width="2.796875" style="61"/>
+    <col min="13096" max="13096" width="3" style="61" customWidth="1"/>
+    <col min="13097" max="13312" width="2.796875" style="61"/>
+    <col min="13313" max="13344" width="3" style="61" customWidth="1"/>
+    <col min="13345" max="13345" width="6.19921875" style="61" customWidth="1"/>
+    <col min="13346" max="13347" width="3" style="61" customWidth="1"/>
+    <col min="13348" max="13351" width="2.796875" style="61"/>
+    <col min="13352" max="13352" width="3" style="61" customWidth="1"/>
+    <col min="13353" max="13568" width="2.796875" style="61"/>
+    <col min="13569" max="13600" width="3" style="61" customWidth="1"/>
+    <col min="13601" max="13601" width="6.19921875" style="61" customWidth="1"/>
+    <col min="13602" max="13603" width="3" style="61" customWidth="1"/>
+    <col min="13604" max="13607" width="2.796875" style="61"/>
+    <col min="13608" max="13608" width="3" style="61" customWidth="1"/>
+    <col min="13609" max="13824" width="2.796875" style="61"/>
+    <col min="13825" max="13856" width="3" style="61" customWidth="1"/>
+    <col min="13857" max="13857" width="6.19921875" style="61" customWidth="1"/>
+    <col min="13858" max="13859" width="3" style="61" customWidth="1"/>
+    <col min="13860" max="13863" width="2.796875" style="61"/>
+    <col min="13864" max="13864" width="3" style="61" customWidth="1"/>
+    <col min="13865" max="14080" width="2.796875" style="61"/>
+    <col min="14081" max="14112" width="3" style="61" customWidth="1"/>
+    <col min="14113" max="14113" width="6.19921875" style="61" customWidth="1"/>
+    <col min="14114" max="14115" width="3" style="61" customWidth="1"/>
+    <col min="14116" max="14119" width="2.796875" style="61"/>
+    <col min="14120" max="14120" width="3" style="61" customWidth="1"/>
+    <col min="14121" max="14336" width="2.796875" style="61"/>
+    <col min="14337" max="14368" width="3" style="61" customWidth="1"/>
+    <col min="14369" max="14369" width="6.19921875" style="61" customWidth="1"/>
+    <col min="14370" max="14371" width="3" style="61" customWidth="1"/>
+    <col min="14372" max="14375" width="2.796875" style="61"/>
+    <col min="14376" max="14376" width="3" style="61" customWidth="1"/>
+    <col min="14377" max="14592" width="2.796875" style="61"/>
+    <col min="14593" max="14624" width="3" style="61" customWidth="1"/>
+    <col min="14625" max="14625" width="6.19921875" style="61" customWidth="1"/>
+    <col min="14626" max="14627" width="3" style="61" customWidth="1"/>
+    <col min="14628" max="14631" width="2.796875" style="61"/>
+    <col min="14632" max="14632" width="3" style="61" customWidth="1"/>
+    <col min="14633" max="14848" width="2.796875" style="61"/>
+    <col min="14849" max="14880" width="3" style="61" customWidth="1"/>
+    <col min="14881" max="14881" width="6.19921875" style="61" customWidth="1"/>
+    <col min="14882" max="14883" width="3" style="61" customWidth="1"/>
+    <col min="14884" max="14887" width="2.796875" style="61"/>
+    <col min="14888" max="14888" width="3" style="61" customWidth="1"/>
+    <col min="14889" max="15104" width="2.796875" style="61"/>
+    <col min="15105" max="15136" width="3" style="61" customWidth="1"/>
+    <col min="15137" max="15137" width="6.19921875" style="61" customWidth="1"/>
+    <col min="15138" max="15139" width="3" style="61" customWidth="1"/>
+    <col min="15140" max="15143" width="2.796875" style="61"/>
+    <col min="15144" max="15144" width="3" style="61" customWidth="1"/>
+    <col min="15145" max="15360" width="2.796875" style="61"/>
+    <col min="15361" max="15392" width="3" style="61" customWidth="1"/>
+    <col min="15393" max="15393" width="6.19921875" style="61" customWidth="1"/>
+    <col min="15394" max="15395" width="3" style="61" customWidth="1"/>
+    <col min="15396" max="15399" width="2.796875" style="61"/>
+    <col min="15400" max="15400" width="3" style="61" customWidth="1"/>
+    <col min="15401" max="15616" width="2.796875" style="61"/>
+    <col min="15617" max="15648" width="3" style="61" customWidth="1"/>
+    <col min="15649" max="15649" width="6.19921875" style="61" customWidth="1"/>
+    <col min="15650" max="15651" width="3" style="61" customWidth="1"/>
+    <col min="15652" max="15655" width="2.796875" style="61"/>
+    <col min="15656" max="15656" width="3" style="61" customWidth="1"/>
+    <col min="15657" max="15872" width="2.796875" style="61"/>
+    <col min="15873" max="15904" width="3" style="61" customWidth="1"/>
+    <col min="15905" max="15905" width="6.19921875" style="61" customWidth="1"/>
+    <col min="15906" max="15907" width="3" style="61" customWidth="1"/>
+    <col min="15908" max="15911" width="2.796875" style="61"/>
+    <col min="15912" max="15912" width="3" style="61" customWidth="1"/>
+    <col min="15913" max="16128" width="2.796875" style="61"/>
+    <col min="16129" max="16160" width="3" style="61" customWidth="1"/>
+    <col min="16161" max="16161" width="6.19921875" style="61" customWidth="1"/>
+    <col min="16162" max="16163" width="3" style="61" customWidth="1"/>
+    <col min="16164" max="16167" width="2.796875" style="61"/>
+    <col min="16168" max="16168" width="3" style="61" customWidth="1"/>
+    <col min="16169" max="16384" width="2.796875" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="8.25" customHeight="1">
-      <c r="AF1" s="80" t="s">
-        <v>58</v>
+      <c r="AF1" s="88" t="s">
+        <v>57</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
     </row>
     <row r="2" spans="1:42" s="1" customFormat="1" ht="8.25" customHeight="1">
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="80"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
     </row>
     <row r="3" spans="1:42" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="AB3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:42" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="81" t="s">
-        <v>54</v>
+      <c r="A4" s="89" t="s">
+        <v>53</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -15697,41 +15741,41 @@
       <c r="AP4" s="2"/>
     </row>
     <row r="5" spans="1:42" s="1" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="82"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="90"/>
+      <c r="AG5" s="90"/>
+      <c r="AH5" s="90"/>
+      <c r="AI5" s="90"/>
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:42" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -15743,7 +15787,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AE6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -15759,451 +15803,451 @@
       <c r="AJ7" s="4"/>
     </row>
     <row r="8" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="84" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="90" t="s">
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="94" t="s">
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="100"/>
+      <c r="AE8" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="96"/>
-      <c r="AH8" s="96"/>
-      <c r="AI8" s="97"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="105"/>
       <c r="AM8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="99"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="107"/>
       <c r="AM9" s="5"/>
     </row>
     <row r="10" spans="1:42" s="1" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="109" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
-      <c r="U10" s="110"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="110"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="111" t="s">
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="79"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
       <c r="AM10" s="5"/>
     </row>
     <row r="11" spans="1:42" s="1" customFormat="1" ht="31.8" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="79"/>
+      <c r="A11" s="110"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
       <c r="AM11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="128" t="s">
+      <c r="B12" s="127"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="122"/>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="132" t="s">
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="133"/>
-      <c r="AA12" s="133"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="139"/>
+      <c r="Y12" s="141"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="112"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="147"/>
       <c r="AM12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="120"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="126"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="126"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="140"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="S13" s="134"/>
+      <c r="T13" s="134"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="133"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="115"/>
+      <c r="AE13" s="115"/>
+      <c r="AF13" s="115"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="115"/>
+      <c r="AI13" s="148"/>
       <c r="AM13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="147" t="s">
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="153" t="s">
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="154"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="161"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="162"/>
     </row>
     <row r="15" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A15" s="143"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="152"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="155"/>
-      <c r="AG15" s="155"/>
-      <c r="AH15" s="155"/>
-      <c r="AI15" s="156"/>
+      <c r="A15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="163"/>
+      <c r="AF15" s="163"/>
+      <c r="AG15" s="163"/>
+      <c r="AH15" s="163"/>
+      <c r="AI15" s="164"/>
     </row>
     <row r="16" spans="1:42" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A16" s="143"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="133"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="133"/>
-      <c r="AF16" s="133"/>
-      <c r="AG16" s="133"/>
-      <c r="AH16" s="133"/>
-      <c r="AI16" s="163"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="141"/>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="141"/>
+      <c r="AH16" s="141"/>
+      <c r="AI16" s="171"/>
     </row>
     <row r="17" spans="1:44" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="164"/>
-      <c r="AG17" s="164"/>
-      <c r="AH17" s="164"/>
-      <c r="AI17" s="165"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="169"/>
+      <c r="U17" s="170"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="172"/>
+      <c r="AF17" s="172"/>
+      <c r="AG17" s="172"/>
+      <c r="AH17" s="172"/>
+      <c r="AI17" s="173"/>
     </row>
     <row r="18" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="114"/>
-      <c r="AB18" s="114"/>
-      <c r="AC18" s="114"/>
-      <c r="AD18" s="114"/>
-      <c r="AE18" s="114"/>
-      <c r="AF18" s="114"/>
-      <c r="AG18" s="114"/>
-      <c r="AH18" s="114"/>
-      <c r="AI18" s="115"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
+      <c r="W18" s="122"/>
+      <c r="X18" s="122"/>
+      <c r="Y18" s="122"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="122"/>
+      <c r="AC18" s="122"/>
+      <c r="AD18" s="122"/>
+      <c r="AE18" s="122"/>
+      <c r="AF18" s="122"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="122"/>
+      <c r="AI18" s="123"/>
       <c r="AM18" s="6" t="s">
         <v>15</v>
       </c>
@@ -16214,41 +16258,41 @@
       <c r="AR18" s="6"/>
     </row>
     <row r="19" spans="1:44" s="1" customFormat="1" ht="67.5" customHeight="1">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="118"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="126"/>
       <c r="AM19" s="6" t="s">
         <v>16</v>
       </c>
@@ -16259,47 +16303,47 @@
       <c r="AR19" s="6"/>
     </row>
     <row r="20" spans="1:44" s="1" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="177"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="184" t="s">
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="177"/>
-      <c r="P20" s="177"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="180"/>
-      <c r="T20" s="180"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="188" t="s">
+      <c r="M20" s="185"/>
+      <c r="N20" s="185"/>
+      <c r="O20" s="185"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="180"/>
-      <c r="Y20" s="180"/>
-      <c r="Z20" s="180"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
-      <c r="AE20" s="190"/>
-      <c r="AF20" s="190"/>
-      <c r="AG20" s="190"/>
-      <c r="AH20" s="190"/>
-      <c r="AI20" s="191"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="198"/>
+      <c r="AB20" s="198"/>
+      <c r="AC20" s="198"/>
+      <c r="AD20" s="198"/>
+      <c r="AE20" s="198"/>
+      <c r="AF20" s="198"/>
+      <c r="AG20" s="198"/>
+      <c r="AH20" s="198"/>
+      <c r="AI20" s="199"/>
       <c r="AM20" s="6" t="s">
         <v>20</v>
       </c>
@@ -16310,41 +16354,41 @@
       <c r="AR20" s="6"/>
     </row>
     <row r="21" spans="1:44" s="1" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="178"/>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="179"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="189"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="192"/>
-      <c r="AB21" s="192"/>
-      <c r="AC21" s="192"/>
-      <c r="AD21" s="192"/>
-      <c r="AE21" s="192"/>
-      <c r="AF21" s="192"/>
-      <c r="AG21" s="192"/>
-      <c r="AH21" s="192"/>
-      <c r="AI21" s="193"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="190"/>
+      <c r="R21" s="190"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="190"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="197"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="190"/>
+      <c r="AA21" s="200"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="200"/>
+      <c r="AD21" s="200"/>
+      <c r="AE21" s="200"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="200"/>
+      <c r="AH21" s="200"/>
+      <c r="AI21" s="201"/>
       <c r="AM21" s="6" t="s">
         <v>21</v>
       </c>
@@ -16355,53 +16399,53 @@
       <c r="AR21" s="6"/>
     </row>
     <row r="22" spans="1:44" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="195"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="202" t="s">
+      <c r="F22" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="202" t="s">
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="202" t="s">
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="166"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="202" t="s">
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="203"/>
+      <c r="U22" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="166"/>
-      <c r="W22" s="166"/>
-      <c r="X22" s="166"/>
-      <c r="Y22" s="166"/>
-      <c r="Z22" s="195"/>
-      <c r="AA22" s="166" t="s">
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="203"/>
+      <c r="AA22" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="166"/>
-      <c r="AD22" s="166"/>
-      <c r="AE22" s="166"/>
-      <c r="AF22" s="166"/>
-      <c r="AG22" s="166"/>
-      <c r="AH22" s="166"/>
-      <c r="AI22" s="167"/>
+      <c r="AB22" s="174"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="174"/>
+      <c r="AE22" s="174"/>
+      <c r="AF22" s="174"/>
+      <c r="AG22" s="174"/>
+      <c r="AH22" s="174"/>
+      <c r="AI22" s="175"/>
       <c r="AM22" s="6" t="s">
         <v>27</v>
       </c>
@@ -16412,47 +16456,47 @@
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="1:44" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="196"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="198"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="206"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="203"/>
-      <c r="L23" s="197"/>
-      <c r="M23" s="197"/>
-      <c r="N23" s="197"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="168"/>
-      <c r="Q23" s="168"/>
-      <c r="R23" s="168"/>
-      <c r="S23" s="168"/>
-      <c r="T23" s="205"/>
-      <c r="U23" s="203"/>
-      <c r="V23" s="197"/>
-      <c r="W23" s="197"/>
-      <c r="X23" s="197"/>
-      <c r="Y23" s="197"/>
-      <c r="Z23" s="198"/>
-      <c r="AA23" s="168"/>
-      <c r="AB23" s="168"/>
-      <c r="AC23" s="168"/>
-      <c r="AD23" s="168"/>
-      <c r="AE23" s="168"/>
-      <c r="AF23" s="168"/>
-      <c r="AG23" s="168"/>
-      <c r="AH23" s="168"/>
-      <c r="AI23" s="169"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+      <c r="I23" s="205"/>
+      <c r="J23" s="205"/>
+      <c r="K23" s="211"/>
+      <c r="L23" s="205"/>
+      <c r="M23" s="205"/>
+      <c r="N23" s="205"/>
+      <c r="O23" s="212"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="176"/>
+      <c r="R23" s="176"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="213"/>
+      <c r="U23" s="211"/>
+      <c r="V23" s="205"/>
+      <c r="W23" s="205"/>
+      <c r="X23" s="205"/>
+      <c r="Y23" s="205"/>
+      <c r="Z23" s="206"/>
+      <c r="AA23" s="176"/>
+      <c r="AB23" s="176"/>
+      <c r="AC23" s="176"/>
+      <c r="AD23" s="176"/>
+      <c r="AE23" s="176"/>
+      <c r="AF23" s="176"/>
+      <c r="AG23" s="176"/>
+      <c r="AH23" s="176"/>
+      <c r="AI23" s="177"/>
     </row>
     <row r="24" spans="1:44" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A24" s="196"/>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="198"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="206"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
@@ -16473,34 +16517,34 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
-      <c r="Y24" s="74"/>
+      <c r="Y24" s="68"/>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="170"/>
-      <c r="AB24" s="170"/>
-      <c r="AC24" s="170"/>
-      <c r="AD24" s="170"/>
-      <c r="AE24" s="170"/>
-      <c r="AF24" s="170"/>
-      <c r="AG24" s="170"/>
-      <c r="AH24" s="170"/>
-      <c r="AI24" s="171"/>
+      <c r="AA24" s="178"/>
+      <c r="AB24" s="178"/>
+      <c r="AC24" s="178"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="178"/>
+      <c r="AF24" s="178"/>
+      <c r="AG24" s="178"/>
+      <c r="AH24" s="178"/>
+      <c r="AI24" s="179"/>
       <c r="AM24" s="16"/>
       <c r="AN24" s="16"/>
     </row>
     <row r="25" spans="1:44" s="1" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="196"/>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="198"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="205"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
       <c r="E25" s="8"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
       <c r="J25" s="18"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
       <c r="N25" s="18"/>
       <c r="O25" s="12"/>
       <c r="P25" s="13"/>
@@ -16509,37 +16553,37 @@
       <c r="S25" s="13"/>
       <c r="T25" s="14"/>
       <c r="U25" s="17"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
       <c r="Z25" s="18"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="172"/>
-      <c r="AF25" s="172"/>
-      <c r="AG25" s="172"/>
-      <c r="AH25" s="172"/>
-      <c r="AI25" s="173"/>
+      <c r="AA25" s="180"/>
+      <c r="AB25" s="180"/>
+      <c r="AC25" s="180"/>
+      <c r="AD25" s="180"/>
+      <c r="AE25" s="180"/>
+      <c r="AF25" s="180"/>
+      <c r="AG25" s="180"/>
+      <c r="AH25" s="180"/>
+      <c r="AI25" s="181"/>
       <c r="AM25" s="16"/>
       <c r="AN25" s="16"/>
     </row>
     <row r="26" spans="1:44" s="1" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A26" s="199"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
+      <c r="A26" s="207"/>
+      <c r="B26" s="208"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="209"/>
       <c r="E26" s="19"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="21"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
       <c r="P26" s="23"/>
@@ -16548,27 +16592,27 @@
       <c r="S26" s="23"/>
       <c r="T26" s="24"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
       <c r="Z26" s="21"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="174"/>
-      <c r="AI26" s="175"/>
+      <c r="AA26" s="182"/>
+      <c r="AB26" s="182"/>
+      <c r="AC26" s="182"/>
+      <c r="AD26" s="182"/>
+      <c r="AE26" s="182"/>
+      <c r="AF26" s="182"/>
+      <c r="AG26" s="182"/>
+      <c r="AH26" s="182"/>
+      <c r="AI26" s="183"/>
       <c r="AM26" s="16"/>
       <c r="AN26" s="16"/>
     </row>
     <row r="27" spans="1:44" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -16589,7 +16633,7 @@
         <v>28</v>
       </c>
       <c r="S27" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
@@ -16613,54 +16657,54 @@
     <row r="28" spans="1:44" s="1" customFormat="1" ht="26.45" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="206" t="s">
+      <c r="C28" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="206"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="214"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
       <c r="M28" s="29"/>
-      <c r="N28" s="207" t="s">
+      <c r="N28" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="208"/>
-      <c r="P28" s="208"/>
-      <c r="Q28" s="209"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="216"/>
+      <c r="Q28" s="217"/>
       <c r="R28" s="26"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="206" t="s">
-        <v>62</v>
+      <c r="T28" s="214" t="s">
+        <v>61</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="206"/>
-      <c r="X28" s="206"/>
-      <c r="Y28" s="206"/>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
       <c r="AB28" s="29"/>
       <c r="AC28" s="29"/>
       <c r="AD28" s="29"/>
-      <c r="AE28" s="210" t="s">
+      <c r="AE28" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="AF28" s="211"/>
-      <c r="AG28" s="211"/>
-      <c r="AH28" s="212"/>
+      <c r="AF28" s="219"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="220"/>
       <c r="AI28" s="27"/>
     </row>
     <row r="29" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="62"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -16669,10 +16713,10 @@
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="214"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="222"/>
       <c r="R29" s="26"/>
       <c r="S29" s="31"/>
       <c r="T29" s="26"/>
@@ -16686,10 +16730,10 @@
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="122"/>
-      <c r="AG29" s="122"/>
-      <c r="AH29" s="214"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="130"/>
+      <c r="AG29" s="130"/>
+      <c r="AH29" s="222"/>
       <c r="AI29" s="27"/>
     </row>
     <row r="30" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16706,10 +16750,10 @@
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="215"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="223"/>
       <c r="R30" s="26"/>
       <c r="S30" s="31"/>
       <c r="T30" s="26"/>
@@ -16723,10 +16767,10 @@
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="26"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="126"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="215"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="223"/>
       <c r="AI30" s="27"/>
     </row>
     <row r="31" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16743,10 +16787,10 @@
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="215"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="223"/>
       <c r="R31" s="26"/>
       <c r="S31" s="31"/>
       <c r="T31" s="26"/>
@@ -16760,10 +16804,10 @@
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
       <c r="AD31" s="26"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="126"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="215"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="134"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="223"/>
       <c r="AI31" s="27"/>
     </row>
     <row r="32" spans="1:44" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -16780,10 +16824,10 @@
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="216"/>
-      <c r="O32" s="217"/>
-      <c r="P32" s="217"/>
-      <c r="Q32" s="218"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="226"/>
       <c r="R32" s="26"/>
       <c r="S32" s="33"/>
       <c r="T32" s="34"/>
@@ -16797,10 +16841,10 @@
       <c r="AB32" s="34"/>
       <c r="AC32" s="34"/>
       <c r="AD32" s="34"/>
-      <c r="AE32" s="216"/>
-      <c r="AF32" s="217"/>
-      <c r="AG32" s="217"/>
-      <c r="AH32" s="218"/>
+      <c r="AE32" s="224"/>
+      <c r="AF32" s="225"/>
+      <c r="AG32" s="225"/>
+      <c r="AH32" s="226"/>
       <c r="AI32" s="27"/>
     </row>
     <row r="33" spans="1:50" s="1" customFormat="1" ht="1.5" customHeight="1">
@@ -16843,7 +16887,7 @@
     <row r="34" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="25"/>
       <c r="B34" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -16864,7 +16908,7 @@
         <v>32</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
@@ -16886,46 +16930,46 @@
     <row r="35" spans="1:50" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="206" t="s">
+      <c r="C35" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="223"/>
-      <c r="L35" s="223"/>
-      <c r="M35" s="224"/>
-      <c r="N35" s="207" t="s">
+      <c r="D35" s="231"/>
+      <c r="E35" s="231"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="231"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="231"/>
+      <c r="J35" s="231"/>
+      <c r="K35" s="231"/>
+      <c r="L35" s="231"/>
+      <c r="M35" s="232"/>
+      <c r="N35" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="O35" s="208"/>
-      <c r="P35" s="208"/>
-      <c r="Q35" s="209"/>
+      <c r="O35" s="216"/>
+      <c r="P35" s="216"/>
+      <c r="Q35" s="217"/>
       <c r="R35" s="26"/>
       <c r="S35" s="28"/>
-      <c r="T35" s="225" t="s">
+      <c r="T35" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="U35" s="225"/>
-      <c r="V35" s="225"/>
-      <c r="W35" s="225"/>
-      <c r="X35" s="225"/>
-      <c r="Y35" s="225"/>
+      <c r="U35" s="233"/>
+      <c r="V35" s="233"/>
+      <c r="W35" s="233"/>
+      <c r="X35" s="233"/>
+      <c r="Y35" s="233"/>
       <c r="Z35" s="29"/>
       <c r="AA35" s="29"/>
       <c r="AB35" s="29"/>
       <c r="AC35" s="29"/>
       <c r="AD35" s="29"/>
-      <c r="AE35" s="210" t="s">
+      <c r="AE35" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="AF35" s="211"/>
-      <c r="AG35" s="211"/>
-      <c r="AH35" s="212"/>
+      <c r="AF35" s="219"/>
+      <c r="AG35" s="219"/>
+      <c r="AH35" s="220"/>
       <c r="AI35" s="27"/>
     </row>
     <row r="36" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16942,10 +16986,10 @@
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="121"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="214"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="222"/>
       <c r="R36" s="26"/>
       <c r="S36" s="31"/>
       <c r="T36" s="26"/>
@@ -16959,10 +17003,10 @@
       <c r="AB36" s="26"/>
       <c r="AC36" s="26"/>
       <c r="AD36" s="26"/>
-      <c r="AE36" s="121"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="214"/>
+      <c r="AE36" s="129"/>
+      <c r="AF36" s="130"/>
+      <c r="AG36" s="130"/>
+      <c r="AH36" s="222"/>
       <c r="AI36" s="27"/>
     </row>
     <row r="37" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -16979,10 +17023,10 @@
       <c r="K37" s="26"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="130"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="215"/>
+      <c r="N37" s="138"/>
+      <c r="O37" s="134"/>
+      <c r="P37" s="134"/>
+      <c r="Q37" s="223"/>
       <c r="R37" s="26"/>
       <c r="S37" s="31"/>
       <c r="T37" s="26"/>
@@ -16996,10 +17040,10 @@
       <c r="AB37" s="26"/>
       <c r="AC37" s="26"/>
       <c r="AD37" s="26"/>
-      <c r="AE37" s="130"/>
-      <c r="AF37" s="126"/>
-      <c r="AG37" s="126"/>
-      <c r="AH37" s="215"/>
+      <c r="AE37" s="138"/>
+      <c r="AF37" s="134"/>
+      <c r="AG37" s="134"/>
+      <c r="AH37" s="223"/>
       <c r="AI37" s="27"/>
     </row>
     <row r="38" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -17016,10 +17060,10 @@
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="126"/>
-      <c r="Q38" s="215"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="223"/>
       <c r="R38" s="26"/>
       <c r="S38" s="31"/>
       <c r="T38" s="26"/>
@@ -17033,10 +17077,10 @@
       <c r="AB38" s="26"/>
       <c r="AC38" s="26"/>
       <c r="AD38" s="26"/>
-      <c r="AE38" s="130"/>
-      <c r="AF38" s="126"/>
-      <c r="AG38" s="126"/>
-      <c r="AH38" s="215"/>
+      <c r="AE38" s="138"/>
+      <c r="AF38" s="134"/>
+      <c r="AG38" s="134"/>
+      <c r="AH38" s="223"/>
       <c r="AI38" s="27"/>
     </row>
     <row r="39" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
@@ -17053,10 +17097,10 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="217"/>
-      <c r="P39" s="217"/>
-      <c r="Q39" s="218"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="225"/>
+      <c r="P39" s="225"/>
+      <c r="Q39" s="226"/>
       <c r="R39" s="26"/>
       <c r="S39" s="33"/>
       <c r="T39" s="34"/>
@@ -17070,10 +17114,10 @@
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
       <c r="AD39" s="34"/>
-      <c r="AE39" s="216"/>
-      <c r="AF39" s="217"/>
-      <c r="AG39" s="217"/>
-      <c r="AH39" s="218"/>
+      <c r="AE39" s="224"/>
+      <c r="AF39" s="225"/>
+      <c r="AG39" s="225"/>
+      <c r="AH39" s="226"/>
       <c r="AI39" s="27"/>
     </row>
     <row r="40" spans="1:50" s="1" customFormat="1" ht="3.75" customHeight="1">
@@ -17115,7 +17159,7 @@
     </row>
     <row r="41" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -17135,7 +17179,7 @@
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="34"/>
@@ -17170,9 +17214,9 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="70"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="29"/>
       <c r="S42" s="37" t="s">
@@ -17189,10 +17233,10 @@
       <c r="AB42" s="29"/>
       <c r="AC42" s="29"/>
       <c r="AD42" s="29"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70"/>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="71"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="65"/>
       <c r="AI42" s="27"/>
     </row>
     <row r="43" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
@@ -17213,23 +17257,23 @@
       <c r="K43" s="26"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="77"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="71"/>
       <c r="R43" s="26"/>
       <c r="S43" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U43" s="26"/>
       <c r="V43" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W43" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X43" s="26"/>
       <c r="Y43" s="26"/>
@@ -17238,15 +17282,15 @@
       <c r="AB43" s="26"/>
       <c r="AC43" s="26"/>
       <c r="AD43" s="26"/>
-      <c r="AE43" s="72"/>
-      <c r="AF43" s="72"/>
-      <c r="AG43" s="72"/>
-      <c r="AH43" s="73"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="67"/>
       <c r="AI43" s="27"/>
     </row>
     <row r="44" spans="1:50" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="39" t="s">
         <v>39</v>
       </c>
@@ -17260,37 +17304,37 @@
       <c r="K44" s="26"/>
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
-      <c r="N44" s="219" t="s">
+      <c r="N44" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="O44" s="220"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="221"/>
+      <c r="O44" s="228"/>
+      <c r="P44" s="228"/>
+      <c r="Q44" s="229"/>
       <c r="R44" s="26"/>
       <c r="S44" s="41"/>
       <c r="T44" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U44" s="26"/>
       <c r="V44" s="26"/>
       <c r="W44" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X44" s="26"/>
       <c r="Y44" s="26"/>
       <c r="Z44" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA44" s="26"/>
       <c r="AB44" s="26"/>
       <c r="AC44" s="26"/>
       <c r="AD44" s="26"/>
-      <c r="AE44" s="219" t="s">
+      <c r="AE44" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="AF44" s="220"/>
-      <c r="AG44" s="220"/>
-      <c r="AH44" s="222"/>
+      <c r="AF44" s="228"/>
+      <c r="AG44" s="228"/>
+      <c r="AH44" s="230"/>
       <c r="AI44" s="27"/>
       <c r="AX44" s="42"/>
     </row>
@@ -17308,13 +17352,13 @@
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
-      <c r="N45" s="226"/>
-      <c r="O45" s="227"/>
-      <c r="P45" s="227"/>
-      <c r="Q45" s="228"/>
+      <c r="N45" s="234"/>
+      <c r="O45" s="235"/>
+      <c r="P45" s="235"/>
+      <c r="Q45" s="236"/>
       <c r="R45" s="26"/>
       <c r="S45" s="41" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
@@ -17327,10 +17371,10 @@
       <c r="AB45" s="26"/>
       <c r="AC45" s="26"/>
       <c r="AD45" s="26"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="227"/>
-      <c r="AG45" s="227"/>
-      <c r="AH45" s="232"/>
+      <c r="AE45" s="234"/>
+      <c r="AF45" s="235"/>
+      <c r="AG45" s="235"/>
+      <c r="AH45" s="240"/>
       <c r="AI45" s="27"/>
       <c r="AX45" s="43"/>
     </row>
@@ -17348,10 +17392,10 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
-      <c r="N46" s="226"/>
-      <c r="O46" s="227"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="228"/>
+      <c r="N46" s="234"/>
+      <c r="O46" s="235"/>
+      <c r="P46" s="235"/>
+      <c r="Q46" s="236"/>
       <c r="R46" s="26"/>
       <c r="S46" s="44"/>
       <c r="T46" s="26"/>
@@ -17365,10 +17409,10 @@
       <c r="AB46" s="26"/>
       <c r="AC46" s="26"/>
       <c r="AD46" s="26"/>
-      <c r="AE46" s="226"/>
-      <c r="AF46" s="227"/>
-      <c r="AG46" s="227"/>
-      <c r="AH46" s="232"/>
+      <c r="AE46" s="234"/>
+      <c r="AF46" s="235"/>
+      <c r="AG46" s="235"/>
+      <c r="AH46" s="240"/>
       <c r="AI46" s="27"/>
       <c r="AX46" s="43"/>
     </row>
@@ -17386,10 +17430,10 @@
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
-      <c r="N47" s="226"/>
-      <c r="O47" s="227"/>
-      <c r="P47" s="227"/>
-      <c r="Q47" s="228"/>
+      <c r="N47" s="234"/>
+      <c r="O47" s="235"/>
+      <c r="P47" s="235"/>
+      <c r="Q47" s="236"/>
       <c r="R47" s="26"/>
       <c r="S47" s="44"/>
       <c r="T47" s="26"/>
@@ -17402,10 +17446,10 @@
       <c r="AB47" s="26"/>
       <c r="AC47" s="26"/>
       <c r="AD47" s="26"/>
-      <c r="AE47" s="226"/>
-      <c r="AF47" s="227"/>
-      <c r="AG47" s="227"/>
-      <c r="AH47" s="232"/>
+      <c r="AE47" s="234"/>
+      <c r="AF47" s="235"/>
+      <c r="AG47" s="235"/>
+      <c r="AH47" s="240"/>
       <c r="AI47" s="27"/>
       <c r="AX47" s="45"/>
     </row>
@@ -17423,10 +17467,10 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
-      <c r="N48" s="229"/>
-      <c r="O48" s="230"/>
-      <c r="P48" s="230"/>
-      <c r="Q48" s="231"/>
+      <c r="N48" s="237"/>
+      <c r="O48" s="238"/>
+      <c r="P48" s="238"/>
+      <c r="Q48" s="239"/>
       <c r="R48" s="34"/>
       <c r="S48" s="46"/>
       <c r="T48" s="34"/>
@@ -17440,10 +17484,10 @@
       <c r="AB48" s="34"/>
       <c r="AC48" s="34"/>
       <c r="AD48" s="34"/>
-      <c r="AE48" s="229"/>
-      <c r="AF48" s="230"/>
-      <c r="AG48" s="230"/>
-      <c r="AH48" s="233"/>
+      <c r="AE48" s="237"/>
+      <c r="AF48" s="238"/>
+      <c r="AG48" s="238"/>
+      <c r="AH48" s="241"/>
       <c r="AI48" s="27"/>
     </row>
     <row r="49" spans="1:56" s="1" customFormat="1" ht="2.25" customHeight="1">
@@ -17484,43 +17528,43 @@
       <c r="AI49" s="27"/>
     </row>
     <row r="50" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="65" t="s">
-        <v>61</v>
+      <c r="A50" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B50" s="26"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
-      <c r="R50" s="66"/>
-      <c r="S50" s="234" t="s">
-        <v>61</v>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="242" t="s">
+        <v>60</v>
       </c>
-      <c r="T50" s="234"/>
-      <c r="U50" s="234"/>
-      <c r="V50" s="234"/>
-      <c r="W50" s="234"/>
-      <c r="X50" s="234"/>
-      <c r="Y50" s="234"/>
-      <c r="Z50" s="234"/>
-      <c r="AA50" s="234"/>
-      <c r="AB50" s="234"/>
-      <c r="AC50" s="234"/>
-      <c r="AD50" s="234"/>
-      <c r="AE50" s="234"/>
-      <c r="AF50" s="234"/>
-      <c r="AG50" s="234"/>
+      <c r="T50" s="242"/>
+      <c r="U50" s="242"/>
+      <c r="V50" s="242"/>
+      <c r="W50" s="242"/>
+      <c r="X50" s="242"/>
+      <c r="Y50" s="242"/>
+      <c r="Z50" s="242"/>
+      <c r="AA50" s="242"/>
+      <c r="AB50" s="242"/>
+      <c r="AC50" s="242"/>
+      <c r="AD50" s="242"/>
+      <c r="AE50" s="242"/>
+      <c r="AF50" s="242"/>
+      <c r="AG50" s="242"/>
       <c r="AH50" s="26"/>
       <c r="AI50" s="27"/>
       <c r="AN50" s="26"/>
@@ -17542,36 +17586,36 @@
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
       <c r="Q51" s="36"/>
       <c r="R51" s="29"/>
-      <c r="S51" s="41" t="s">
+      <c r="S51" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
       <c r="AA51" s="29"/>
       <c r="AB51" s="29"/>
       <c r="AC51" s="29"/>
       <c r="AD51" s="29"/>
-      <c r="AE51" s="70"/>
-      <c r="AF51" s="70"/>
-      <c r="AG51" s="70"/>
-      <c r="AH51" s="71"/>
+      <c r="AE51" s="75"/>
+      <c r="AF51" s="75"/>
+      <c r="AG51" s="75"/>
+      <c r="AH51" s="76"/>
       <c r="AI51" s="27"/>
     </row>
     <row r="52" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="25"/>
       <c r="B52" s="38"/>
       <c r="C52" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -17579,7 +17623,7 @@
       <c r="G52" s="26"/>
       <c r="H52" s="40"/>
       <c r="I52" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
@@ -17588,18 +17632,18 @@
       <c r="N52" s="72"/>
       <c r="O52" s="72"/>
       <c r="P52" s="72"/>
-      <c r="Q52" s="77"/>
+      <c r="Q52" s="73"/>
       <c r="R52" s="26"/>
       <c r="S52" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T52" s="42"/>
       <c r="U52" s="42"/>
-      <c r="V52" s="49"/>
-      <c r="W52" s="50" t="s">
-        <v>44</v>
+      <c r="V52" s="42"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="42" t="s">
+        <v>43</v>
       </c>
-      <c r="X52" s="42"/>
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
       <c r="AA52" s="42"/>
@@ -17609,9 +17653,9 @@
       <c r="AE52" s="72"/>
       <c r="AF52" s="72"/>
       <c r="AG52" s="72"/>
-      <c r="AH52" s="73"/>
+      <c r="AH52" s="74"/>
       <c r="AI52" s="27"/>
-      <c r="AU52" s="51"/>
+      <c r="AU52" s="50"/>
       <c r="AV52" s="26"/>
       <c r="AW52" s="26"/>
       <c r="AX52" s="26"/>
@@ -17625,7 +17669,7 @@
     <row r="53" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -17638,35 +17682,35 @@
       <c r="K53" s="26"/>
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
-      <c r="N53" s="219" t="s">
+      <c r="N53" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="220"/>
-      <c r="P53" s="220"/>
-      <c r="Q53" s="221"/>
+      <c r="O53" s="228"/>
+      <c r="P53" s="228"/>
+      <c r="Q53" s="229"/>
       <c r="R53" s="26"/>
       <c r="S53" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T53" s="42"/>
       <c r="U53" s="42"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="48" t="s">
-        <v>46</v>
+      <c r="V53" s="42"/>
+      <c r="W53" s="49"/>
+      <c r="X53" s="42" t="s">
+        <v>45</v>
       </c>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="52"/>
+      <c r="Y53" s="51"/>
       <c r="Z53" s="42"/>
       <c r="AA53" s="42"/>
       <c r="AB53" s="42"/>
       <c r="AC53" s="42"/>
       <c r="AD53" s="42"/>
-      <c r="AE53" s="219" t="s">
+      <c r="AE53" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="AF53" s="220"/>
-      <c r="AG53" s="220"/>
-      <c r="AH53" s="222"/>
+      <c r="AF53" s="228"/>
+      <c r="AG53" s="228"/>
+      <c r="AH53" s="230"/>
       <c r="AI53" s="27"/>
       <c r="AU53" s="42"/>
       <c r="AV53" s="26"/>
@@ -17682,7 +17726,7 @@
     <row r="54" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -17695,31 +17739,31 @@
       <c r="K54" s="26"/>
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
-      <c r="N54" s="226"/>
-      <c r="O54" s="227"/>
-      <c r="P54" s="227"/>
-      <c r="Q54" s="228"/>
+      <c r="N54" s="234"/>
+      <c r="O54" s="235"/>
+      <c r="P54" s="235"/>
+      <c r="Q54" s="236"/>
       <c r="R54" s="26"/>
-      <c r="S54" s="53" t="s">
-        <v>47</v>
+      <c r="S54" s="260" t="s">
+        <v>46</v>
       </c>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="53" t="s">
-        <v>47</v>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="83"/>
+      <c r="X54" s="81" t="s">
+        <v>46</v>
       </c>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="56"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="AD54" s="54"/>
-      <c r="AE54" s="226"/>
-      <c r="AF54" s="227"/>
-      <c r="AG54" s="227"/>
-      <c r="AH54" s="232"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="234"/>
+      <c r="AF54" s="235"/>
+      <c r="AG54" s="235"/>
+      <c r="AH54" s="240"/>
       <c r="AI54" s="27"/>
       <c r="AO54" s="26"/>
       <c r="AU54" s="43"/>
@@ -17736,7 +17780,7 @@
     <row r="55" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -17749,31 +17793,31 @@
       <c r="K55" s="26"/>
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
-      <c r="N55" s="226"/>
-      <c r="O55" s="227"/>
-      <c r="P55" s="227"/>
-      <c r="Q55" s="228"/>
+      <c r="N55" s="234"/>
+      <c r="O55" s="235"/>
+      <c r="P55" s="235"/>
+      <c r="Q55" s="236"/>
       <c r="R55" s="26"/>
-      <c r="S55" s="53" t="s">
-        <v>48</v>
+      <c r="S55" s="260" t="s">
+        <v>47</v>
       </c>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="53" t="s">
-        <v>48</v>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="83"/>
+      <c r="X55" s="81" t="s">
+        <v>47</v>
       </c>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="57"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="54"/>
-      <c r="AE55" s="226"/>
-      <c r="AF55" s="227"/>
-      <c r="AG55" s="227"/>
-      <c r="AH55" s="232"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="53"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="234"/>
+      <c r="AF55" s="235"/>
+      <c r="AG55" s="235"/>
+      <c r="AH55" s="240"/>
       <c r="AI55" s="27"/>
       <c r="AU55" s="43"/>
       <c r="AV55" s="26"/>
@@ -17789,7 +17833,7 @@
     <row r="56" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -17802,31 +17846,31 @@
       <c r="K56" s="26"/>
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
-      <c r="N56" s="226"/>
-      <c r="O56" s="227"/>
-      <c r="P56" s="227"/>
-      <c r="Q56" s="228"/>
+      <c r="N56" s="234"/>
+      <c r="O56" s="235"/>
+      <c r="P56" s="235"/>
+      <c r="Q56" s="236"/>
       <c r="R56" s="26"/>
-      <c r="S56" s="58" t="s">
-        <v>49</v>
+      <c r="S56" s="55" t="s">
+        <v>48</v>
       </c>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="58" t="s">
-        <v>49</v>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="84"/>
+      <c r="X56" s="54" t="s">
+        <v>48</v>
       </c>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="57"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="54"/>
-      <c r="AE56" s="226"/>
-      <c r="AF56" s="227"/>
-      <c r="AG56" s="227"/>
-      <c r="AH56" s="232"/>
+      <c r="Y56" s="81"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="234"/>
+      <c r="AF56" s="235"/>
+      <c r="AG56" s="235"/>
+      <c r="AH56" s="240"/>
       <c r="AI56" s="27"/>
       <c r="AU56" s="45"/>
       <c r="AV56" s="26"/>
@@ -17841,39 +17885,39 @@
     </row>
     <row r="57" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="25"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="121"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="122"/>
-      <c r="Q57" s="123"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="60"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="121"/>
-      <c r="AF57" s="122"/>
-      <c r="AG57" s="122"/>
-      <c r="AH57" s="214"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="234"/>
+      <c r="O57" s="235"/>
+      <c r="P57" s="235"/>
+      <c r="Q57" s="236"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="79"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="78"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="78"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="78"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="78"/>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="78"/>
+      <c r="AE57" s="234"/>
+      <c r="AF57" s="235"/>
+      <c r="AG57" s="235"/>
+      <c r="AH57" s="240"/>
       <c r="AI57" s="27"/>
       <c r="AU57" s="45"/>
       <c r="AV57" s="26"/>
@@ -17886,41 +17930,41 @@
       <c r="BC57" s="26"/>
       <c r="BD57" s="26"/>
     </row>
-    <row r="58" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="58" spans="1:56" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A58" s="25"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="229"/>
-      <c r="O58" s="230"/>
-      <c r="P58" s="230"/>
-      <c r="Q58" s="231"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="46"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="229"/>
-      <c r="AF58" s="230"/>
-      <c r="AG58" s="230"/>
-      <c r="AH58" s="233"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="26"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="26"/>
+      <c r="Y58" s="26"/>
+      <c r="Z58" s="26"/>
+      <c r="AA58" s="26"/>
+      <c r="AB58" s="26"/>
+      <c r="AC58" s="26"/>
+      <c r="AD58" s="26"/>
+      <c r="AE58" s="26"/>
+      <c r="AF58" s="26"/>
+      <c r="AG58" s="26"/>
+      <c r="AH58" s="26"/>
       <c r="AI58" s="27"/>
       <c r="AU58" s="26"/>
       <c r="AV58" s="26"/>
@@ -17933,42 +17977,46 @@
       <c r="BC58" s="26"/>
       <c r="BD58" s="26"/>
     </row>
-    <row r="59" spans="1:56" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="27"/>
+    <row r="59" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A59" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="246"/>
+      <c r="C59" s="246"/>
+      <c r="D59" s="246"/>
+      <c r="E59" s="246"/>
+      <c r="F59" s="246"/>
+      <c r="G59" s="246"/>
+      <c r="H59" s="246"/>
+      <c r="I59" s="246"/>
+      <c r="J59" s="246"/>
+      <c r="K59" s="246"/>
+      <c r="L59" s="246"/>
+      <c r="M59" s="246"/>
+      <c r="N59" s="246"/>
+      <c r="O59" s="246"/>
+      <c r="P59" s="246"/>
+      <c r="Q59" s="246"/>
+      <c r="R59" s="246"/>
+      <c r="S59" s="246"/>
+      <c r="T59" s="246"/>
+      <c r="U59" s="246"/>
+      <c r="V59" s="246"/>
+      <c r="W59" s="246"/>
+      <c r="X59" s="246"/>
+      <c r="Y59" s="246"/>
+      <c r="Z59" s="246"/>
+      <c r="AA59" s="246"/>
+      <c r="AB59" s="246"/>
+      <c r="AC59" s="246"/>
+      <c r="AD59" s="247"/>
+      <c r="AE59" s="249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF59" s="250"/>
+      <c r="AG59" s="250"/>
+      <c r="AH59" s="250"/>
+      <c r="AI59" s="251"/>
       <c r="AU59" s="26"/>
       <c r="AV59" s="26"/>
       <c r="AW59" s="26"/>
@@ -17981,45 +18029,41 @@
       <c r="BD59" s="26"/>
     </row>
     <row r="60" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A60" s="237" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="238"/>
-      <c r="C60" s="238"/>
-      <c r="D60" s="238"/>
-      <c r="E60" s="238"/>
-      <c r="F60" s="238"/>
-      <c r="G60" s="238"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="238"/>
-      <c r="J60" s="238"/>
-      <c r="K60" s="238"/>
-      <c r="L60" s="238"/>
-      <c r="M60" s="238"/>
-      <c r="N60" s="238"/>
-      <c r="O60" s="238"/>
-      <c r="P60" s="238"/>
-      <c r="Q60" s="238"/>
-      <c r="R60" s="238"/>
-      <c r="S60" s="238"/>
-      <c r="T60" s="238"/>
-      <c r="U60" s="238"/>
-      <c r="V60" s="238"/>
-      <c r="W60" s="238"/>
-      <c r="X60" s="238"/>
-      <c r="Y60" s="238"/>
-      <c r="Z60" s="238"/>
-      <c r="AA60" s="238"/>
-      <c r="AB60" s="238"/>
-      <c r="AC60" s="238"/>
-      <c r="AD60" s="239"/>
-      <c r="AE60" s="241" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF60" s="242"/>
-      <c r="AG60" s="242"/>
-      <c r="AH60" s="242"/>
-      <c r="AI60" s="243"/>
+      <c r="A60" s="248"/>
+      <c r="B60" s="225"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="225"/>
+      <c r="E60" s="225"/>
+      <c r="F60" s="225"/>
+      <c r="G60" s="225"/>
+      <c r="H60" s="225"/>
+      <c r="I60" s="225"/>
+      <c r="J60" s="225"/>
+      <c r="K60" s="225"/>
+      <c r="L60" s="225"/>
+      <c r="M60" s="225"/>
+      <c r="N60" s="225"/>
+      <c r="O60" s="225"/>
+      <c r="P60" s="225"/>
+      <c r="Q60" s="225"/>
+      <c r="R60" s="225"/>
+      <c r="S60" s="225"/>
+      <c r="T60" s="225"/>
+      <c r="U60" s="225"/>
+      <c r="V60" s="225"/>
+      <c r="W60" s="225"/>
+      <c r="X60" s="225"/>
+      <c r="Y60" s="225"/>
+      <c r="Z60" s="225"/>
+      <c r="AA60" s="225"/>
+      <c r="AB60" s="225"/>
+      <c r="AC60" s="225"/>
+      <c r="AD60" s="226"/>
+      <c r="AE60" s="250"/>
+      <c r="AF60" s="250"/>
+      <c r="AG60" s="250"/>
+      <c r="AH60" s="250"/>
+      <c r="AI60" s="251"/>
       <c r="AU60" s="26"/>
       <c r="AV60" s="26"/>
       <c r="AW60" s="26"/>
@@ -18032,41 +18076,41 @@
       <c r="BD60" s="26"/>
     </row>
     <row r="61" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="240"/>
-      <c r="B61" s="217"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="217"/>
-      <c r="E61" s="217"/>
-      <c r="F61" s="217"/>
-      <c r="G61" s="217"/>
-      <c r="H61" s="217"/>
-      <c r="I61" s="217"/>
-      <c r="J61" s="217"/>
-      <c r="K61" s="217"/>
-      <c r="L61" s="217"/>
-      <c r="M61" s="217"/>
-      <c r="N61" s="217"/>
-      <c r="O61" s="217"/>
-      <c r="P61" s="217"/>
-      <c r="Q61" s="217"/>
-      <c r="R61" s="217"/>
-      <c r="S61" s="217"/>
-      <c r="T61" s="217"/>
-      <c r="U61" s="217"/>
-      <c r="V61" s="217"/>
-      <c r="W61" s="217"/>
-      <c r="X61" s="217"/>
-      <c r="Y61" s="217"/>
-      <c r="Z61" s="217"/>
-      <c r="AA61" s="217"/>
-      <c r="AB61" s="217"/>
-      <c r="AC61" s="217"/>
-      <c r="AD61" s="218"/>
-      <c r="AE61" s="242"/>
-      <c r="AF61" s="242"/>
-      <c r="AG61" s="242"/>
-      <c r="AH61" s="242"/>
-      <c r="AI61" s="243"/>
+      <c r="A61" s="245"/>
+      <c r="B61" s="246"/>
+      <c r="C61" s="246"/>
+      <c r="D61" s="246"/>
+      <c r="E61" s="246"/>
+      <c r="F61" s="246"/>
+      <c r="G61" s="246"/>
+      <c r="H61" s="246"/>
+      <c r="I61" s="246"/>
+      <c r="J61" s="246"/>
+      <c r="K61" s="246"/>
+      <c r="L61" s="246"/>
+      <c r="M61" s="246"/>
+      <c r="N61" s="246"/>
+      <c r="O61" s="246"/>
+      <c r="P61" s="246"/>
+      <c r="Q61" s="246"/>
+      <c r="R61" s="246"/>
+      <c r="S61" s="246"/>
+      <c r="T61" s="246"/>
+      <c r="U61" s="246"/>
+      <c r="V61" s="246"/>
+      <c r="W61" s="246"/>
+      <c r="X61" s="246"/>
+      <c r="Y61" s="246"/>
+      <c r="Z61" s="246"/>
+      <c r="AA61" s="246"/>
+      <c r="AB61" s="246"/>
+      <c r="AC61" s="246"/>
+      <c r="AD61" s="247"/>
+      <c r="AE61" s="256"/>
+      <c r="AF61" s="256"/>
+      <c r="AG61" s="256"/>
+      <c r="AH61" s="256"/>
+      <c r="AI61" s="257"/>
       <c r="AU61" s="26"/>
       <c r="AV61" s="26"/>
       <c r="AW61" s="26"/>
@@ -18079,41 +18123,41 @@
       <c r="BD61" s="26"/>
     </row>
     <row r="62" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A62" s="237"/>
-      <c r="B62" s="238"/>
-      <c r="C62" s="238"/>
-      <c r="D62" s="238"/>
-      <c r="E62" s="238"/>
-      <c r="F62" s="238"/>
-      <c r="G62" s="238"/>
-      <c r="H62" s="238"/>
-      <c r="I62" s="238"/>
-      <c r="J62" s="238"/>
-      <c r="K62" s="238"/>
-      <c r="L62" s="238"/>
-      <c r="M62" s="238"/>
-      <c r="N62" s="238"/>
-      <c r="O62" s="238"/>
-      <c r="P62" s="238"/>
-      <c r="Q62" s="238"/>
-      <c r="R62" s="238"/>
-      <c r="S62" s="238"/>
-      <c r="T62" s="238"/>
-      <c r="U62" s="238"/>
-      <c r="V62" s="238"/>
-      <c r="W62" s="238"/>
-      <c r="X62" s="238"/>
-      <c r="Y62" s="238"/>
-      <c r="Z62" s="238"/>
-      <c r="AA62" s="238"/>
-      <c r="AB62" s="238"/>
-      <c r="AC62" s="238"/>
-      <c r="AD62" s="239"/>
-      <c r="AE62" s="248"/>
-      <c r="AF62" s="248"/>
-      <c r="AG62" s="248"/>
-      <c r="AH62" s="248"/>
-      <c r="AI62" s="249"/>
+      <c r="A62" s="252"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="134"/>
+      <c r="V62" s="134"/>
+      <c r="W62" s="134"/>
+      <c r="X62" s="134"/>
+      <c r="Y62" s="134"/>
+      <c r="Z62" s="134"/>
+      <c r="AA62" s="134"/>
+      <c r="AB62" s="134"/>
+      <c r="AC62" s="134"/>
+      <c r="AD62" s="223"/>
+      <c r="AE62" s="256"/>
+      <c r="AF62" s="256"/>
+      <c r="AG62" s="256"/>
+      <c r="AH62" s="256"/>
+      <c r="AI62" s="257"/>
       <c r="AU62" s="26"/>
       <c r="AV62" s="26"/>
       <c r="AW62" s="26"/>
@@ -18126,41 +18170,41 @@
       <c r="BD62" s="26"/>
     </row>
     <row r="63" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A63" s="244"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
-      <c r="M63" s="126"/>
-      <c r="N63" s="126"/>
-      <c r="O63" s="126"/>
-      <c r="P63" s="126"/>
-      <c r="Q63" s="126"/>
-      <c r="R63" s="126"/>
-      <c r="S63" s="126"/>
-      <c r="T63" s="126"/>
-      <c r="U63" s="126"/>
-      <c r="V63" s="126"/>
-      <c r="W63" s="126"/>
-      <c r="X63" s="126"/>
-      <c r="Y63" s="126"/>
-      <c r="Z63" s="126"/>
-      <c r="AA63" s="126"/>
-      <c r="AB63" s="126"/>
-      <c r="AC63" s="126"/>
-      <c r="AD63" s="215"/>
-      <c r="AE63" s="248"/>
-      <c r="AF63" s="248"/>
-      <c r="AG63" s="248"/>
-      <c r="AH63" s="248"/>
-      <c r="AI63" s="249"/>
+      <c r="A63" s="252"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="134"/>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="134"/>
+      <c r="R63" s="134"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="134"/>
+      <c r="U63" s="134"/>
+      <c r="V63" s="134"/>
+      <c r="W63" s="134"/>
+      <c r="X63" s="134"/>
+      <c r="Y63" s="134"/>
+      <c r="Z63" s="134"/>
+      <c r="AA63" s="134"/>
+      <c r="AB63" s="134"/>
+      <c r="AC63" s="134"/>
+      <c r="AD63" s="223"/>
+      <c r="AE63" s="256"/>
+      <c r="AF63" s="256"/>
+      <c r="AG63" s="256"/>
+      <c r="AH63" s="256"/>
+      <c r="AI63" s="257"/>
       <c r="AU63" s="26"/>
       <c r="AV63" s="26"/>
       <c r="AW63" s="26"/>
@@ -18173,41 +18217,41 @@
       <c r="BD63" s="26"/>
     </row>
     <row r="64" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="244"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="126"/>
-      <c r="M64" s="126"/>
-      <c r="N64" s="126"/>
-      <c r="O64" s="126"/>
-      <c r="P64" s="126"/>
-      <c r="Q64" s="126"/>
-      <c r="R64" s="126"/>
-      <c r="S64" s="126"/>
-      <c r="T64" s="126"/>
-      <c r="U64" s="126"/>
-      <c r="V64" s="126"/>
-      <c r="W64" s="126"/>
-      <c r="X64" s="126"/>
-      <c r="Y64" s="126"/>
-      <c r="Z64" s="126"/>
-      <c r="AA64" s="126"/>
-      <c r="AB64" s="126"/>
-      <c r="AC64" s="126"/>
-      <c r="AD64" s="215"/>
-      <c r="AE64" s="248"/>
-      <c r="AF64" s="248"/>
-      <c r="AG64" s="248"/>
-      <c r="AH64" s="248"/>
-      <c r="AI64" s="249"/>
+      <c r="A64" s="253"/>
+      <c r="B64" s="254"/>
+      <c r="C64" s="254"/>
+      <c r="D64" s="254"/>
+      <c r="E64" s="254"/>
+      <c r="F64" s="254"/>
+      <c r="G64" s="254"/>
+      <c r="H64" s="254"/>
+      <c r="I64" s="254"/>
+      <c r="J64" s="254"/>
+      <c r="K64" s="254"/>
+      <c r="L64" s="254"/>
+      <c r="M64" s="254"/>
+      <c r="N64" s="254"/>
+      <c r="O64" s="254"/>
+      <c r="P64" s="254"/>
+      <c r="Q64" s="254"/>
+      <c r="R64" s="254"/>
+      <c r="S64" s="254"/>
+      <c r="T64" s="254"/>
+      <c r="U64" s="254"/>
+      <c r="V64" s="254"/>
+      <c r="W64" s="254"/>
+      <c r="X64" s="254"/>
+      <c r="Y64" s="254"/>
+      <c r="Z64" s="254"/>
+      <c r="AA64" s="254"/>
+      <c r="AB64" s="254"/>
+      <c r="AC64" s="254"/>
+      <c r="AD64" s="255"/>
+      <c r="AE64" s="258"/>
+      <c r="AF64" s="258"/>
+      <c r="AG64" s="258"/>
+      <c r="AH64" s="258"/>
+      <c r="AI64" s="259"/>
       <c r="AU64" s="26"/>
       <c r="AV64" s="26"/>
       <c r="AW64" s="26"/>
@@ -18219,42 +18263,44 @@
       <c r="BC64" s="26"/>
       <c r="BD64" s="26"/>
     </row>
-    <row r="65" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="245"/>
-      <c r="B65" s="246"/>
-      <c r="C65" s="246"/>
-      <c r="D65" s="246"/>
-      <c r="E65" s="246"/>
-      <c r="F65" s="246"/>
-      <c r="G65" s="246"/>
-      <c r="H65" s="246"/>
-      <c r="I65" s="246"/>
-      <c r="J65" s="246"/>
-      <c r="K65" s="246"/>
-      <c r="L65" s="246"/>
-      <c r="M65" s="246"/>
-      <c r="N65" s="246"/>
-      <c r="O65" s="246"/>
-      <c r="P65" s="246"/>
-      <c r="Q65" s="246"/>
-      <c r="R65" s="246"/>
-      <c r="S65" s="246"/>
-      <c r="T65" s="246"/>
-      <c r="U65" s="246"/>
-      <c r="V65" s="246"/>
-      <c r="W65" s="246"/>
-      <c r="X65" s="246"/>
-      <c r="Y65" s="246"/>
-      <c r="Z65" s="246"/>
-      <c r="AA65" s="246"/>
-      <c r="AB65" s="246"/>
-      <c r="AC65" s="246"/>
-      <c r="AD65" s="247"/>
-      <c r="AE65" s="250"/>
-      <c r="AF65" s="250"/>
-      <c r="AG65" s="250"/>
-      <c r="AH65" s="250"/>
-      <c r="AI65" s="251"/>
+    <row r="65" spans="1:56" s="1" customFormat="1" ht="23.45" customHeight="1" thickTop="1">
+      <c r="A65" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="243"/>
+      <c r="C65" s="243"/>
+      <c r="D65" s="243"/>
+      <c r="E65" s="243"/>
+      <c r="F65" s="243"/>
+      <c r="G65" s="243"/>
+      <c r="H65" s="243"/>
+      <c r="I65" s="243"/>
+      <c r="J65" s="243"/>
+      <c r="K65" s="243"/>
+      <c r="L65" s="243"/>
+      <c r="M65" s="243"/>
+      <c r="N65" s="243"/>
+      <c r="O65" s="243"/>
+      <c r="P65" s="243"/>
+      <c r="Q65" s="243"/>
+      <c r="R65" s="243"/>
+      <c r="S65" s="243"/>
+      <c r="T65" s="243"/>
+      <c r="U65" s="243"/>
+      <c r="V65" s="243"/>
+      <c r="W65" s="243"/>
+      <c r="X65" s="243"/>
+      <c r="Y65" s="243"/>
+      <c r="Z65" s="243"/>
+      <c r="AA65" s="243"/>
+      <c r="AB65" s="243"/>
+      <c r="AC65" s="243"/>
+      <c r="AD65" s="243"/>
+      <c r="AE65" s="243"/>
+      <c r="AF65" s="243"/>
+      <c r="AG65" s="243"/>
+      <c r="AH65" s="243"/>
+      <c r="AI65" s="243"/>
       <c r="AU65" s="26"/>
       <c r="AV65" s="26"/>
       <c r="AW65" s="26"/>
@@ -18266,44 +18312,42 @@
       <c r="BC65" s="26"/>
       <c r="BD65" s="26"/>
     </row>
-    <row r="66" spans="1:56" s="1" customFormat="1" ht="23.45" customHeight="1" thickTop="1">
-      <c r="A66" s="235" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="235"/>
-      <c r="C66" s="235"/>
-      <c r="D66" s="235"/>
-      <c r="E66" s="235"/>
-      <c r="F66" s="235"/>
-      <c r="G66" s="235"/>
-      <c r="H66" s="235"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="235"/>
-      <c r="K66" s="235"/>
-      <c r="L66" s="235"/>
-      <c r="M66" s="235"/>
-      <c r="N66" s="235"/>
-      <c r="O66" s="235"/>
-      <c r="P66" s="235"/>
-      <c r="Q66" s="235"/>
-      <c r="R66" s="235"/>
-      <c r="S66" s="235"/>
-      <c r="T66" s="235"/>
-      <c r="U66" s="235"/>
-      <c r="V66" s="235"/>
-      <c r="W66" s="235"/>
-      <c r="X66" s="235"/>
-      <c r="Y66" s="235"/>
-      <c r="Z66" s="235"/>
-      <c r="AA66" s="235"/>
-      <c r="AB66" s="235"/>
-      <c r="AC66" s="235"/>
-      <c r="AD66" s="235"/>
-      <c r="AE66" s="235"/>
-      <c r="AF66" s="235"/>
-      <c r="AG66" s="235"/>
-      <c r="AH66" s="235"/>
-      <c r="AI66" s="235"/>
+    <row r="66" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A66" s="244"/>
+      <c r="B66" s="244"/>
+      <c r="C66" s="244"/>
+      <c r="D66" s="244"/>
+      <c r="E66" s="244"/>
+      <c r="F66" s="244"/>
+      <c r="G66" s="244"/>
+      <c r="H66" s="244"/>
+      <c r="I66" s="244"/>
+      <c r="J66" s="244"/>
+      <c r="K66" s="244"/>
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244"/>
+      <c r="P66" s="244"/>
+      <c r="Q66" s="244"/>
+      <c r="R66" s="244"/>
+      <c r="S66" s="244"/>
+      <c r="T66" s="244"/>
+      <c r="U66" s="244"/>
+      <c r="V66" s="244"/>
+      <c r="W66" s="244"/>
+      <c r="X66" s="244"/>
+      <c r="Y66" s="244"/>
+      <c r="Z66" s="244"/>
+      <c r="AA66" s="244"/>
+      <c r="AB66" s="244"/>
+      <c r="AC66" s="244"/>
+      <c r="AD66" s="244"/>
+      <c r="AE66" s="244"/>
+      <c r="AF66" s="244"/>
+      <c r="AG66" s="244"/>
+      <c r="AH66" s="244"/>
+      <c r="AI66" s="244"/>
       <c r="AU66" s="26"/>
       <c r="AV66" s="26"/>
       <c r="AW66" s="26"/>
@@ -18315,115 +18359,68 @@
       <c r="BC66" s="26"/>
       <c r="BD66" s="26"/>
     </row>
-    <row r="67" spans="1:56" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A67" s="236"/>
-      <c r="B67" s="236"/>
-      <c r="C67" s="236"/>
-      <c r="D67" s="236"/>
-      <c r="E67" s="236"/>
-      <c r="F67" s="236"/>
-      <c r="G67" s="236"/>
-      <c r="H67" s="236"/>
-      <c r="I67" s="236"/>
-      <c r="J67" s="236"/>
-      <c r="K67" s="236"/>
-      <c r="L67" s="236"/>
-      <c r="M67" s="236"/>
-      <c r="N67" s="236"/>
-      <c r="O67" s="236"/>
-      <c r="P67" s="236"/>
-      <c r="Q67" s="236"/>
-      <c r="R67" s="236"/>
-      <c r="S67" s="236"/>
-      <c r="T67" s="236"/>
-      <c r="U67" s="236"/>
-      <c r="V67" s="236"/>
-      <c r="W67" s="236"/>
-      <c r="X67" s="236"/>
-      <c r="Y67" s="236"/>
-      <c r="Z67" s="236"/>
-      <c r="AA67" s="236"/>
-      <c r="AB67" s="236"/>
-      <c r="AC67" s="236"/>
-      <c r="AD67" s="236"/>
-      <c r="AE67" s="236"/>
-      <c r="AF67" s="236"/>
-      <c r="AG67" s="236"/>
-      <c r="AH67" s="236"/>
-      <c r="AI67" s="236"/>
-      <c r="AU67" s="26"/>
-      <c r="AV67" s="26"/>
-      <c r="AW67" s="26"/>
-      <c r="AX67" s="26"/>
-      <c r="AY67" s="26"/>
-      <c r="AZ67" s="26"/>
-      <c r="BA67" s="26"/>
-      <c r="BB67" s="26"/>
-      <c r="BC67" s="26"/>
-      <c r="BD67" s="26"/>
+    <row r="67" spans="1:56">
+      <c r="AU67" s="62"/>
+      <c r="AV67" s="62"/>
+      <c r="AW67" s="62"/>
+      <c r="AX67" s="62"/>
+      <c r="AY67" s="62"/>
+      <c r="AZ67" s="62"/>
+      <c r="BA67" s="62"/>
+      <c r="BB67" s="62"/>
+      <c r="BC67" s="62"/>
+      <c r="BD67" s="62"/>
     </row>
     <row r="68" spans="1:56">
-      <c r="AU68" s="68"/>
-      <c r="AV68" s="68"/>
-      <c r="AW68" s="68"/>
-      <c r="AX68" s="68"/>
-      <c r="AY68" s="68"/>
-      <c r="AZ68" s="68"/>
-      <c r="BA68" s="68"/>
-      <c r="BB68" s="68"/>
-      <c r="BC68" s="68"/>
-      <c r="BD68" s="68"/>
+      <c r="AU68" s="62"/>
+      <c r="AV68" s="62"/>
+      <c r="AW68" s="62"/>
+      <c r="AX68" s="62"/>
+      <c r="AY68" s="62"/>
+      <c r="AZ68" s="62"/>
+      <c r="BA68" s="62"/>
+      <c r="BB68" s="62"/>
+      <c r="BC68" s="62"/>
+      <c r="BD68" s="62"/>
     </row>
     <row r="69" spans="1:56">
-      <c r="AU69" s="68"/>
-      <c r="AV69" s="68"/>
-      <c r="AW69" s="68"/>
-      <c r="AX69" s="68"/>
-      <c r="AY69" s="68"/>
-      <c r="AZ69" s="68"/>
-      <c r="BA69" s="68"/>
-      <c r="BB69" s="68"/>
-      <c r="BC69" s="68"/>
-      <c r="BD69" s="68"/>
+      <c r="AU69" s="62"/>
+      <c r="AV69" s="62"/>
+      <c r="AW69" s="62"/>
+      <c r="AX69" s="62"/>
+      <c r="AY69" s="62"/>
+      <c r="AZ69" s="62"/>
+      <c r="BA69" s="62"/>
+      <c r="BB69" s="62"/>
+      <c r="BC69" s="62"/>
+      <c r="BD69" s="62"/>
     </row>
     <row r="70" spans="1:56">
-      <c r="AU70" s="68"/>
-      <c r="AV70" s="68"/>
-      <c r="AW70" s="68"/>
-      <c r="AX70" s="68"/>
-      <c r="AY70" s="68"/>
-      <c r="AZ70" s="68"/>
-      <c r="BA70" s="68"/>
-      <c r="BB70" s="68"/>
-      <c r="BC70" s="68"/>
-      <c r="BD70" s="68"/>
+      <c r="AU70" s="62"/>
+      <c r="AV70" s="62"/>
+      <c r="AW70" s="62"/>
+      <c r="AX70" s="62"/>
+      <c r="AY70" s="62"/>
+      <c r="AZ70" s="62"/>
+      <c r="BA70" s="62"/>
+      <c r="BB70" s="62"/>
+      <c r="BC70" s="62"/>
+      <c r="BD70" s="62"/>
     </row>
-    <row r="71" spans="1:56">
-      <c r="AU71" s="68"/>
-      <c r="AV71" s="68"/>
-      <c r="AW71" s="68"/>
-      <c r="AX71" s="68"/>
-      <c r="AY71" s="68"/>
-      <c r="AZ71" s="68"/>
-      <c r="BA71" s="68"/>
-      <c r="BB71" s="68"/>
-      <c r="BC71" s="68"/>
-      <c r="BD71" s="68"/>
-    </row>
-    <row r="72" spans="1:56" ht="409.5">
-      <c r="S72" s="69" t="s">
-        <v>63</v>
+    <row r="71" spans="1:56" ht="409.5">
+      <c r="S71" s="63" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A66:AI67"/>
-    <mergeCell ref="N54:Q58"/>
-    <mergeCell ref="AE54:AH58"/>
-    <mergeCell ref="A60:AD61"/>
-    <mergeCell ref="AE60:AI61"/>
-    <mergeCell ref="A62:AD65"/>
-    <mergeCell ref="AE62:AI65"/>
+    <mergeCell ref="A65:AI66"/>
+    <mergeCell ref="N54:Q57"/>
+    <mergeCell ref="AE54:AH57"/>
+    <mergeCell ref="A59:AD60"/>
+    <mergeCell ref="AE59:AI60"/>
+    <mergeCell ref="A61:AD64"/>
+    <mergeCell ref="AE61:AI64"/>
     <mergeCell ref="N53:Q53"/>
     <mergeCell ref="AE53:AH53"/>
     <mergeCell ref="C35:M35"/>
@@ -18487,12 +18484,12 @@
     <mergeCell ref="AA10:AD11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18 WVI983058 WLM983058 WBQ983058 VRU983058 VHY983058 UYC983058 UOG983058 UEK983058 TUO983058 TKS983058 TAW983058 SRA983058 SHE983058 RXI983058 RNM983058 RDQ983058 QTU983058 QJY983058 QAC983058 PQG983058 PGK983058 OWO983058 OMS983058 OCW983058 NTA983058 NJE983058 MZI983058 MPM983058 MFQ983058 LVU983058 LLY983058 LCC983058 KSG983058 KIK983058 JYO983058 JOS983058 JEW983058 IVA983058 ILE983058 IBI983058 HRM983058 HHQ983058 GXU983058 GNY983058 GEC983058 FUG983058 FKK983058 FAO983058 EQS983058 EGW983058 DXA983058 DNE983058 DDI983058 CTM983058 CJQ983058 BZU983058 BPY983058 BGC983058 AWG983058 AMK983058 ACO983058 SS983058 IW983058 A983058 WVI917522 WLM917522 WBQ917522 VRU917522 VHY917522 UYC917522 UOG917522 UEK917522 TUO917522 TKS917522 TAW917522 SRA917522 SHE917522 RXI917522 RNM917522 RDQ917522 QTU917522 QJY917522 QAC917522 PQG917522 PGK917522 OWO917522 OMS917522 OCW917522 NTA917522 NJE917522 MZI917522 MPM917522 MFQ917522 LVU917522 LLY917522 LCC917522 KSG917522 KIK917522 JYO917522 JOS917522 JEW917522 IVA917522 ILE917522 IBI917522 HRM917522 HHQ917522 GXU917522 GNY917522 GEC917522 FUG917522 FKK917522 FAO917522 EQS917522 EGW917522 DXA917522 DNE917522 DDI917522 CTM917522 CJQ917522 BZU917522 BPY917522 BGC917522 AWG917522 AMK917522 ACO917522 SS917522 IW917522 A917522 WVI851986 WLM851986 WBQ851986 VRU851986 VHY851986 UYC851986 UOG851986 UEK851986 TUO851986 TKS851986 TAW851986 SRA851986 SHE851986 RXI851986 RNM851986 RDQ851986 QTU851986 QJY851986 QAC851986 PQG851986 PGK851986 OWO851986 OMS851986 OCW851986 NTA851986 NJE851986 MZI851986 MPM851986 MFQ851986 LVU851986 LLY851986 LCC851986 KSG851986 KIK851986 JYO851986 JOS851986 JEW851986 IVA851986 ILE851986 IBI851986 HRM851986 HHQ851986 GXU851986 GNY851986 GEC851986 FUG851986 FKK851986 FAO851986 EQS851986 EGW851986 DXA851986 DNE851986 DDI851986 CTM851986 CJQ851986 BZU851986 BPY851986 BGC851986 AWG851986 AMK851986 ACO851986 SS851986 IW851986 A851986 WVI786450 WLM786450 WBQ786450 VRU786450 VHY786450 UYC786450 UOG786450 UEK786450 TUO786450 TKS786450 TAW786450 SRA786450 SHE786450 RXI786450 RNM786450 RDQ786450 QTU786450 QJY786450 QAC786450 PQG786450 PGK786450 OWO786450 OMS786450 OCW786450 NTA786450 NJE786450 MZI786450 MPM786450 MFQ786450 LVU786450 LLY786450 LCC786450 KSG786450 KIK786450 JYO786450 JOS786450 JEW786450 IVA786450 ILE786450 IBI786450 HRM786450 HHQ786450 GXU786450 GNY786450 GEC786450 FUG786450 FKK786450 FAO786450 EQS786450 EGW786450 DXA786450 DNE786450 DDI786450 CTM786450 CJQ786450 BZU786450 BPY786450 BGC786450 AWG786450 AMK786450 ACO786450 SS786450 IW786450 A786450 WVI720914 WLM720914 WBQ720914 VRU720914 VHY720914 UYC720914 UOG720914 UEK720914 TUO720914 TKS720914 TAW720914 SRA720914 SHE720914 RXI720914 RNM720914 RDQ720914 QTU720914 QJY720914 QAC720914 PQG720914 PGK720914 OWO720914 OMS720914 OCW720914 NTA720914 NJE720914 MZI720914 MPM720914 MFQ720914 LVU720914 LLY720914 LCC720914 KSG720914 KIK720914 JYO720914 JOS720914 JEW720914 IVA720914 ILE720914 IBI720914 HRM720914 HHQ720914 GXU720914 GNY720914 GEC720914 FUG720914 FKK720914 FAO720914 EQS720914 EGW720914 DXA720914 DNE720914 DDI720914 CTM720914 CJQ720914 BZU720914 BPY720914 BGC720914 AWG720914 AMK720914 ACO720914 SS720914 IW720914 A720914 WVI655378 WLM655378 WBQ655378 VRU655378 VHY655378 UYC655378 UOG655378 UEK655378 TUO655378 TKS655378 TAW655378 SRA655378 SHE655378 RXI655378 RNM655378 RDQ655378 QTU655378 QJY655378 QAC655378 PQG655378 PGK655378 OWO655378 OMS655378 OCW655378 NTA655378 NJE655378 MZI655378 MPM655378 MFQ655378 LVU655378 LLY655378 LCC655378 KSG655378 KIK655378 JYO655378 JOS655378 JEW655378 IVA655378 ILE655378 IBI655378 HRM655378 HHQ655378 GXU655378 GNY655378 GEC655378 FUG655378 FKK655378 FAO655378 EQS655378 EGW655378 DXA655378 DNE655378 DDI655378 CTM655378 CJQ655378 BZU655378 BPY655378 BGC655378 AWG655378 AMK655378 ACO655378 SS655378 IW655378 A655378 WVI589842 WLM589842 WBQ589842 VRU589842 VHY589842 UYC589842 UOG589842 UEK589842 TUO589842 TKS589842 TAW589842 SRA589842 SHE589842 RXI589842 RNM589842 RDQ589842 QTU589842 QJY589842 QAC589842 PQG589842 PGK589842 OWO589842 OMS589842 OCW589842 NTA589842 NJE589842 MZI589842 MPM589842 MFQ589842 LVU589842 LLY589842 LCC589842 KSG589842 KIK589842 JYO589842 JOS589842 JEW589842 IVA589842 ILE589842 IBI589842 HRM589842 HHQ589842 GXU589842 GNY589842 GEC589842 FUG589842 FKK589842 FAO589842 EQS589842 EGW589842 DXA589842 DNE589842 DDI589842 CTM589842 CJQ589842 BZU589842 BPY589842 BGC589842 AWG589842 AMK589842 ACO589842 SS589842 IW589842 A589842 WVI524306 WLM524306 WBQ524306 VRU524306 VHY524306 UYC524306 UOG524306 UEK524306 TUO524306 TKS524306 TAW524306 SRA524306 SHE524306 RXI524306 RNM524306 RDQ524306 QTU524306 QJY524306 QAC524306 PQG524306 PGK524306 OWO524306 OMS524306 OCW524306 NTA524306 NJE524306 MZI524306 MPM524306 MFQ524306 LVU524306 LLY524306 LCC524306 KSG524306 KIK524306 JYO524306 JOS524306 JEW524306 IVA524306 ILE524306 IBI524306 HRM524306 HHQ524306 GXU524306 GNY524306 GEC524306 FUG524306 FKK524306 FAO524306 EQS524306 EGW524306 DXA524306 DNE524306 DDI524306 CTM524306 CJQ524306 BZU524306 BPY524306 BGC524306 AWG524306 AMK524306 ACO524306 SS524306 IW524306 A524306 WVI458770 WLM458770 WBQ458770 VRU458770 VHY458770 UYC458770 UOG458770 UEK458770 TUO458770 TKS458770 TAW458770 SRA458770 SHE458770 RXI458770 RNM458770 RDQ458770 QTU458770 QJY458770 QAC458770 PQG458770 PGK458770 OWO458770 OMS458770 OCW458770 NTA458770 NJE458770 MZI458770 MPM458770 MFQ458770 LVU458770 LLY458770 LCC458770 KSG458770 KIK458770 JYO458770 JOS458770 JEW458770 IVA458770 ILE458770 IBI458770 HRM458770 HHQ458770 GXU458770 GNY458770 GEC458770 FUG458770 FKK458770 FAO458770 EQS458770 EGW458770 DXA458770 DNE458770 DDI458770 CTM458770 CJQ458770 BZU458770 BPY458770 BGC458770 AWG458770 AMK458770 ACO458770 SS458770 IW458770 A458770 WVI393234 WLM393234 WBQ393234 VRU393234 VHY393234 UYC393234 UOG393234 UEK393234 TUO393234 TKS393234 TAW393234 SRA393234 SHE393234 RXI393234 RNM393234 RDQ393234 QTU393234 QJY393234 QAC393234 PQG393234 PGK393234 OWO393234 OMS393234 OCW393234 NTA393234 NJE393234 MZI393234 MPM393234 MFQ393234 LVU393234 LLY393234 LCC393234 KSG393234 KIK393234 JYO393234 JOS393234 JEW393234 IVA393234 ILE393234 IBI393234 HRM393234 HHQ393234 GXU393234 GNY393234 GEC393234 FUG393234 FKK393234 FAO393234 EQS393234 EGW393234 DXA393234 DNE393234 DDI393234 CTM393234 CJQ393234 BZU393234 BPY393234 BGC393234 AWG393234 AMK393234 ACO393234 SS393234 IW393234 A393234 WVI327698 WLM327698 WBQ327698 VRU327698 VHY327698 UYC327698 UOG327698 UEK327698 TUO327698 TKS327698 TAW327698 SRA327698 SHE327698 RXI327698 RNM327698 RDQ327698 QTU327698 QJY327698 QAC327698 PQG327698 PGK327698 OWO327698 OMS327698 OCW327698 NTA327698 NJE327698 MZI327698 MPM327698 MFQ327698 LVU327698 LLY327698 LCC327698 KSG327698 KIK327698 JYO327698 JOS327698 JEW327698 IVA327698 ILE327698 IBI327698 HRM327698 HHQ327698 GXU327698 GNY327698 GEC327698 FUG327698 FKK327698 FAO327698 EQS327698 EGW327698 DXA327698 DNE327698 DDI327698 CTM327698 CJQ327698 BZU327698 BPY327698 BGC327698 AWG327698 AMK327698 ACO327698 SS327698 IW327698 A327698 WVI262162 WLM262162 WBQ262162 VRU262162 VHY262162 UYC262162 UOG262162 UEK262162 TUO262162 TKS262162 TAW262162 SRA262162 SHE262162 RXI262162 RNM262162 RDQ262162 QTU262162 QJY262162 QAC262162 PQG262162 PGK262162 OWO262162 OMS262162 OCW262162 NTA262162 NJE262162 MZI262162 MPM262162 MFQ262162 LVU262162 LLY262162 LCC262162 KSG262162 KIK262162 JYO262162 JOS262162 JEW262162 IVA262162 ILE262162 IBI262162 HRM262162 HHQ262162 GXU262162 GNY262162 GEC262162 FUG262162 FKK262162 FAO262162 EQS262162 EGW262162 DXA262162 DNE262162 DDI262162 CTM262162 CJQ262162 BZU262162 BPY262162 BGC262162 AWG262162 AMK262162 ACO262162 SS262162 IW262162 A262162 WVI196626 WLM196626 WBQ196626 VRU196626 VHY196626 UYC196626 UOG196626 UEK196626 TUO196626 TKS196626 TAW196626 SRA196626 SHE196626 RXI196626 RNM196626 RDQ196626 QTU196626 QJY196626 QAC196626 PQG196626 PGK196626 OWO196626 OMS196626 OCW196626 NTA196626 NJE196626 MZI196626 MPM196626 MFQ196626 LVU196626 LLY196626 LCC196626 KSG196626 KIK196626 JYO196626 JOS196626 JEW196626 IVA196626 ILE196626 IBI196626 HRM196626 HHQ196626 GXU196626 GNY196626 GEC196626 FUG196626 FKK196626 FAO196626 EQS196626 EGW196626 DXA196626 DNE196626 DDI196626 CTM196626 CJQ196626 BZU196626 BPY196626 BGC196626 AWG196626 AMK196626 ACO196626 SS196626 IW196626 A196626 WVI131090 WLM131090 WBQ131090 VRU131090 VHY131090 UYC131090 UOG131090 UEK131090 TUO131090 TKS131090 TAW131090 SRA131090 SHE131090 RXI131090 RNM131090 RDQ131090 QTU131090 QJY131090 QAC131090 PQG131090 PGK131090 OWO131090 OMS131090 OCW131090 NTA131090 NJE131090 MZI131090 MPM131090 MFQ131090 LVU131090 LLY131090 LCC131090 KSG131090 KIK131090 JYO131090 JOS131090 JEW131090 IVA131090 ILE131090 IBI131090 HRM131090 HHQ131090 GXU131090 GNY131090 GEC131090 FUG131090 FKK131090 FAO131090 EQS131090 EGW131090 DXA131090 DNE131090 DDI131090 CTM131090 CJQ131090 BZU131090 BPY131090 BGC131090 AWG131090 AMK131090 ACO131090 SS131090 IW131090 A131090 WVI65554 WLM65554 WBQ65554 VRU65554 VHY65554 UYC65554 UOG65554 UEK65554 TUO65554 TKS65554 TAW65554 SRA65554 SHE65554 RXI65554 RNM65554 RDQ65554 QTU65554 QJY65554 QAC65554 PQG65554 PGK65554 OWO65554 OMS65554 OCW65554 NTA65554 NJE65554 MZI65554 MPM65554 MFQ65554 LVU65554 LLY65554 LCC65554 KSG65554 KIK65554 JYO65554 JOS65554 JEW65554 IVA65554 ILE65554 IBI65554 HRM65554 HHQ65554 GXU65554 GNY65554 GEC65554 FUG65554 FKK65554 FAO65554 EQS65554 EGW65554 DXA65554 DNE65554 DDI65554 CTM65554 CJQ65554 BZU65554 BPY65554 BGC65554 AWG65554 AMK65554 ACO65554 SS65554 IW65554 A65554 WVI18 WLM18 WBQ18 VRU18 VHY18 UYC18 UOG18 UEK18 TUO18 TKS18 TAW18 SRA18 SHE18 RXI18 RNM18 RDQ18 QTU18 QJY18 QAC18 PQG18 PGK18 OWO18 OMS18 OCW18 NTA18 NJE18 MZI18 MPM18 MFQ18 LVU18 LLY18 LCC18 KSG18 KIK18 JYO18 JOS18 JEW18 IVA18 ILE18 IBI18 HRM18 HHQ18 GXU18 GNY18 GEC18 FUG18 FKK18 FAO18 EQS18 EGW18 DXA18 DNE18 DDI18 CTM18 CJQ18 BZU18 BPY18 BGC18 AWG18 AMK18 ACO18 SS18 IW18" xr:uid="{D3DC4FE0-1FFE-4D3A-A0E7-BD46554B1496}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18 WVI983057 WLM983057 WBQ983057 VRU983057 VHY983057 UYC983057 UOG983057 UEK983057 TUO983057 TKS983057 TAW983057 SRA983057 SHE983057 RXI983057 RNM983057 RDQ983057 QTU983057 QJY983057 QAC983057 PQG983057 PGK983057 OWO983057 OMS983057 OCW983057 NTA983057 NJE983057 MZI983057 MPM983057 MFQ983057 LVU983057 LLY983057 LCC983057 KSG983057 KIK983057 JYO983057 JOS983057 JEW983057 IVA983057 ILE983057 IBI983057 HRM983057 HHQ983057 GXU983057 GNY983057 GEC983057 FUG983057 FKK983057 FAO983057 EQS983057 EGW983057 DXA983057 DNE983057 DDI983057 CTM983057 CJQ983057 BZU983057 BPY983057 BGC983057 AWG983057 AMK983057 ACO983057 SS983057 IW983057 A983057 WVI917521 WLM917521 WBQ917521 VRU917521 VHY917521 UYC917521 UOG917521 UEK917521 TUO917521 TKS917521 TAW917521 SRA917521 SHE917521 RXI917521 RNM917521 RDQ917521 QTU917521 QJY917521 QAC917521 PQG917521 PGK917521 OWO917521 OMS917521 OCW917521 NTA917521 NJE917521 MZI917521 MPM917521 MFQ917521 LVU917521 LLY917521 LCC917521 KSG917521 KIK917521 JYO917521 JOS917521 JEW917521 IVA917521 ILE917521 IBI917521 HRM917521 HHQ917521 GXU917521 GNY917521 GEC917521 FUG917521 FKK917521 FAO917521 EQS917521 EGW917521 DXA917521 DNE917521 DDI917521 CTM917521 CJQ917521 BZU917521 BPY917521 BGC917521 AWG917521 AMK917521 ACO917521 SS917521 IW917521 A917521 WVI851985 WLM851985 WBQ851985 VRU851985 VHY851985 UYC851985 UOG851985 UEK851985 TUO851985 TKS851985 TAW851985 SRA851985 SHE851985 RXI851985 RNM851985 RDQ851985 QTU851985 QJY851985 QAC851985 PQG851985 PGK851985 OWO851985 OMS851985 OCW851985 NTA851985 NJE851985 MZI851985 MPM851985 MFQ851985 LVU851985 LLY851985 LCC851985 KSG851985 KIK851985 JYO851985 JOS851985 JEW851985 IVA851985 ILE851985 IBI851985 HRM851985 HHQ851985 GXU851985 GNY851985 GEC851985 FUG851985 FKK851985 FAO851985 EQS851985 EGW851985 DXA851985 DNE851985 DDI851985 CTM851985 CJQ851985 BZU851985 BPY851985 BGC851985 AWG851985 AMK851985 ACO851985 SS851985 IW851985 A851985 WVI786449 WLM786449 WBQ786449 VRU786449 VHY786449 UYC786449 UOG786449 UEK786449 TUO786449 TKS786449 TAW786449 SRA786449 SHE786449 RXI786449 RNM786449 RDQ786449 QTU786449 QJY786449 QAC786449 PQG786449 PGK786449 OWO786449 OMS786449 OCW786449 NTA786449 NJE786449 MZI786449 MPM786449 MFQ786449 LVU786449 LLY786449 LCC786449 KSG786449 KIK786449 JYO786449 JOS786449 JEW786449 IVA786449 ILE786449 IBI786449 HRM786449 HHQ786449 GXU786449 GNY786449 GEC786449 FUG786449 FKK786449 FAO786449 EQS786449 EGW786449 DXA786449 DNE786449 DDI786449 CTM786449 CJQ786449 BZU786449 BPY786449 BGC786449 AWG786449 AMK786449 ACO786449 SS786449 IW786449 A786449 WVI720913 WLM720913 WBQ720913 VRU720913 VHY720913 UYC720913 UOG720913 UEK720913 TUO720913 TKS720913 TAW720913 SRA720913 SHE720913 RXI720913 RNM720913 RDQ720913 QTU720913 QJY720913 QAC720913 PQG720913 PGK720913 OWO720913 OMS720913 OCW720913 NTA720913 NJE720913 MZI720913 MPM720913 MFQ720913 LVU720913 LLY720913 LCC720913 KSG720913 KIK720913 JYO720913 JOS720913 JEW720913 IVA720913 ILE720913 IBI720913 HRM720913 HHQ720913 GXU720913 GNY720913 GEC720913 FUG720913 FKK720913 FAO720913 EQS720913 EGW720913 DXA720913 DNE720913 DDI720913 CTM720913 CJQ720913 BZU720913 BPY720913 BGC720913 AWG720913 AMK720913 ACO720913 SS720913 IW720913 A720913 WVI655377 WLM655377 WBQ655377 VRU655377 VHY655377 UYC655377 UOG655377 UEK655377 TUO655377 TKS655377 TAW655377 SRA655377 SHE655377 RXI655377 RNM655377 RDQ655377 QTU655377 QJY655377 QAC655377 PQG655377 PGK655377 OWO655377 OMS655377 OCW655377 NTA655377 NJE655377 MZI655377 MPM655377 MFQ655377 LVU655377 LLY655377 LCC655377 KSG655377 KIK655377 JYO655377 JOS655377 JEW655377 IVA655377 ILE655377 IBI655377 HRM655377 HHQ655377 GXU655377 GNY655377 GEC655377 FUG655377 FKK655377 FAO655377 EQS655377 EGW655377 DXA655377 DNE655377 DDI655377 CTM655377 CJQ655377 BZU655377 BPY655377 BGC655377 AWG655377 AMK655377 ACO655377 SS655377 IW655377 A655377 WVI589841 WLM589841 WBQ589841 VRU589841 VHY589841 UYC589841 UOG589841 UEK589841 TUO589841 TKS589841 TAW589841 SRA589841 SHE589841 RXI589841 RNM589841 RDQ589841 QTU589841 QJY589841 QAC589841 PQG589841 PGK589841 OWO589841 OMS589841 OCW589841 NTA589841 NJE589841 MZI589841 MPM589841 MFQ589841 LVU589841 LLY589841 LCC589841 KSG589841 KIK589841 JYO589841 JOS589841 JEW589841 IVA589841 ILE589841 IBI589841 HRM589841 HHQ589841 GXU589841 GNY589841 GEC589841 FUG589841 FKK589841 FAO589841 EQS589841 EGW589841 DXA589841 DNE589841 DDI589841 CTM589841 CJQ589841 BZU589841 BPY589841 BGC589841 AWG589841 AMK589841 ACO589841 SS589841 IW589841 A589841 WVI524305 WLM524305 WBQ524305 VRU524305 VHY524305 UYC524305 UOG524305 UEK524305 TUO524305 TKS524305 TAW524305 SRA524305 SHE524305 RXI524305 RNM524305 RDQ524305 QTU524305 QJY524305 QAC524305 PQG524305 PGK524305 OWO524305 OMS524305 OCW524305 NTA524305 NJE524305 MZI524305 MPM524305 MFQ524305 LVU524305 LLY524305 LCC524305 KSG524305 KIK524305 JYO524305 JOS524305 JEW524305 IVA524305 ILE524305 IBI524305 HRM524305 HHQ524305 GXU524305 GNY524305 GEC524305 FUG524305 FKK524305 FAO524305 EQS524305 EGW524305 DXA524305 DNE524305 DDI524305 CTM524305 CJQ524305 BZU524305 BPY524305 BGC524305 AWG524305 AMK524305 ACO524305 SS524305 IW524305 A524305 WVI458769 WLM458769 WBQ458769 VRU458769 VHY458769 UYC458769 UOG458769 UEK458769 TUO458769 TKS458769 TAW458769 SRA458769 SHE458769 RXI458769 RNM458769 RDQ458769 QTU458769 QJY458769 QAC458769 PQG458769 PGK458769 OWO458769 OMS458769 OCW458769 NTA458769 NJE458769 MZI458769 MPM458769 MFQ458769 LVU458769 LLY458769 LCC458769 KSG458769 KIK458769 JYO458769 JOS458769 JEW458769 IVA458769 ILE458769 IBI458769 HRM458769 HHQ458769 GXU458769 GNY458769 GEC458769 FUG458769 FKK458769 FAO458769 EQS458769 EGW458769 DXA458769 DNE458769 DDI458769 CTM458769 CJQ458769 BZU458769 BPY458769 BGC458769 AWG458769 AMK458769 ACO458769 SS458769 IW458769 A458769 WVI393233 WLM393233 WBQ393233 VRU393233 VHY393233 UYC393233 UOG393233 UEK393233 TUO393233 TKS393233 TAW393233 SRA393233 SHE393233 RXI393233 RNM393233 RDQ393233 QTU393233 QJY393233 QAC393233 PQG393233 PGK393233 OWO393233 OMS393233 OCW393233 NTA393233 NJE393233 MZI393233 MPM393233 MFQ393233 LVU393233 LLY393233 LCC393233 KSG393233 KIK393233 JYO393233 JOS393233 JEW393233 IVA393233 ILE393233 IBI393233 HRM393233 HHQ393233 GXU393233 GNY393233 GEC393233 FUG393233 FKK393233 FAO393233 EQS393233 EGW393233 DXA393233 DNE393233 DDI393233 CTM393233 CJQ393233 BZU393233 BPY393233 BGC393233 AWG393233 AMK393233 ACO393233 SS393233 IW393233 A393233 WVI327697 WLM327697 WBQ327697 VRU327697 VHY327697 UYC327697 UOG327697 UEK327697 TUO327697 TKS327697 TAW327697 SRA327697 SHE327697 RXI327697 RNM327697 RDQ327697 QTU327697 QJY327697 QAC327697 PQG327697 PGK327697 OWO327697 OMS327697 OCW327697 NTA327697 NJE327697 MZI327697 MPM327697 MFQ327697 LVU327697 LLY327697 LCC327697 KSG327697 KIK327697 JYO327697 JOS327697 JEW327697 IVA327697 ILE327697 IBI327697 HRM327697 HHQ327697 GXU327697 GNY327697 GEC327697 FUG327697 FKK327697 FAO327697 EQS327697 EGW327697 DXA327697 DNE327697 DDI327697 CTM327697 CJQ327697 BZU327697 BPY327697 BGC327697 AWG327697 AMK327697 ACO327697 SS327697 IW327697 A327697 WVI262161 WLM262161 WBQ262161 VRU262161 VHY262161 UYC262161 UOG262161 UEK262161 TUO262161 TKS262161 TAW262161 SRA262161 SHE262161 RXI262161 RNM262161 RDQ262161 QTU262161 QJY262161 QAC262161 PQG262161 PGK262161 OWO262161 OMS262161 OCW262161 NTA262161 NJE262161 MZI262161 MPM262161 MFQ262161 LVU262161 LLY262161 LCC262161 KSG262161 KIK262161 JYO262161 JOS262161 JEW262161 IVA262161 ILE262161 IBI262161 HRM262161 HHQ262161 GXU262161 GNY262161 GEC262161 FUG262161 FKK262161 FAO262161 EQS262161 EGW262161 DXA262161 DNE262161 DDI262161 CTM262161 CJQ262161 BZU262161 BPY262161 BGC262161 AWG262161 AMK262161 ACO262161 SS262161 IW262161 A262161 WVI196625 WLM196625 WBQ196625 VRU196625 VHY196625 UYC196625 UOG196625 UEK196625 TUO196625 TKS196625 TAW196625 SRA196625 SHE196625 RXI196625 RNM196625 RDQ196625 QTU196625 QJY196625 QAC196625 PQG196625 PGK196625 OWO196625 OMS196625 OCW196625 NTA196625 NJE196625 MZI196625 MPM196625 MFQ196625 LVU196625 LLY196625 LCC196625 KSG196625 KIK196625 JYO196625 JOS196625 JEW196625 IVA196625 ILE196625 IBI196625 HRM196625 HHQ196625 GXU196625 GNY196625 GEC196625 FUG196625 FKK196625 FAO196625 EQS196625 EGW196625 DXA196625 DNE196625 DDI196625 CTM196625 CJQ196625 BZU196625 BPY196625 BGC196625 AWG196625 AMK196625 ACO196625 SS196625 IW196625 A196625 WVI131089 WLM131089 WBQ131089 VRU131089 VHY131089 UYC131089 UOG131089 UEK131089 TUO131089 TKS131089 TAW131089 SRA131089 SHE131089 RXI131089 RNM131089 RDQ131089 QTU131089 QJY131089 QAC131089 PQG131089 PGK131089 OWO131089 OMS131089 OCW131089 NTA131089 NJE131089 MZI131089 MPM131089 MFQ131089 LVU131089 LLY131089 LCC131089 KSG131089 KIK131089 JYO131089 JOS131089 JEW131089 IVA131089 ILE131089 IBI131089 HRM131089 HHQ131089 GXU131089 GNY131089 GEC131089 FUG131089 FKK131089 FAO131089 EQS131089 EGW131089 DXA131089 DNE131089 DDI131089 CTM131089 CJQ131089 BZU131089 BPY131089 BGC131089 AWG131089 AMK131089 ACO131089 SS131089 IW131089 A131089 WVI65553 WLM65553 WBQ65553 VRU65553 VHY65553 UYC65553 UOG65553 UEK65553 TUO65553 TKS65553 TAW65553 SRA65553 SHE65553 RXI65553 RNM65553 RDQ65553 QTU65553 QJY65553 QAC65553 PQG65553 PGK65553 OWO65553 OMS65553 OCW65553 NTA65553 NJE65553 MZI65553 MPM65553 MFQ65553 LVU65553 LLY65553 LCC65553 KSG65553 KIK65553 JYO65553 JOS65553 JEW65553 IVA65553 ILE65553 IBI65553 HRM65553 HHQ65553 GXU65553 GNY65553 GEC65553 FUG65553 FKK65553 FAO65553 EQS65553 EGW65553 DXA65553 DNE65553 DDI65553 CTM65553 CJQ65553 BZU65553 BPY65553 BGC65553 AWG65553 AMK65553 ACO65553 SS65553 IW65553 A65553 WVI18 WLM18 WBQ18 VRU18 VHY18 UYC18 UOG18 UEK18 TUO18 TKS18 TAW18 SRA18 SHE18 RXI18 RNM18 RDQ18 QTU18 QJY18 QAC18 PQG18 PGK18 OWO18 OMS18 OCW18 NTA18 NJE18 MZI18 MPM18 MFQ18 LVU18 LLY18 LCC18 KSG18 KIK18 JYO18 JOS18 JEW18 IVA18 ILE18 IBI18 HRM18 HHQ18 GXU18 GNY18 GEC18 FUG18 FKK18 FAO18 EQS18 EGW18 DXA18 DNE18 DDI18 CTM18 CJQ18 BZU18 BPY18 BGC18 AWG18 AMK18 ACO18 SS18 IW18" xr:uid="{D3DC4FE0-1FFE-4D3A-A0E7-BD46554B1496}">
       <formula1>$AM$8:$AM$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.96510416666666698" right="0.47351190476190502" top="0.196850393700787" bottom="0.196850393700787" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>